--- a/Pixel/Doc/2019-09-15 - UWP Pixel - Version 100.xlsx
+++ b/Pixel/Doc/2019-09-15 - UWP Pixel - Version 100.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8174E-B1CF-4383-BD3D-43D94BCBB57F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EEBBE4-4F15-4B30-94BE-6ED10EDFEACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LCD 240x320 - Caractère 5x7" sheetId="1" r:id="rId1"/>
-    <sheet name="Tableau des 256 caractères 5x7" sheetId="15" r:id="rId2"/>
-    <sheet name="Tableau de caractères 5x7" sheetId="16" r:id="rId3"/>
-    <sheet name="Tables de conversion" sheetId="5" r:id="rId4"/>
+    <sheet name="Page de garde" sheetId="17" r:id="rId1"/>
+    <sheet name="LCD 240x320 - Caractère 5x7" sheetId="1" r:id="rId2"/>
+    <sheet name="Tableau des 256 caractères 5x7" sheetId="15" r:id="rId3"/>
+    <sheet name="Tableau de caractères 5x7" sheetId="16" r:id="rId4"/>
+    <sheet name="Tables de conversion" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1547,6 +1548,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1574,6 +1578,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,22 +1602,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1615,9 +1619,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1904,43 +1905,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FC8846-D7E0-4274-ABFC-E077D17348CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.7109375" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AK40" sqref="AK40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="78"/>
     </row>
     <row r="2" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -1970,62 +1993,62 @@
       <c r="Y2" s="23"/>
     </row>
     <row r="3" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
     </row>
     <row r="5" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66"/>
@@ -2082,60 +2105,60 @@
       <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="73"/>
     </row>
     <row r="8" spans="1:25" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
     </row>
     <row r="9" spans="1:25" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
@@ -2333,10 +2356,10 @@
     </row>
     <row r="25" spans="1:25" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="3"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
@@ -2353,60 +2376,60 @@
       <c r="R25" s="3"/>
     </row>
     <row r="29" spans="1:25" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="73"/>
     </row>
     <row r="30" spans="1:25" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
     </row>
     <row r="31" spans="1:25" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,10 +2599,10 @@
     </row>
     <row r="47" spans="2:29" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="74"/>
+      <c r="D47" s="75"/>
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
@@ -2663,7 +2686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668DC44E-524C-41CF-A835-830E6776612A}">
   <dimension ref="C1:YN51"/>
   <sheetViews>
@@ -3190,8 +3213,8 @@
     </row>
     <row r="2" spans="3:664" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="40"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="G2" s="41"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -3201,10 +3224,10 @@
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
       <c r="O2" s="40"/>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="80"/>
+      <c r="Q2" s="84"/>
       <c r="R2" s="39"/>
       <c r="S2" s="41"/>
       <c r="T2" s="44"/>
@@ -3214,10 +3237,10 @@
       <c r="X2" s="43"/>
       <c r="Y2" s="39"/>
       <c r="AB2" s="40"/>
-      <c r="AC2" s="79" t="s">
+      <c r="AC2" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="80"/>
+      <c r="AD2" s="84"/>
       <c r="AF2" s="45"/>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
@@ -3227,10 +3250,10 @@
       <c r="AL2" s="39"/>
       <c r="AM2" s="39"/>
       <c r="AN2" s="40"/>
-      <c r="AO2" s="79" t="s">
+      <c r="AO2" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="80"/>
+      <c r="AP2" s="84"/>
       <c r="AQ2" s="39"/>
       <c r="AR2" s="41"/>
       <c r="AS2" s="42"/>
@@ -3240,10 +3263,10 @@
       <c r="AW2" s="43"/>
       <c r="AX2" s="39"/>
       <c r="BA2" s="40"/>
-      <c r="BB2" s="79" t="s">
+      <c r="BB2" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="BC2" s="80"/>
+      <c r="BC2" s="84"/>
       <c r="BE2" s="41"/>
       <c r="BF2" s="44"/>
       <c r="BG2" s="44"/>
@@ -3253,10 +3276,10 @@
       <c r="BK2" s="39"/>
       <c r="BL2" s="39"/>
       <c r="BM2" s="40"/>
-      <c r="BN2" s="79" t="s">
+      <c r="BN2" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="BO2" s="80"/>
+      <c r="BO2" s="84"/>
       <c r="BP2" s="39"/>
       <c r="BQ2" s="41"/>
       <c r="BR2" s="42"/>
@@ -3266,10 +3289,10 @@
       <c r="BV2" s="43"/>
       <c r="BW2" s="39"/>
       <c r="BZ2" s="40"/>
-      <c r="CA2" s="79" t="s">
+      <c r="CA2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="CB2" s="80"/>
+      <c r="CB2" s="84"/>
       <c r="CD2" s="41"/>
       <c r="CE2" s="42"/>
       <c r="CF2" s="42"/>
@@ -3279,10 +3302,10 @@
       <c r="CJ2" s="39"/>
       <c r="CK2" s="39"/>
       <c r="CL2" s="40"/>
-      <c r="CM2" s="79" t="s">
+      <c r="CM2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="CN2" s="80"/>
+      <c r="CN2" s="84"/>
       <c r="CO2" s="39"/>
       <c r="CP2" s="41"/>
       <c r="CQ2" s="44"/>
@@ -3292,10 +3315,10 @@
       <c r="CU2" s="43"/>
       <c r="CV2" s="39"/>
       <c r="CY2" s="40"/>
-      <c r="CZ2" s="79" t="s">
+      <c r="CZ2" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="DA2" s="80"/>
+      <c r="DA2" s="84"/>
       <c r="DC2" s="41"/>
       <c r="DD2" s="42"/>
       <c r="DE2" s="42"/>
@@ -3305,10 +3328,10 @@
       <c r="DI2" s="39"/>
       <c r="DJ2" s="39"/>
       <c r="DK2" s="40"/>
-      <c r="DL2" s="79" t="s">
+      <c r="DL2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="DM2" s="80"/>
+      <c r="DM2" s="84"/>
       <c r="DN2" s="39"/>
       <c r="DO2" s="41"/>
       <c r="DP2" s="42"/>
@@ -3318,10 +3341,10 @@
       <c r="DT2" s="43"/>
       <c r="DU2" s="39"/>
       <c r="DX2" s="40"/>
-      <c r="DY2" s="79" t="s">
+      <c r="DY2" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="DZ2" s="80"/>
+      <c r="DZ2" s="84"/>
       <c r="EB2" s="41"/>
       <c r="EC2" s="44"/>
       <c r="ED2" s="44"/>
@@ -3331,10 +3354,10 @@
       <c r="EH2" s="39"/>
       <c r="EI2" s="39"/>
       <c r="EJ2" s="40"/>
-      <c r="EK2" s="79" t="s">
+      <c r="EK2" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="EL2" s="80"/>
+      <c r="EL2" s="84"/>
       <c r="EM2" s="39"/>
       <c r="EN2" s="45"/>
       <c r="EO2" s="44"/>
@@ -3344,10 +3367,10 @@
       <c r="ES2" s="43"/>
       <c r="ET2" s="39"/>
       <c r="EW2" s="40"/>
-      <c r="EX2" s="79" t="s">
+      <c r="EX2" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="EY2" s="80"/>
+      <c r="EY2" s="84"/>
       <c r="FA2" s="41"/>
       <c r="FB2" s="42"/>
       <c r="FC2" s="42"/>
@@ -3357,10 +3380,10 @@
       <c r="FG2" s="39"/>
       <c r="FH2" s="39"/>
       <c r="FI2" s="40"/>
-      <c r="FJ2" s="79" t="s">
+      <c r="FJ2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="FK2" s="80"/>
+      <c r="FK2" s="84"/>
       <c r="FL2" s="39"/>
       <c r="FM2" s="41"/>
       <c r="FN2" s="44"/>
@@ -3370,10 +3393,10 @@
       <c r="FR2" s="43"/>
       <c r="FS2" s="39"/>
       <c r="FV2" s="40"/>
-      <c r="FW2" s="79" t="s">
+      <c r="FW2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="FX2" s="80"/>
+      <c r="FX2" s="84"/>
       <c r="FZ2" s="45"/>
       <c r="GA2" s="44"/>
       <c r="GB2" s="44"/>
@@ -3383,10 +3406,10 @@
       <c r="GF2" s="39"/>
       <c r="GG2" s="39"/>
       <c r="GH2" s="40"/>
-      <c r="GI2" s="79" t="s">
+      <c r="GI2" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="GJ2" s="80"/>
+      <c r="GJ2" s="84"/>
       <c r="GK2" s="39"/>
       <c r="GL2" s="45"/>
       <c r="GM2" s="42"/>
@@ -3396,10 +3419,10 @@
       <c r="GQ2" s="43"/>
       <c r="GR2" s="39"/>
       <c r="GU2" s="40"/>
-      <c r="GV2" s="79" t="s">
+      <c r="GV2" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="GW2" s="80"/>
+      <c r="GW2" s="84"/>
       <c r="GY2" s="45"/>
       <c r="GZ2" s="44"/>
       <c r="HA2" s="44"/>
@@ -3409,10 +3432,10 @@
       <c r="HE2" s="39"/>
       <c r="HF2" s="39"/>
       <c r="HG2" s="40"/>
-      <c r="HH2" s="79" t="s">
+      <c r="HH2" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="HI2" s="80"/>
+      <c r="HI2" s="84"/>
       <c r="HJ2" s="39"/>
       <c r="HK2" s="45"/>
       <c r="HL2" s="42"/>
@@ -3422,10 +3445,10 @@
       <c r="HP2" s="43"/>
       <c r="HQ2" s="39"/>
       <c r="HT2" s="40"/>
-      <c r="HU2" s="79" t="s">
+      <c r="HU2" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="HV2" s="80"/>
+      <c r="HV2" s="84"/>
       <c r="HX2" s="45"/>
       <c r="HY2" s="44"/>
       <c r="HZ2" s="44"/>
@@ -3435,10 +3458,10 @@
       <c r="ID2" s="39"/>
       <c r="IE2" s="39"/>
       <c r="IF2" s="40"/>
-      <c r="IG2" s="79" t="s">
+      <c r="IG2" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="IH2" s="80"/>
+      <c r="IH2" s="84"/>
       <c r="II2" s="39"/>
       <c r="IJ2" s="41"/>
       <c r="IK2" s="42"/>
@@ -3448,10 +3471,10 @@
       <c r="IO2" s="43"/>
       <c r="IP2" s="39"/>
       <c r="IS2" s="40"/>
-      <c r="IT2" s="79" t="s">
+      <c r="IT2" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="IU2" s="80"/>
+      <c r="IU2" s="84"/>
       <c r="IW2" s="41"/>
       <c r="IX2" s="42"/>
       <c r="IY2" s="42"/>
@@ -3461,10 +3484,10 @@
       <c r="JC2" s="39"/>
       <c r="JD2" s="39"/>
       <c r="JE2" s="40"/>
-      <c r="JF2" s="79" t="s">
+      <c r="JF2" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="JG2" s="80"/>
+      <c r="JG2" s="84"/>
       <c r="JH2" s="39"/>
       <c r="JI2" s="41"/>
       <c r="JJ2" s="42"/>
@@ -3474,10 +3497,10 @@
       <c r="JN2" s="43"/>
       <c r="JO2" s="39"/>
       <c r="JR2" s="40"/>
-      <c r="JS2" s="79" t="s">
+      <c r="JS2" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="JT2" s="80"/>
+      <c r="JT2" s="84"/>
       <c r="JV2" s="41"/>
       <c r="JW2" s="42"/>
       <c r="JX2" s="42"/>
@@ -3487,10 +3510,10 @@
       <c r="KB2" s="39"/>
       <c r="KC2" s="39"/>
       <c r="KD2" s="40"/>
-      <c r="KE2" s="79" t="s">
+      <c r="KE2" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="KF2" s="80"/>
+      <c r="KF2" s="84"/>
       <c r="KG2" s="39"/>
       <c r="KH2" s="41"/>
       <c r="KI2" s="42"/>
@@ -3500,10 +3523,10 @@
       <c r="KM2" s="43"/>
       <c r="KN2" s="39"/>
       <c r="KQ2" s="40"/>
-      <c r="KR2" s="79" t="s">
+      <c r="KR2" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="KS2" s="80"/>
+      <c r="KS2" s="84"/>
       <c r="KU2" s="41"/>
       <c r="KV2" s="42"/>
       <c r="KW2" s="42"/>
@@ -3513,10 +3536,10 @@
       <c r="LA2" s="39"/>
       <c r="LB2" s="39"/>
       <c r="LC2" s="40"/>
-      <c r="LD2" s="79" t="s">
+      <c r="LD2" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="LE2" s="80"/>
+      <c r="LE2" s="84"/>
       <c r="LF2" s="39"/>
       <c r="LG2" s="41"/>
       <c r="LH2" s="44"/>
@@ -3526,10 +3549,10 @@
       <c r="LL2" s="43"/>
       <c r="LM2" s="39"/>
       <c r="LP2" s="40"/>
-      <c r="LQ2" s="79" t="s">
+      <c r="LQ2" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="LR2" s="80"/>
+      <c r="LR2" s="84"/>
       <c r="LT2" s="41"/>
       <c r="LU2" s="42"/>
       <c r="LV2" s="42"/>
@@ -3539,10 +3562,10 @@
       <c r="LZ2" s="39"/>
       <c r="MA2" s="39"/>
       <c r="MB2" s="40"/>
-      <c r="MC2" s="79" t="s">
+      <c r="MC2" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="MD2" s="80"/>
+      <c r="MD2" s="84"/>
       <c r="ME2" s="39"/>
       <c r="MF2" s="41"/>
       <c r="MG2" s="42"/>
@@ -3552,10 +3575,10 @@
       <c r="MK2" s="43"/>
       <c r="ML2" s="39"/>
       <c r="MO2" s="40"/>
-      <c r="MP2" s="79" t="s">
+      <c r="MP2" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="MQ2" s="80"/>
+      <c r="MQ2" s="84"/>
       <c r="MS2" s="41"/>
       <c r="MT2" s="42"/>
       <c r="MU2" s="44"/>
@@ -3565,10 +3588,10 @@
       <c r="MY2" s="39"/>
       <c r="MZ2" s="39"/>
       <c r="NA2" s="40"/>
-      <c r="NB2" s="79" t="s">
+      <c r="NB2" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="NC2" s="80"/>
+      <c r="NC2" s="84"/>
       <c r="ND2" s="39"/>
       <c r="NE2" s="41"/>
       <c r="NF2" s="42"/>
@@ -3577,10 +3600,10 @@
       <c r="NI2" s="42"/>
       <c r="NJ2" s="43"/>
       <c r="NN2" s="40"/>
-      <c r="NO2" s="79" t="s">
+      <c r="NO2" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="NP2" s="80"/>
+      <c r="NP2" s="84"/>
       <c r="NR2" s="41"/>
       <c r="NS2" s="42"/>
       <c r="NT2" s="42"/>
@@ -3590,10 +3613,10 @@
       <c r="NX2" s="39"/>
       <c r="NY2" s="39"/>
       <c r="NZ2" s="40"/>
-      <c r="OA2" s="79" t="s">
+      <c r="OA2" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="OB2" s="80"/>
+      <c r="OB2" s="84"/>
       <c r="OC2" s="39"/>
       <c r="OD2" s="41"/>
       <c r="OE2" s="42"/>
@@ -3602,10 +3625,10 @@
       <c r="OH2" s="42"/>
       <c r="OI2" s="43"/>
       <c r="OM2" s="40"/>
-      <c r="ON2" s="79" t="s">
+      <c r="ON2" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="OO2" s="80"/>
+      <c r="OO2" s="84"/>
       <c r="OQ2" s="41"/>
       <c r="OR2" s="42"/>
       <c r="OS2" s="42"/>
@@ -3615,10 +3638,10 @@
       <c r="OW2" s="39"/>
       <c r="OX2" s="39"/>
       <c r="OY2" s="40"/>
-      <c r="OZ2" s="79" t="s">
+      <c r="OZ2" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="PA2" s="80"/>
+      <c r="PA2" s="84"/>
       <c r="PB2" s="39"/>
       <c r="PC2" s="41"/>
       <c r="PD2" s="42"/>
@@ -3627,10 +3650,10 @@
       <c r="PG2" s="42"/>
       <c r="PH2" s="43"/>
       <c r="PL2" s="40"/>
-      <c r="PM2" s="79" t="s">
+      <c r="PM2" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="PN2" s="80"/>
+      <c r="PN2" s="84"/>
       <c r="PP2" s="41"/>
       <c r="PQ2" s="42"/>
       <c r="PR2" s="42"/>
@@ -3640,10 +3663,10 @@
       <c r="PV2" s="39"/>
       <c r="PW2" s="39"/>
       <c r="PX2" s="40"/>
-      <c r="PY2" s="79" t="s">
+      <c r="PY2" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="PZ2" s="80"/>
+      <c r="PZ2" s="84"/>
       <c r="QA2" s="39"/>
       <c r="QB2" s="41"/>
       <c r="QC2" s="42"/>
@@ -3652,10 +3675,10 @@
       <c r="QF2" s="42"/>
       <c r="QG2" s="43"/>
       <c r="QK2" s="40"/>
-      <c r="QL2" s="79" t="s">
+      <c r="QL2" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="QM2" s="80"/>
+      <c r="QM2" s="84"/>
       <c r="QO2" s="41"/>
       <c r="QP2" s="42"/>
       <c r="QQ2" s="42"/>
@@ -3665,10 +3688,10 @@
       <c r="QU2" s="39"/>
       <c r="QV2" s="39"/>
       <c r="QW2" s="40"/>
-      <c r="QX2" s="79" t="s">
+      <c r="QX2" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="QY2" s="80"/>
+      <c r="QY2" s="84"/>
       <c r="QZ2" s="39"/>
       <c r="RA2" s="41"/>
       <c r="RB2" s="42"/>
@@ -3677,10 +3700,10 @@
       <c r="RE2" s="42"/>
       <c r="RF2" s="43"/>
       <c r="RJ2" s="40"/>
-      <c r="RK2" s="79" t="s">
+      <c r="RK2" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="RL2" s="80"/>
+      <c r="RL2" s="84"/>
       <c r="RN2" s="41"/>
       <c r="RO2" s="42"/>
       <c r="RP2" s="42"/>
@@ -3690,10 +3713,10 @@
       <c r="RT2" s="39"/>
       <c r="RU2" s="39"/>
       <c r="RV2" s="40"/>
-      <c r="RW2" s="79" t="s">
+      <c r="RW2" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="RX2" s="80"/>
+      <c r="RX2" s="84"/>
       <c r="RY2" s="39"/>
       <c r="RZ2" s="41"/>
       <c r="SA2" s="42"/>
@@ -3702,10 +3725,10 @@
       <c r="SD2" s="42"/>
       <c r="SE2" s="43"/>
       <c r="SI2" s="40"/>
-      <c r="SJ2" s="79" t="s">
+      <c r="SJ2" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="SK2" s="80"/>
+      <c r="SK2" s="84"/>
       <c r="SM2" s="41"/>
       <c r="SN2" s="42"/>
       <c r="SO2" s="42"/>
@@ -3715,10 +3738,10 @@
       <c r="SS2" s="39"/>
       <c r="ST2" s="39"/>
       <c r="SU2" s="40"/>
-      <c r="SV2" s="79" t="s">
+      <c r="SV2" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="SW2" s="80"/>
+      <c r="SW2" s="84"/>
       <c r="SX2" s="39"/>
       <c r="SY2" s="41"/>
       <c r="SZ2" s="42"/>
@@ -3727,10 +3750,10 @@
       <c r="TC2" s="42"/>
       <c r="TD2" s="43"/>
       <c r="TH2" s="40"/>
-      <c r="TI2" s="79" t="s">
+      <c r="TI2" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="TJ2" s="80"/>
+      <c r="TJ2" s="84"/>
       <c r="TL2" s="41"/>
       <c r="TM2" s="42"/>
       <c r="TN2" s="42"/>
@@ -3740,10 +3763,10 @@
       <c r="TR2" s="39"/>
       <c r="TS2" s="39"/>
       <c r="TT2" s="40"/>
-      <c r="TU2" s="79" t="s">
+      <c r="TU2" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="TV2" s="80"/>
+      <c r="TV2" s="84"/>
       <c r="TW2" s="39"/>
       <c r="TX2" s="41"/>
       <c r="TY2" s="42"/>
@@ -3752,10 +3775,10 @@
       <c r="UB2" s="42"/>
       <c r="UC2" s="43"/>
       <c r="UG2" s="40"/>
-      <c r="UH2" s="79" t="s">
+      <c r="UH2" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="UI2" s="80"/>
+      <c r="UI2" s="84"/>
       <c r="UK2" s="41"/>
       <c r="UL2" s="42"/>
       <c r="UM2" s="42"/>
@@ -3765,10 +3788,10 @@
       <c r="UQ2" s="39"/>
       <c r="UR2" s="39"/>
       <c r="US2" s="40"/>
-      <c r="UT2" s="79" t="s">
+      <c r="UT2" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="UU2" s="80"/>
+      <c r="UU2" s="84"/>
       <c r="UV2" s="39"/>
       <c r="UW2" s="41"/>
       <c r="UX2" s="42"/>
@@ -3777,10 +3800,10 @@
       <c r="VA2" s="42"/>
       <c r="VB2" s="43"/>
       <c r="VF2" s="40"/>
-      <c r="VG2" s="79" t="s">
+      <c r="VG2" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="VH2" s="80"/>
+      <c r="VH2" s="84"/>
       <c r="VJ2" s="41"/>
       <c r="VK2" s="42"/>
       <c r="VL2" s="42"/>
@@ -3790,10 +3813,10 @@
       <c r="VP2" s="39"/>
       <c r="VQ2" s="39"/>
       <c r="VR2" s="40"/>
-      <c r="VS2" s="79" t="s">
+      <c r="VS2" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="VT2" s="80"/>
+      <c r="VT2" s="84"/>
       <c r="VU2" s="39"/>
       <c r="VV2" s="41"/>
       <c r="VW2" s="42"/>
@@ -3802,10 +3825,10 @@
       <c r="VZ2" s="42"/>
       <c r="WA2" s="43"/>
       <c r="WE2" s="40"/>
-      <c r="WF2" s="79" t="s">
+      <c r="WF2" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="WG2" s="80"/>
+      <c r="WG2" s="84"/>
       <c r="WI2" s="41"/>
       <c r="WJ2" s="42"/>
       <c r="WK2" s="42"/>
@@ -3815,10 +3838,10 @@
       <c r="WO2" s="39"/>
       <c r="WP2" s="39"/>
       <c r="WQ2" s="40"/>
-      <c r="WR2" s="79" t="s">
+      <c r="WR2" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="WS2" s="80"/>
+      <c r="WS2" s="84"/>
       <c r="WT2" s="39"/>
       <c r="WU2" s="41"/>
       <c r="WV2" s="42"/>
@@ -3827,10 +3850,10 @@
       <c r="WY2" s="42"/>
       <c r="WZ2" s="43"/>
       <c r="XD2" s="40"/>
-      <c r="XE2" s="79" t="s">
+      <c r="XE2" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="XF2" s="80"/>
+      <c r="XF2" s="84"/>
       <c r="XH2" s="41"/>
       <c r="XI2" s="42"/>
       <c r="XJ2" s="42"/>
@@ -3840,8 +3863,8 @@
       <c r="XN2" s="39"/>
       <c r="XO2" s="39"/>
       <c r="XP2" s="40"/>
-      <c r="XQ2" s="79"/>
-      <c r="XR2" s="80"/>
+      <c r="XQ2" s="83"/>
+      <c r="XR2" s="84"/>
       <c r="XS2" s="39"/>
       <c r="XT2" s="41"/>
       <c r="XU2" s="42"/>
@@ -3851,8 +3874,8 @@
       <c r="XY2" s="43"/>
     </row>
     <row r="3" spans="3:664" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
       <c r="G3" s="46"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -3861,8 +3884,8 @@
       <c r="L3" s="48"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
       <c r="R3" s="39"/>
       <c r="S3" s="46"/>
       <c r="T3" s="49"/>
@@ -3871,8 +3894,8 @@
       <c r="W3" s="47"/>
       <c r="X3" s="48"/>
       <c r="Y3" s="39"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="86"/>
       <c r="AF3" s="50"/>
       <c r="AG3" s="49"/>
       <c r="AH3" s="49"/>
@@ -3881,8 +3904,8 @@
       <c r="AK3" s="48"/>
       <c r="AL3" s="39"/>
       <c r="AM3" s="39"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="82"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="86"/>
       <c r="AQ3" s="39"/>
       <c r="AR3" s="50"/>
       <c r="AS3" s="47"/>
@@ -3891,8 +3914,8 @@
       <c r="AV3" s="49"/>
       <c r="AW3" s="48"/>
       <c r="AX3" s="39"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="82"/>
+      <c r="BB3" s="85"/>
+      <c r="BC3" s="86"/>
       <c r="BE3" s="50"/>
       <c r="BF3" s="47"/>
       <c r="BG3" s="49"/>
@@ -3901,8 +3924,8 @@
       <c r="BJ3" s="48"/>
       <c r="BK3" s="39"/>
       <c r="BL3" s="39"/>
-      <c r="BN3" s="81"/>
-      <c r="BO3" s="82"/>
+      <c r="BN3" s="85"/>
+      <c r="BO3" s="86"/>
       <c r="BP3" s="39"/>
       <c r="BQ3" s="46"/>
       <c r="BR3" s="47"/>
@@ -3911,8 +3934,8 @@
       <c r="BU3" s="47"/>
       <c r="BV3" s="48"/>
       <c r="BW3" s="39"/>
-      <c r="CA3" s="81"/>
-      <c r="CB3" s="82"/>
+      <c r="CA3" s="85"/>
+      <c r="CB3" s="86"/>
       <c r="CD3" s="46"/>
       <c r="CE3" s="47"/>
       <c r="CF3" s="49"/>
@@ -3921,8 +3944,8 @@
       <c r="CI3" s="48"/>
       <c r="CJ3" s="39"/>
       <c r="CK3" s="39"/>
-      <c r="CM3" s="81"/>
-      <c r="CN3" s="82"/>
+      <c r="CM3" s="85"/>
+      <c r="CN3" s="86"/>
       <c r="CO3" s="39"/>
       <c r="CP3" s="46"/>
       <c r="CQ3" s="49"/>
@@ -3931,8 +3954,8 @@
       <c r="CT3" s="47"/>
       <c r="CU3" s="48"/>
       <c r="CV3" s="39"/>
-      <c r="CZ3" s="81"/>
-      <c r="DA3" s="82"/>
+      <c r="CZ3" s="85"/>
+      <c r="DA3" s="86"/>
       <c r="DC3" s="46"/>
       <c r="DD3" s="47"/>
       <c r="DE3" s="49"/>
@@ -3941,8 +3964,8 @@
       <c r="DH3" s="48"/>
       <c r="DI3" s="39"/>
       <c r="DJ3" s="39"/>
-      <c r="DL3" s="81"/>
-      <c r="DM3" s="82"/>
+      <c r="DL3" s="85"/>
+      <c r="DM3" s="86"/>
       <c r="DN3" s="39"/>
       <c r="DO3" s="46"/>
       <c r="DP3" s="47"/>
@@ -3951,8 +3974,8 @@
       <c r="DS3" s="47"/>
       <c r="DT3" s="48"/>
       <c r="DU3" s="39"/>
-      <c r="DY3" s="81"/>
-      <c r="DZ3" s="82"/>
+      <c r="DY3" s="85"/>
+      <c r="DZ3" s="86"/>
       <c r="EB3" s="50"/>
       <c r="EC3" s="47"/>
       <c r="ED3" s="47"/>
@@ -3961,8 +3984,8 @@
       <c r="EG3" s="48"/>
       <c r="EH3" s="39"/>
       <c r="EI3" s="39"/>
-      <c r="EK3" s="81"/>
-      <c r="EL3" s="82"/>
+      <c r="EK3" s="85"/>
+      <c r="EL3" s="86"/>
       <c r="EM3" s="39"/>
       <c r="EN3" s="46"/>
       <c r="EO3" s="47"/>
@@ -3971,8 +3994,8 @@
       <c r="ER3" s="49"/>
       <c r="ES3" s="48"/>
       <c r="ET3" s="39"/>
-      <c r="EX3" s="81"/>
-      <c r="EY3" s="82"/>
+      <c r="EX3" s="85"/>
+      <c r="EY3" s="86"/>
       <c r="FA3" s="46"/>
       <c r="FB3" s="47"/>
       <c r="FC3" s="47"/>
@@ -3981,8 +4004,8 @@
       <c r="FF3" s="48"/>
       <c r="FG3" s="39"/>
       <c r="FH3" s="39"/>
-      <c r="FJ3" s="81"/>
-      <c r="FK3" s="82"/>
+      <c r="FJ3" s="85"/>
+      <c r="FK3" s="86"/>
       <c r="FL3" s="39"/>
       <c r="FM3" s="50"/>
       <c r="FN3" s="47"/>
@@ -3991,8 +4014,8 @@
       <c r="FQ3" s="49"/>
       <c r="FR3" s="48"/>
       <c r="FS3" s="39"/>
-      <c r="FW3" s="81"/>
-      <c r="FX3" s="82"/>
+      <c r="FW3" s="85"/>
+      <c r="FX3" s="86"/>
       <c r="FZ3" s="50"/>
       <c r="GA3" s="47"/>
       <c r="GB3" s="47"/>
@@ -4001,8 +4024,8 @@
       <c r="GE3" s="48"/>
       <c r="GF3" s="39"/>
       <c r="GG3" s="39"/>
-      <c r="GI3" s="81"/>
-      <c r="GJ3" s="82"/>
+      <c r="GI3" s="85"/>
+      <c r="GJ3" s="86"/>
       <c r="GK3" s="39"/>
       <c r="GL3" s="50"/>
       <c r="GM3" s="47"/>
@@ -4011,8 +4034,8 @@
       <c r="GP3" s="47"/>
       <c r="GQ3" s="48"/>
       <c r="GR3" s="39"/>
-      <c r="GV3" s="81"/>
-      <c r="GW3" s="82"/>
+      <c r="GV3" s="85"/>
+      <c r="GW3" s="86"/>
       <c r="GY3" s="50"/>
       <c r="GZ3" s="47"/>
       <c r="HA3" s="47"/>
@@ -4021,8 +4044,8 @@
       <c r="HD3" s="48"/>
       <c r="HE3" s="39"/>
       <c r="HF3" s="39"/>
-      <c r="HH3" s="81"/>
-      <c r="HI3" s="82"/>
+      <c r="HH3" s="85"/>
+      <c r="HI3" s="86"/>
       <c r="HJ3" s="39"/>
       <c r="HK3" s="50"/>
       <c r="HL3" s="47"/>
@@ -4031,8 +4054,8 @@
       <c r="HO3" s="49"/>
       <c r="HP3" s="48"/>
       <c r="HQ3" s="39"/>
-      <c r="HU3" s="81"/>
-      <c r="HV3" s="82"/>
+      <c r="HU3" s="85"/>
+      <c r="HV3" s="86"/>
       <c r="HX3" s="46"/>
       <c r="HY3" s="47"/>
       <c r="HZ3" s="47"/>
@@ -4041,8 +4064,8 @@
       <c r="IC3" s="48"/>
       <c r="ID3" s="39"/>
       <c r="IE3" s="39"/>
-      <c r="IG3" s="81"/>
-      <c r="IH3" s="82"/>
+      <c r="IG3" s="85"/>
+      <c r="IH3" s="86"/>
       <c r="II3" s="39"/>
       <c r="IJ3" s="46"/>
       <c r="IK3" s="47"/>
@@ -4051,8 +4074,8 @@
       <c r="IN3" s="47"/>
       <c r="IO3" s="48"/>
       <c r="IP3" s="39"/>
-      <c r="IT3" s="81"/>
-      <c r="IU3" s="82"/>
+      <c r="IT3" s="85"/>
+      <c r="IU3" s="86"/>
       <c r="IW3" s="46"/>
       <c r="IX3" s="47"/>
       <c r="IY3" s="47"/>
@@ -4061,8 +4084,8 @@
       <c r="JB3" s="48"/>
       <c r="JC3" s="39"/>
       <c r="JD3" s="39"/>
-      <c r="JF3" s="81"/>
-      <c r="JG3" s="82"/>
+      <c r="JF3" s="85"/>
+      <c r="JG3" s="86"/>
       <c r="JH3" s="39"/>
       <c r="JI3" s="46"/>
       <c r="JJ3" s="47"/>
@@ -4071,8 +4094,8 @@
       <c r="JM3" s="47"/>
       <c r="JN3" s="48"/>
       <c r="JO3" s="39"/>
-      <c r="JS3" s="81"/>
-      <c r="JT3" s="82"/>
+      <c r="JS3" s="85"/>
+      <c r="JT3" s="86"/>
       <c r="JV3" s="46"/>
       <c r="JW3" s="47"/>
       <c r="JX3" s="47"/>
@@ -4081,8 +4104,8 @@
       <c r="KA3" s="48"/>
       <c r="KB3" s="39"/>
       <c r="KC3" s="39"/>
-      <c r="KE3" s="81"/>
-      <c r="KF3" s="82"/>
+      <c r="KE3" s="85"/>
+      <c r="KF3" s="86"/>
       <c r="KG3" s="39"/>
       <c r="KH3" s="46"/>
       <c r="KI3" s="47"/>
@@ -4091,8 +4114,8 @@
       <c r="KL3" s="47"/>
       <c r="KM3" s="48"/>
       <c r="KN3" s="39"/>
-      <c r="KR3" s="81"/>
-      <c r="KS3" s="82"/>
+      <c r="KR3" s="85"/>
+      <c r="KS3" s="86"/>
       <c r="KU3" s="46"/>
       <c r="KV3" s="47"/>
       <c r="KW3" s="47"/>
@@ -4101,8 +4124,8 @@
       <c r="KZ3" s="48"/>
       <c r="LA3" s="39"/>
       <c r="LB3" s="39"/>
-      <c r="LD3" s="81"/>
-      <c r="LE3" s="82"/>
+      <c r="LD3" s="85"/>
+      <c r="LE3" s="86"/>
       <c r="LF3" s="39"/>
       <c r="LG3" s="46"/>
       <c r="LH3" s="47"/>
@@ -4111,8 +4134,8 @@
       <c r="LK3" s="47"/>
       <c r="LL3" s="48"/>
       <c r="LM3" s="39"/>
-      <c r="LQ3" s="81"/>
-      <c r="LR3" s="82"/>
+      <c r="LQ3" s="85"/>
+      <c r="LR3" s="86"/>
       <c r="LT3" s="46"/>
       <c r="LU3" s="47"/>
       <c r="LV3" s="49"/>
@@ -4121,8 +4144,8 @@
       <c r="LY3" s="48"/>
       <c r="LZ3" s="39"/>
       <c r="MA3" s="39"/>
-      <c r="MC3" s="81"/>
-      <c r="MD3" s="82"/>
+      <c r="MC3" s="85"/>
+      <c r="MD3" s="86"/>
       <c r="ME3" s="39"/>
       <c r="MF3" s="46"/>
       <c r="MG3" s="49"/>
@@ -4131,8 +4154,8 @@
       <c r="MJ3" s="47"/>
       <c r="MK3" s="48"/>
       <c r="ML3" s="39"/>
-      <c r="MP3" s="81"/>
-      <c r="MQ3" s="82"/>
+      <c r="MP3" s="85"/>
+      <c r="MQ3" s="86"/>
       <c r="MS3" s="46"/>
       <c r="MT3" s="49"/>
       <c r="MU3" s="47"/>
@@ -4141,8 +4164,8 @@
       <c r="MX3" s="48"/>
       <c r="MY3" s="39"/>
       <c r="MZ3" s="39"/>
-      <c r="NB3" s="81"/>
-      <c r="NC3" s="82"/>
+      <c r="NB3" s="85"/>
+      <c r="NC3" s="86"/>
       <c r="ND3" s="39"/>
       <c r="NE3" s="46"/>
       <c r="NF3" s="47"/>
@@ -4150,8 +4173,8 @@
       <c r="NH3" s="47"/>
       <c r="NI3" s="47"/>
       <c r="NJ3" s="48"/>
-      <c r="NO3" s="81"/>
-      <c r="NP3" s="82"/>
+      <c r="NO3" s="85"/>
+      <c r="NP3" s="86"/>
       <c r="NR3" s="46"/>
       <c r="NS3" s="47"/>
       <c r="NT3" s="47"/>
@@ -4160,8 +4183,8 @@
       <c r="NW3" s="48"/>
       <c r="NX3" s="39"/>
       <c r="NY3" s="39"/>
-      <c r="OA3" s="81"/>
-      <c r="OB3" s="82"/>
+      <c r="OA3" s="85"/>
+      <c r="OB3" s="86"/>
       <c r="OC3" s="39"/>
       <c r="OD3" s="46"/>
       <c r="OE3" s="49"/>
@@ -4169,8 +4192,8 @@
       <c r="OG3" s="49"/>
       <c r="OH3" s="47"/>
       <c r="OI3" s="48"/>
-      <c r="ON3" s="81"/>
-      <c r="OO3" s="82"/>
+      <c r="ON3" s="85"/>
+      <c r="OO3" s="86"/>
       <c r="OQ3" s="46"/>
       <c r="OR3" s="47"/>
       <c r="OS3" s="49"/>
@@ -4179,8 +4202,8 @@
       <c r="OV3" s="48"/>
       <c r="OW3" s="39"/>
       <c r="OX3" s="39"/>
-      <c r="OZ3" s="81"/>
-      <c r="PA3" s="82"/>
+      <c r="OZ3" s="85"/>
+      <c r="PA3" s="86"/>
       <c r="PB3" s="39"/>
       <c r="PC3" s="46"/>
       <c r="PD3" s="47"/>
@@ -4188,8 +4211,8 @@
       <c r="PF3" s="47"/>
       <c r="PG3" s="47"/>
       <c r="PH3" s="48"/>
-      <c r="PM3" s="81"/>
-      <c r="PN3" s="82"/>
+      <c r="PM3" s="85"/>
+      <c r="PN3" s="86"/>
       <c r="PP3" s="46"/>
       <c r="PQ3" s="47"/>
       <c r="PR3" s="47"/>
@@ -4198,8 +4221,8 @@
       <c r="PU3" s="48"/>
       <c r="PV3" s="39"/>
       <c r="PW3" s="39"/>
-      <c r="PY3" s="81"/>
-      <c r="PZ3" s="82"/>
+      <c r="PY3" s="85"/>
+      <c r="PZ3" s="86"/>
       <c r="QA3" s="39"/>
       <c r="QB3" s="46"/>
       <c r="QC3" s="47"/>
@@ -4207,8 +4230,8 @@
       <c r="QE3" s="47"/>
       <c r="QF3" s="47"/>
       <c r="QG3" s="48"/>
-      <c r="QL3" s="81"/>
-      <c r="QM3" s="82"/>
+      <c r="QL3" s="85"/>
+      <c r="QM3" s="86"/>
       <c r="QO3" s="46"/>
       <c r="QP3" s="47"/>
       <c r="QQ3" s="47"/>
@@ -4217,8 +4240,8 @@
       <c r="QT3" s="48"/>
       <c r="QU3" s="39"/>
       <c r="QV3" s="39"/>
-      <c r="QX3" s="81"/>
-      <c r="QY3" s="82"/>
+      <c r="QX3" s="85"/>
+      <c r="QY3" s="86"/>
       <c r="QZ3" s="39"/>
       <c r="RA3" s="46"/>
       <c r="RB3" s="47"/>
@@ -4226,8 +4249,8 @@
       <c r="RD3" s="47"/>
       <c r="RE3" s="47"/>
       <c r="RF3" s="48"/>
-      <c r="RK3" s="81"/>
-      <c r="RL3" s="82"/>
+      <c r="RK3" s="85"/>
+      <c r="RL3" s="86"/>
       <c r="RN3" s="46"/>
       <c r="RO3" s="47"/>
       <c r="RP3" s="47"/>
@@ -4236,8 +4259,8 @@
       <c r="RS3" s="48"/>
       <c r="RT3" s="39"/>
       <c r="RU3" s="39"/>
-      <c r="RW3" s="81"/>
-      <c r="RX3" s="82"/>
+      <c r="RW3" s="85"/>
+      <c r="RX3" s="86"/>
       <c r="RY3" s="39"/>
       <c r="RZ3" s="46"/>
       <c r="SA3" s="47"/>
@@ -4245,8 +4268,8 @@
       <c r="SC3" s="47"/>
       <c r="SD3" s="47"/>
       <c r="SE3" s="48"/>
-      <c r="SJ3" s="81"/>
-      <c r="SK3" s="82"/>
+      <c r="SJ3" s="85"/>
+      <c r="SK3" s="86"/>
       <c r="SM3" s="46"/>
       <c r="SN3" s="47"/>
       <c r="SO3" s="47"/>
@@ -4255,8 +4278,8 @@
       <c r="SR3" s="48"/>
       <c r="SS3" s="39"/>
       <c r="ST3" s="39"/>
-      <c r="SV3" s="81"/>
-      <c r="SW3" s="82"/>
+      <c r="SV3" s="85"/>
+      <c r="SW3" s="86"/>
       <c r="SX3" s="39"/>
       <c r="SY3" s="46"/>
       <c r="SZ3" s="47"/>
@@ -4264,8 +4287,8 @@
       <c r="TB3" s="47"/>
       <c r="TC3" s="47"/>
       <c r="TD3" s="48"/>
-      <c r="TI3" s="81"/>
-      <c r="TJ3" s="82"/>
+      <c r="TI3" s="85"/>
+      <c r="TJ3" s="86"/>
       <c r="TL3" s="46"/>
       <c r="TM3" s="47"/>
       <c r="TN3" s="47"/>
@@ -4274,8 +4297,8 @@
       <c r="TQ3" s="48"/>
       <c r="TR3" s="39"/>
       <c r="TS3" s="39"/>
-      <c r="TU3" s="81"/>
-      <c r="TV3" s="82"/>
+      <c r="TU3" s="85"/>
+      <c r="TV3" s="86"/>
       <c r="TW3" s="39"/>
       <c r="TX3" s="46"/>
       <c r="TY3" s="47"/>
@@ -4283,8 +4306,8 @@
       <c r="UA3" s="47"/>
       <c r="UB3" s="47"/>
       <c r="UC3" s="48"/>
-      <c r="UH3" s="81"/>
-      <c r="UI3" s="82"/>
+      <c r="UH3" s="85"/>
+      <c r="UI3" s="86"/>
       <c r="UK3" s="46"/>
       <c r="UL3" s="47"/>
       <c r="UM3" s="47"/>
@@ -4293,8 +4316,8 @@
       <c r="UP3" s="48"/>
       <c r="UQ3" s="39"/>
       <c r="UR3" s="39"/>
-      <c r="UT3" s="81"/>
-      <c r="UU3" s="82"/>
+      <c r="UT3" s="85"/>
+      <c r="UU3" s="86"/>
       <c r="UV3" s="39"/>
       <c r="UW3" s="46"/>
       <c r="UX3" s="47"/>
@@ -4302,8 +4325,8 @@
       <c r="UZ3" s="47"/>
       <c r="VA3" s="47"/>
       <c r="VB3" s="48"/>
-      <c r="VG3" s="81"/>
-      <c r="VH3" s="82"/>
+      <c r="VG3" s="85"/>
+      <c r="VH3" s="86"/>
       <c r="VJ3" s="46"/>
       <c r="VK3" s="47"/>
       <c r="VL3" s="47"/>
@@ -4312,8 +4335,8 @@
       <c r="VO3" s="48"/>
       <c r="VP3" s="39"/>
       <c r="VQ3" s="39"/>
-      <c r="VS3" s="81"/>
-      <c r="VT3" s="82"/>
+      <c r="VS3" s="85"/>
+      <c r="VT3" s="86"/>
       <c r="VU3" s="39"/>
       <c r="VV3" s="46"/>
       <c r="VW3" s="47"/>
@@ -4321,8 +4344,8 @@
       <c r="VY3" s="47"/>
       <c r="VZ3" s="47"/>
       <c r="WA3" s="48"/>
-      <c r="WF3" s="81"/>
-      <c r="WG3" s="82"/>
+      <c r="WF3" s="85"/>
+      <c r="WG3" s="86"/>
       <c r="WI3" s="46"/>
       <c r="WJ3" s="47"/>
       <c r="WK3" s="47"/>
@@ -4331,8 +4354,8 @@
       <c r="WN3" s="48"/>
       <c r="WO3" s="39"/>
       <c r="WP3" s="39"/>
-      <c r="WR3" s="81"/>
-      <c r="WS3" s="82"/>
+      <c r="WR3" s="85"/>
+      <c r="WS3" s="86"/>
       <c r="WT3" s="39"/>
       <c r="WU3" s="46"/>
       <c r="WV3" s="47"/>
@@ -4340,8 +4363,8 @@
       <c r="WX3" s="47"/>
       <c r="WY3" s="47"/>
       <c r="WZ3" s="48"/>
-      <c r="XE3" s="81"/>
-      <c r="XF3" s="82"/>
+      <c r="XE3" s="85"/>
+      <c r="XF3" s="86"/>
       <c r="XH3" s="46"/>
       <c r="XI3" s="47"/>
       <c r="XJ3" s="47"/>
@@ -4350,8 +4373,8 @@
       <c r="XM3" s="48"/>
       <c r="XN3" s="39"/>
       <c r="XO3" s="39"/>
-      <c r="XQ3" s="81"/>
-      <c r="XR3" s="82"/>
+      <c r="XQ3" s="85"/>
+      <c r="XR3" s="86"/>
       <c r="XS3" s="39"/>
       <c r="XT3" s="46"/>
       <c r="XU3" s="47"/>
@@ -9528,10 +9551,10 @@
     </row>
     <row r="12" spans="3:664" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="40"/>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="84"/>
       <c r="G12" s="41"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -9541,10 +9564,10 @@
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="80"/>
+      <c r="Q12" s="84"/>
       <c r="R12" s="39"/>
       <c r="S12" s="41"/>
       <c r="T12" s="44"/>
@@ -9554,10 +9577,10 @@
       <c r="X12" s="43"/>
       <c r="Y12" s="39"/>
       <c r="AB12" s="40"/>
-      <c r="AC12" s="79" t="s">
+      <c r="AC12" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" s="80"/>
+      <c r="AD12" s="84"/>
       <c r="AF12" s="41"/>
       <c r="AG12" s="42"/>
       <c r="AH12" s="42"/>
@@ -9567,10 +9590,10 @@
       <c r="AL12" s="39"/>
       <c r="AM12" s="39"/>
       <c r="AN12" s="40"/>
-      <c r="AO12" s="79" t="s">
+      <c r="AO12" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="AP12" s="80"/>
+      <c r="AP12" s="84"/>
       <c r="AQ12" s="39"/>
       <c r="AR12" s="45"/>
       <c r="AS12" s="42"/>
@@ -9580,10 +9603,10 @@
       <c r="AW12" s="43"/>
       <c r="AX12" s="39"/>
       <c r="BA12" s="40"/>
-      <c r="BB12" s="79" t="s">
+      <c r="BB12" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="BC12" s="80"/>
+      <c r="BC12" s="84"/>
       <c r="BE12" s="41"/>
       <c r="BF12" s="42"/>
       <c r="BG12" s="42"/>
@@ -9593,10 +9616,10 @@
       <c r="BK12" s="39"/>
       <c r="BL12" s="39"/>
       <c r="BM12" s="40"/>
-      <c r="BN12" s="79" t="s">
+      <c r="BN12" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="BO12" s="80"/>
+      <c r="BO12" s="84"/>
       <c r="BP12" s="39"/>
       <c r="BQ12" s="41"/>
       <c r="BR12" s="42"/>
@@ -9606,10 +9629,10 @@
       <c r="BV12" s="43"/>
       <c r="BW12" s="39"/>
       <c r="BZ12" s="40"/>
-      <c r="CA12" s="79" t="s">
+      <c r="CA12" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="CB12" s="80"/>
+      <c r="CB12" s="84"/>
       <c r="CD12" s="41"/>
       <c r="CE12" s="42"/>
       <c r="CF12" s="42"/>
@@ -9619,10 +9642,10 @@
       <c r="CJ12" s="39"/>
       <c r="CK12" s="39"/>
       <c r="CL12" s="40"/>
-      <c r="CM12" s="79" t="s">
+      <c r="CM12" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="CN12" s="80"/>
+      <c r="CN12" s="84"/>
       <c r="CO12" s="39"/>
       <c r="CP12" s="41"/>
       <c r="CQ12" s="42"/>
@@ -9632,10 +9655,10 @@
       <c r="CU12" s="43"/>
       <c r="CV12" s="39"/>
       <c r="CY12" s="40"/>
-      <c r="CZ12" s="79" t="s">
+      <c r="CZ12" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="DA12" s="80"/>
+      <c r="DA12" s="84"/>
       <c r="DC12" s="41"/>
       <c r="DD12" s="44"/>
       <c r="DE12" s="42"/>
@@ -9645,10 +9668,10 @@
       <c r="DI12" s="39"/>
       <c r="DJ12" s="39"/>
       <c r="DK12" s="40"/>
-      <c r="DL12" s="79" t="s">
+      <c r="DL12" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="DM12" s="80"/>
+      <c r="DM12" s="84"/>
       <c r="DN12" s="39"/>
       <c r="DO12" s="41"/>
       <c r="DP12" s="42"/>
@@ -9658,10 +9681,10 @@
       <c r="DT12" s="43"/>
       <c r="DU12" s="39"/>
       <c r="DX12" s="40"/>
-      <c r="DY12" s="79" t="s">
+      <c r="DY12" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="DZ12" s="80"/>
+      <c r="DZ12" s="84"/>
       <c r="EB12" s="45"/>
       <c r="EC12" s="44"/>
       <c r="ED12" s="44"/>
@@ -9671,10 +9694,10 @@
       <c r="EH12" s="39"/>
       <c r="EI12" s="39"/>
       <c r="EJ12" s="40"/>
-      <c r="EK12" s="79" t="s">
+      <c r="EK12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="EL12" s="80"/>
+      <c r="EL12" s="84"/>
       <c r="EM12" s="39"/>
       <c r="EN12" s="41"/>
       <c r="EO12" s="44"/>
@@ -9684,10 +9707,10 @@
       <c r="ES12" s="43"/>
       <c r="ET12" s="39"/>
       <c r="EW12" s="40"/>
-      <c r="EX12" s="79" t="s">
+      <c r="EX12" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="EY12" s="80"/>
+      <c r="EY12" s="84"/>
       <c r="FA12" s="41"/>
       <c r="FB12" s="42"/>
       <c r="FC12" s="42"/>
@@ -9697,10 +9720,10 @@
       <c r="FG12" s="39"/>
       <c r="FH12" s="39"/>
       <c r="FI12" s="40"/>
-      <c r="FJ12" s="79" t="s">
+      <c r="FJ12" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="FK12" s="80"/>
+      <c r="FK12" s="84"/>
       <c r="FL12" s="39"/>
       <c r="FM12" s="45"/>
       <c r="FN12" s="44"/>
@@ -9710,10 +9733,10 @@
       <c r="FR12" s="43"/>
       <c r="FS12" s="39"/>
       <c r="FV12" s="40"/>
-      <c r="FW12" s="79" t="s">
+      <c r="FW12" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="FX12" s="80"/>
+      <c r="FX12" s="84"/>
       <c r="FZ12" s="41"/>
       <c r="GA12" s="44"/>
       <c r="GB12" s="44"/>
@@ -9723,10 +9746,10 @@
       <c r="GF12" s="39"/>
       <c r="GG12" s="39"/>
       <c r="GH12" s="40"/>
-      <c r="GI12" s="79" t="s">
+      <c r="GI12" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="GJ12" s="80"/>
+      <c r="GJ12" s="84"/>
       <c r="GK12" s="39"/>
       <c r="GL12" s="45"/>
       <c r="GM12" s="42"/>
@@ -9736,10 +9759,10 @@
       <c r="GQ12" s="43"/>
       <c r="GR12" s="39"/>
       <c r="GU12" s="40"/>
-      <c r="GV12" s="79" t="s">
+      <c r="GV12" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="GW12" s="80"/>
+      <c r="GW12" s="84"/>
       <c r="GY12" s="41"/>
       <c r="GZ12" s="44"/>
       <c r="HA12" s="44"/>
@@ -9749,10 +9772,10 @@
       <c r="HE12" s="39"/>
       <c r="HF12" s="39"/>
       <c r="HG12" s="40"/>
-      <c r="HH12" s="79" t="s">
+      <c r="HH12" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="HI12" s="80"/>
+      <c r="HI12" s="84"/>
       <c r="HJ12" s="39"/>
       <c r="HK12" s="45"/>
       <c r="HL12" s="42"/>
@@ -9762,10 +9785,10 @@
       <c r="HP12" s="43"/>
       <c r="HQ12" s="39"/>
       <c r="HT12" s="40"/>
-      <c r="HU12" s="79" t="s">
+      <c r="HU12" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="HV12" s="80"/>
+      <c r="HV12" s="84"/>
       <c r="HX12" s="41"/>
       <c r="HY12" s="44"/>
       <c r="HZ12" s="44"/>
@@ -9775,10 +9798,10 @@
       <c r="ID12" s="39"/>
       <c r="IE12" s="39"/>
       <c r="IF12" s="40"/>
-      <c r="IG12" s="79" t="s">
+      <c r="IG12" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="IH12" s="80"/>
+      <c r="IH12" s="84"/>
       <c r="II12" s="39"/>
       <c r="IJ12" s="41"/>
       <c r="IK12" s="42"/>
@@ -9788,10 +9811,10 @@
       <c r="IO12" s="43"/>
       <c r="IP12" s="39"/>
       <c r="IS12" s="40"/>
-      <c r="IT12" s="79" t="s">
+      <c r="IT12" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="IU12" s="80"/>
+      <c r="IU12" s="84"/>
       <c r="IW12" s="41"/>
       <c r="IX12" s="42"/>
       <c r="IY12" s="42"/>
@@ -9801,10 +9824,10 @@
       <c r="JC12" s="39"/>
       <c r="JD12" s="39"/>
       <c r="JE12" s="40"/>
-      <c r="JF12" s="79" t="s">
+      <c r="JF12" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="JG12" s="80"/>
+      <c r="JG12" s="84"/>
       <c r="JH12" s="39"/>
       <c r="JI12" s="41"/>
       <c r="JJ12" s="42"/>
@@ -9814,10 +9837,10 @@
       <c r="JN12" s="43"/>
       <c r="JO12" s="39"/>
       <c r="JR12" s="40"/>
-      <c r="JS12" s="79" t="s">
+      <c r="JS12" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="JT12" s="80"/>
+      <c r="JT12" s="84"/>
       <c r="JV12" s="41"/>
       <c r="JW12" s="42"/>
       <c r="JX12" s="42"/>
@@ -9827,10 +9850,10 @@
       <c r="KB12" s="39"/>
       <c r="KC12" s="39"/>
       <c r="KD12" s="40"/>
-      <c r="KE12" s="79" t="s">
+      <c r="KE12" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="KF12" s="80"/>
+      <c r="KF12" s="84"/>
       <c r="KG12" s="39"/>
       <c r="KH12" s="41"/>
       <c r="KI12" s="44"/>
@@ -9840,10 +9863,10 @@
       <c r="KM12" s="43"/>
       <c r="KN12" s="39"/>
       <c r="KQ12" s="40"/>
-      <c r="KR12" s="79" t="s">
+      <c r="KR12" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="KS12" s="80"/>
+      <c r="KS12" s="84"/>
       <c r="KU12" s="41"/>
       <c r="KV12" s="42"/>
       <c r="KW12" s="42"/>
@@ -9853,10 +9876,10 @@
       <c r="LA12" s="39"/>
       <c r="LB12" s="39"/>
       <c r="LC12" s="40"/>
-      <c r="LD12" s="79" t="s">
+      <c r="LD12" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="LE12" s="80"/>
+      <c r="LE12" s="84"/>
       <c r="LF12" s="39"/>
       <c r="LG12" s="41"/>
       <c r="LH12" s="44"/>
@@ -9866,10 +9889,10 @@
       <c r="LL12" s="43"/>
       <c r="LM12" s="39"/>
       <c r="LP12" s="40"/>
-      <c r="LQ12" s="79" t="s">
+      <c r="LQ12" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="LR12" s="80"/>
+      <c r="LR12" s="84"/>
       <c r="LT12" s="41"/>
       <c r="LU12" s="42"/>
       <c r="LV12" s="44"/>
@@ -9879,10 +9902,10 @@
       <c r="LZ12" s="39"/>
       <c r="MA12" s="39"/>
       <c r="MB12" s="40"/>
-      <c r="MC12" s="79" t="s">
+      <c r="MC12" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="MD12" s="80"/>
+      <c r="MD12" s="84"/>
       <c r="ME12" s="39"/>
       <c r="MF12" s="41"/>
       <c r="MG12" s="42"/>
@@ -9892,10 +9915,10 @@
       <c r="MK12" s="43"/>
       <c r="ML12" s="39"/>
       <c r="MO12" s="40"/>
-      <c r="MP12" s="79" t="s">
+      <c r="MP12" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="MQ12" s="80"/>
+      <c r="MQ12" s="84"/>
       <c r="MS12" s="41"/>
       <c r="MT12" s="44"/>
       <c r="MU12" s="42"/>
@@ -9905,10 +9928,10 @@
       <c r="MY12" s="39"/>
       <c r="MZ12" s="39"/>
       <c r="NA12" s="40"/>
-      <c r="NB12" s="79" t="s">
+      <c r="NB12" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="NC12" s="80"/>
+      <c r="NC12" s="84"/>
       <c r="ND12" s="39"/>
       <c r="NE12" s="41"/>
       <c r="NF12" s="42"/>
@@ -9917,10 +9940,10 @@
       <c r="NI12" s="44"/>
       <c r="NJ12" s="43"/>
       <c r="NN12" s="40"/>
-      <c r="NO12" s="79" t="s">
+      <c r="NO12" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="NP12" s="80"/>
+      <c r="NP12" s="84"/>
       <c r="NR12" s="41"/>
       <c r="NS12" s="44"/>
       <c r="NT12" s="42"/>
@@ -9930,10 +9953,10 @@
       <c r="NX12" s="39"/>
       <c r="NY12" s="39"/>
       <c r="NZ12" s="40"/>
-      <c r="OA12" s="79" t="s">
+      <c r="OA12" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="OB12" s="80"/>
+      <c r="OB12" s="84"/>
       <c r="OC12" s="39"/>
       <c r="OD12" s="41"/>
       <c r="OE12" s="42"/>
@@ -9942,10 +9965,10 @@
       <c r="OH12" s="42"/>
       <c r="OI12" s="43"/>
       <c r="OM12" s="40"/>
-      <c r="ON12" s="79" t="s">
+      <c r="ON12" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="OO12" s="80"/>
+      <c r="OO12" s="84"/>
       <c r="OQ12" s="41"/>
       <c r="OR12" s="42"/>
       <c r="OS12" s="42"/>
@@ -9955,10 +9978,10 @@
       <c r="OW12" s="39"/>
       <c r="OX12" s="39"/>
       <c r="OY12" s="40"/>
-      <c r="OZ12" s="79" t="s">
+      <c r="OZ12" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="PA12" s="80"/>
+      <c r="PA12" s="84"/>
       <c r="PB12" s="39"/>
       <c r="PC12" s="41"/>
       <c r="PD12" s="42"/>
@@ -9967,10 +9990,10 @@
       <c r="PG12" s="42"/>
       <c r="PH12" s="43"/>
       <c r="PL12" s="40"/>
-      <c r="PM12" s="79" t="s">
+      <c r="PM12" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="PN12" s="80"/>
+      <c r="PN12" s="84"/>
       <c r="PP12" s="41"/>
       <c r="PQ12" s="42"/>
       <c r="PR12" s="42"/>
@@ -9980,10 +10003,10 @@
       <c r="PV12" s="39"/>
       <c r="PW12" s="39"/>
       <c r="PX12" s="40"/>
-      <c r="PY12" s="79" t="s">
+      <c r="PY12" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="PZ12" s="80"/>
+      <c r="PZ12" s="84"/>
       <c r="QA12" s="39"/>
       <c r="QB12" s="41"/>
       <c r="QC12" s="42"/>
@@ -9992,10 +10015,10 @@
       <c r="QF12" s="42"/>
       <c r="QG12" s="43"/>
       <c r="QK12" s="40"/>
-      <c r="QL12" s="79" t="s">
+      <c r="QL12" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="QM12" s="80"/>
+      <c r="QM12" s="84"/>
       <c r="QO12" s="41"/>
       <c r="QP12" s="42"/>
       <c r="QQ12" s="42"/>
@@ -10005,10 +10028,10 @@
       <c r="QU12" s="39"/>
       <c r="QV12" s="39"/>
       <c r="QW12" s="40"/>
-      <c r="QX12" s="79" t="s">
+      <c r="QX12" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="QY12" s="80"/>
+      <c r="QY12" s="84"/>
       <c r="QZ12" s="39"/>
       <c r="RA12" s="41"/>
       <c r="RB12" s="42"/>
@@ -10017,10 +10040,10 @@
       <c r="RE12" s="42"/>
       <c r="RF12" s="43"/>
       <c r="RJ12" s="40"/>
-      <c r="RK12" s="79" t="s">
+      <c r="RK12" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="RL12" s="80"/>
+      <c r="RL12" s="84"/>
       <c r="RN12" s="41"/>
       <c r="RO12" s="42"/>
       <c r="RP12" s="42"/>
@@ -10030,10 +10053,10 @@
       <c r="RT12" s="39"/>
       <c r="RU12" s="39"/>
       <c r="RV12" s="40"/>
-      <c r="RW12" s="79" t="s">
+      <c r="RW12" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="RX12" s="80"/>
+      <c r="RX12" s="84"/>
       <c r="RY12" s="39"/>
       <c r="RZ12" s="41"/>
       <c r="SA12" s="42"/>
@@ -10042,10 +10065,10 @@
       <c r="SD12" s="42"/>
       <c r="SE12" s="43"/>
       <c r="SI12" s="40"/>
-      <c r="SJ12" s="79" t="s">
+      <c r="SJ12" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="SK12" s="80"/>
+      <c r="SK12" s="84"/>
       <c r="SM12" s="41"/>
       <c r="SN12" s="42"/>
       <c r="SO12" s="42"/>
@@ -10055,10 +10078,10 @@
       <c r="SS12" s="39"/>
       <c r="ST12" s="39"/>
       <c r="SU12" s="40"/>
-      <c r="SV12" s="79" t="s">
+      <c r="SV12" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="SW12" s="80"/>
+      <c r="SW12" s="84"/>
       <c r="SX12" s="39"/>
       <c r="SY12" s="41"/>
       <c r="SZ12" s="42"/>
@@ -10067,10 +10090,10 @@
       <c r="TC12" s="42"/>
       <c r="TD12" s="43"/>
       <c r="TH12" s="40"/>
-      <c r="TI12" s="79" t="s">
+      <c r="TI12" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="TJ12" s="80"/>
+      <c r="TJ12" s="84"/>
       <c r="TL12" s="41"/>
       <c r="TM12" s="42"/>
       <c r="TN12" s="42"/>
@@ -10080,10 +10103,10 @@
       <c r="TR12" s="39"/>
       <c r="TS12" s="39"/>
       <c r="TT12" s="40"/>
-      <c r="TU12" s="79" t="s">
+      <c r="TU12" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="TV12" s="80"/>
+      <c r="TV12" s="84"/>
       <c r="TW12" s="39"/>
       <c r="TX12" s="41"/>
       <c r="TY12" s="42"/>
@@ -10092,10 +10115,10 @@
       <c r="UB12" s="42"/>
       <c r="UC12" s="43"/>
       <c r="UG12" s="40"/>
-      <c r="UH12" s="79" t="s">
+      <c r="UH12" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="UI12" s="80"/>
+      <c r="UI12" s="84"/>
       <c r="UK12" s="41"/>
       <c r="UL12" s="42"/>
       <c r="UM12" s="42"/>
@@ -10105,10 +10128,10 @@
       <c r="UQ12" s="39"/>
       <c r="UR12" s="39"/>
       <c r="US12" s="40"/>
-      <c r="UT12" s="79" t="s">
+      <c r="UT12" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="UU12" s="80"/>
+      <c r="UU12" s="84"/>
       <c r="UV12" s="39"/>
       <c r="UW12" s="41"/>
       <c r="UX12" s="42"/>
@@ -10117,10 +10140,10 @@
       <c r="VA12" s="42"/>
       <c r="VB12" s="43"/>
       <c r="VF12" s="40"/>
-      <c r="VG12" s="79" t="s">
+      <c r="VG12" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="VH12" s="80"/>
+      <c r="VH12" s="84"/>
       <c r="VJ12" s="41"/>
       <c r="VK12" s="42"/>
       <c r="VL12" s="42"/>
@@ -10130,10 +10153,10 @@
       <c r="VP12" s="39"/>
       <c r="VQ12" s="39"/>
       <c r="VR12" s="40"/>
-      <c r="VS12" s="79" t="s">
+      <c r="VS12" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="VT12" s="80"/>
+      <c r="VT12" s="84"/>
       <c r="VU12" s="39"/>
       <c r="VV12" s="41"/>
       <c r="VW12" s="42"/>
@@ -10142,10 +10165,10 @@
       <c r="VZ12" s="42"/>
       <c r="WA12" s="43"/>
       <c r="WE12" s="40"/>
-      <c r="WF12" s="79" t="s">
+      <c r="WF12" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="WG12" s="80"/>
+      <c r="WG12" s="84"/>
       <c r="WI12" s="41"/>
       <c r="WJ12" s="42"/>
       <c r="WK12" s="42"/>
@@ -10155,10 +10178,10 @@
       <c r="WO12" s="39"/>
       <c r="WP12" s="39"/>
       <c r="WQ12" s="40"/>
-      <c r="WR12" s="79" t="s">
+      <c r="WR12" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="WS12" s="80"/>
+      <c r="WS12" s="84"/>
       <c r="WT12" s="39"/>
       <c r="WU12" s="41"/>
       <c r="WV12" s="42"/>
@@ -10167,10 +10190,10 @@
       <c r="WY12" s="42"/>
       <c r="WZ12" s="43"/>
       <c r="XD12" s="40"/>
-      <c r="XE12" s="79" t="s">
+      <c r="XE12" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="XF12" s="80"/>
+      <c r="XF12" s="84"/>
       <c r="XH12" s="41"/>
       <c r="XI12" s="42"/>
       <c r="XJ12" s="42"/>
@@ -10181,8 +10204,8 @@
       <c r="XO12" s="39"/>
     </row>
     <row r="13" spans="3:664" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
       <c r="G13" s="50"/>
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
@@ -10191,8 +10214,8 @@
       <c r="L13" s="48"/>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="82"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
       <c r="R13" s="39"/>
       <c r="S13" s="46"/>
       <c r="T13" s="49"/>
@@ -10201,8 +10224,8 @@
       <c r="W13" s="47"/>
       <c r="X13" s="48"/>
       <c r="Y13" s="39"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="82"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="86"/>
       <c r="AF13" s="46"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="49"/>
@@ -10211,8 +10234,8 @@
       <c r="AK13" s="48"/>
       <c r="AL13" s="39"/>
       <c r="AM13" s="39"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="82"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="86"/>
       <c r="AQ13" s="39"/>
       <c r="AR13" s="50"/>
       <c r="AS13" s="49"/>
@@ -10221,8 +10244,8 @@
       <c r="AV13" s="47"/>
       <c r="AW13" s="48"/>
       <c r="AX13" s="39"/>
-      <c r="BB13" s="81"/>
-      <c r="BC13" s="82"/>
+      <c r="BB13" s="85"/>
+      <c r="BC13" s="86"/>
       <c r="BE13" s="46"/>
       <c r="BF13" s="47"/>
       <c r="BG13" s="47"/>
@@ -10231,8 +10254,8 @@
       <c r="BJ13" s="48"/>
       <c r="BK13" s="39"/>
       <c r="BL13" s="39"/>
-      <c r="BN13" s="81"/>
-      <c r="BO13" s="82"/>
+      <c r="BN13" s="85"/>
+      <c r="BO13" s="86"/>
       <c r="BP13" s="39"/>
       <c r="BQ13" s="46"/>
       <c r="BR13" s="47"/>
@@ -10241,8 +10264,8 @@
       <c r="BU13" s="47"/>
       <c r="BV13" s="48"/>
       <c r="BW13" s="39"/>
-      <c r="CA13" s="81"/>
-      <c r="CB13" s="82"/>
+      <c r="CA13" s="85"/>
+      <c r="CB13" s="86"/>
       <c r="CD13" s="50"/>
       <c r="CE13" s="49"/>
       <c r="CF13" s="49"/>
@@ -10251,8 +10274,8 @@
       <c r="CI13" s="48"/>
       <c r="CJ13" s="39"/>
       <c r="CK13" s="39"/>
-      <c r="CM13" s="81"/>
-      <c r="CN13" s="82"/>
+      <c r="CM13" s="85"/>
+      <c r="CN13" s="86"/>
       <c r="CO13" s="39"/>
       <c r="CP13" s="46"/>
       <c r="CQ13" s="49"/>
@@ -10261,8 +10284,8 @@
       <c r="CT13" s="49"/>
       <c r="CU13" s="48"/>
       <c r="CV13" s="39"/>
-      <c r="CZ13" s="81"/>
-      <c r="DA13" s="82"/>
+      <c r="CZ13" s="85"/>
+      <c r="DA13" s="86"/>
       <c r="DC13" s="46"/>
       <c r="DD13" s="47"/>
       <c r="DE13" s="49"/>
@@ -10271,8 +10294,8 @@
       <c r="DH13" s="48"/>
       <c r="DI13" s="39"/>
       <c r="DJ13" s="39"/>
-      <c r="DL13" s="81"/>
-      <c r="DM13" s="82"/>
+      <c r="DL13" s="85"/>
+      <c r="DM13" s="86"/>
       <c r="DN13" s="39"/>
       <c r="DO13" s="46"/>
       <c r="DP13" s="47"/>
@@ -10281,8 +10304,8 @@
       <c r="DS13" s="47"/>
       <c r="DT13" s="48"/>
       <c r="DU13" s="39"/>
-      <c r="DY13" s="81"/>
-      <c r="DZ13" s="82"/>
+      <c r="DY13" s="85"/>
+      <c r="DZ13" s="86"/>
       <c r="EB13" s="46"/>
       <c r="EC13" s="47"/>
       <c r="ED13" s="47"/>
@@ -10291,8 +10314,8 @@
       <c r="EG13" s="48"/>
       <c r="EH13" s="39"/>
       <c r="EI13" s="39"/>
-      <c r="EK13" s="81"/>
-      <c r="EL13" s="82"/>
+      <c r="EK13" s="85"/>
+      <c r="EL13" s="86"/>
       <c r="EM13" s="39"/>
       <c r="EN13" s="50"/>
       <c r="EO13" s="47"/>
@@ -10301,8 +10324,8 @@
       <c r="ER13" s="49"/>
       <c r="ES13" s="48"/>
       <c r="ET13" s="39"/>
-      <c r="EX13" s="81"/>
-      <c r="EY13" s="82"/>
+      <c r="EX13" s="85"/>
+      <c r="EY13" s="86"/>
       <c r="FA13" s="46"/>
       <c r="FB13" s="47"/>
       <c r="FC13" s="47"/>
@@ -10311,8 +10334,8 @@
       <c r="FF13" s="48"/>
       <c r="FG13" s="39"/>
       <c r="FH13" s="39"/>
-      <c r="FJ13" s="81"/>
-      <c r="FK13" s="82"/>
+      <c r="FJ13" s="85"/>
+      <c r="FK13" s="86"/>
       <c r="FL13" s="39"/>
       <c r="FM13" s="50"/>
       <c r="FN13" s="47"/>
@@ -10321,8 +10344,8 @@
       <c r="FQ13" s="49"/>
       <c r="FR13" s="48"/>
       <c r="FS13" s="39"/>
-      <c r="FW13" s="81"/>
-      <c r="FX13" s="82"/>
+      <c r="FW13" s="85"/>
+      <c r="FX13" s="86"/>
       <c r="FZ13" s="50"/>
       <c r="GA13" s="47"/>
       <c r="GB13" s="47"/>
@@ -10331,8 +10354,8 @@
       <c r="GE13" s="48"/>
       <c r="GF13" s="39"/>
       <c r="GG13" s="39"/>
-      <c r="GI13" s="81"/>
-      <c r="GJ13" s="82"/>
+      <c r="GI13" s="85"/>
+      <c r="GJ13" s="86"/>
       <c r="GK13" s="39"/>
       <c r="GL13" s="50"/>
       <c r="GM13" s="47"/>
@@ -10341,8 +10364,8 @@
       <c r="GP13" s="47"/>
       <c r="GQ13" s="48"/>
       <c r="GR13" s="39"/>
-      <c r="GV13" s="81"/>
-      <c r="GW13" s="82"/>
+      <c r="GV13" s="85"/>
+      <c r="GW13" s="86"/>
       <c r="GY13" s="50"/>
       <c r="GZ13" s="47"/>
       <c r="HA13" s="47"/>
@@ -10351,8 +10374,8 @@
       <c r="HD13" s="48"/>
       <c r="HE13" s="39"/>
       <c r="HF13" s="39"/>
-      <c r="HH13" s="81"/>
-      <c r="HI13" s="82"/>
+      <c r="HH13" s="85"/>
+      <c r="HI13" s="86"/>
       <c r="HJ13" s="39"/>
       <c r="HK13" s="50"/>
       <c r="HL13" s="47"/>
@@ -10361,8 +10384,8 @@
       <c r="HO13" s="49"/>
       <c r="HP13" s="48"/>
       <c r="HQ13" s="39"/>
-      <c r="HU13" s="81"/>
-      <c r="HV13" s="82"/>
+      <c r="HU13" s="85"/>
+      <c r="HV13" s="86"/>
       <c r="HX13" s="46"/>
       <c r="HY13" s="49"/>
       <c r="HZ13" s="47"/>
@@ -10371,8 +10394,8 @@
       <c r="IC13" s="48"/>
       <c r="ID13" s="39"/>
       <c r="IE13" s="39"/>
-      <c r="IG13" s="81"/>
-      <c r="IH13" s="82"/>
+      <c r="IG13" s="85"/>
+      <c r="IH13" s="86"/>
       <c r="II13" s="39"/>
       <c r="IJ13" s="46"/>
       <c r="IK13" s="47"/>
@@ -10381,8 +10404,8 @@
       <c r="IN13" s="47"/>
       <c r="IO13" s="48"/>
       <c r="IP13" s="39"/>
-      <c r="IT13" s="81"/>
-      <c r="IU13" s="82"/>
+      <c r="IT13" s="85"/>
+      <c r="IU13" s="86"/>
       <c r="IW13" s="46"/>
       <c r="IX13" s="47"/>
       <c r="IY13" s="47"/>
@@ -10391,8 +10414,8 @@
       <c r="JB13" s="48"/>
       <c r="JC13" s="39"/>
       <c r="JD13" s="39"/>
-      <c r="JF13" s="81"/>
-      <c r="JG13" s="82"/>
+      <c r="JF13" s="85"/>
+      <c r="JG13" s="86"/>
       <c r="JH13" s="39"/>
       <c r="JI13" s="46"/>
       <c r="JJ13" s="47"/>
@@ -10401,8 +10424,8 @@
       <c r="JM13" s="47"/>
       <c r="JN13" s="48"/>
       <c r="JO13" s="39"/>
-      <c r="JS13" s="81"/>
-      <c r="JT13" s="82"/>
+      <c r="JS13" s="85"/>
+      <c r="JT13" s="86"/>
       <c r="JV13" s="46"/>
       <c r="JW13" s="47"/>
       <c r="JX13" s="47"/>
@@ -10411,8 +10434,8 @@
       <c r="KA13" s="48"/>
       <c r="KB13" s="39"/>
       <c r="KC13" s="39"/>
-      <c r="KE13" s="81"/>
-      <c r="KF13" s="82"/>
+      <c r="KE13" s="85"/>
+      <c r="KF13" s="86"/>
       <c r="KG13" s="39"/>
       <c r="KH13" s="46"/>
       <c r="KI13" s="49"/>
@@ -10421,8 +10444,8 @@
       <c r="KL13" s="47"/>
       <c r="KM13" s="48"/>
       <c r="KN13" s="39"/>
-      <c r="KR13" s="81"/>
-      <c r="KS13" s="82"/>
+      <c r="KR13" s="85"/>
+      <c r="KS13" s="86"/>
       <c r="KU13" s="46"/>
       <c r="KV13" s="47"/>
       <c r="KW13" s="47"/>
@@ -10431,8 +10454,8 @@
       <c r="KZ13" s="48"/>
       <c r="LA13" s="39"/>
       <c r="LB13" s="39"/>
-      <c r="LD13" s="81"/>
-      <c r="LE13" s="82"/>
+      <c r="LD13" s="85"/>
+      <c r="LE13" s="86"/>
       <c r="LF13" s="39"/>
       <c r="LG13" s="50"/>
       <c r="LH13" s="47"/>
@@ -10441,8 +10464,8 @@
       <c r="LK13" s="49"/>
       <c r="LL13" s="48"/>
       <c r="LM13" s="39"/>
-      <c r="LQ13" s="81"/>
-      <c r="LR13" s="82"/>
+      <c r="LQ13" s="85"/>
+      <c r="LR13" s="86"/>
       <c r="LT13" s="46"/>
       <c r="LU13" s="49"/>
       <c r="LV13" s="47"/>
@@ -10451,8 +10474,8 @@
       <c r="LY13" s="48"/>
       <c r="LZ13" s="39"/>
       <c r="MA13" s="39"/>
-      <c r="MC13" s="81"/>
-      <c r="MD13" s="82"/>
+      <c r="MC13" s="85"/>
+      <c r="MD13" s="86"/>
       <c r="ME13" s="39"/>
       <c r="MF13" s="46"/>
       <c r="MG13" s="49"/>
@@ -10461,8 +10484,8 @@
       <c r="MJ13" s="47"/>
       <c r="MK13" s="48"/>
       <c r="ML13" s="39"/>
-      <c r="MP13" s="81"/>
-      <c r="MQ13" s="82"/>
+      <c r="MP13" s="85"/>
+      <c r="MQ13" s="86"/>
       <c r="MS13" s="46"/>
       <c r="MT13" s="47"/>
       <c r="MU13" s="49"/>
@@ -10471,8 +10494,8 @@
       <c r="MX13" s="48"/>
       <c r="MY13" s="39"/>
       <c r="MZ13" s="39"/>
-      <c r="NB13" s="81"/>
-      <c r="NC13" s="82"/>
+      <c r="NB13" s="85"/>
+      <c r="NC13" s="86"/>
       <c r="ND13" s="39"/>
       <c r="NE13" s="46"/>
       <c r="NF13" s="49"/>
@@ -10480,8 +10503,8 @@
       <c r="NH13" s="47"/>
       <c r="NI13" s="47"/>
       <c r="NJ13" s="48"/>
-      <c r="NO13" s="81"/>
-      <c r="NP13" s="82"/>
+      <c r="NO13" s="85"/>
+      <c r="NP13" s="86"/>
       <c r="NR13" s="46"/>
       <c r="NS13" s="47"/>
       <c r="NT13" s="49"/>
@@ -10490,8 +10513,8 @@
       <c r="NW13" s="48"/>
       <c r="NX13" s="39"/>
       <c r="NY13" s="39"/>
-      <c r="OA13" s="81"/>
-      <c r="OB13" s="82"/>
+      <c r="OA13" s="85"/>
+      <c r="OB13" s="86"/>
       <c r="OC13" s="39"/>
       <c r="OD13" s="46"/>
       <c r="OE13" s="47"/>
@@ -10499,8 +10522,8 @@
       <c r="OG13" s="47"/>
       <c r="OH13" s="49"/>
       <c r="OI13" s="48"/>
-      <c r="ON13" s="81"/>
-      <c r="OO13" s="82"/>
+      <c r="ON13" s="85"/>
+      <c r="OO13" s="86"/>
       <c r="OQ13" s="46"/>
       <c r="OR13" s="47"/>
       <c r="OS13" s="49"/>
@@ -10509,8 +10532,8 @@
       <c r="OV13" s="48"/>
       <c r="OW13" s="39"/>
       <c r="OX13" s="39"/>
-      <c r="OZ13" s="81"/>
-      <c r="PA13" s="82"/>
+      <c r="OZ13" s="85"/>
+      <c r="PA13" s="86"/>
       <c r="PB13" s="39"/>
       <c r="PC13" s="46"/>
       <c r="PD13" s="47"/>
@@ -10518,8 +10541,8 @@
       <c r="PF13" s="47"/>
       <c r="PG13" s="47"/>
       <c r="PH13" s="48"/>
-      <c r="PM13" s="81"/>
-      <c r="PN13" s="82"/>
+      <c r="PM13" s="85"/>
+      <c r="PN13" s="86"/>
       <c r="PP13" s="46"/>
       <c r="PQ13" s="47"/>
       <c r="PR13" s="47"/>
@@ -10528,8 +10551,8 @@
       <c r="PU13" s="48"/>
       <c r="PV13" s="39"/>
       <c r="PW13" s="39"/>
-      <c r="PY13" s="81"/>
-      <c r="PZ13" s="82"/>
+      <c r="PY13" s="85"/>
+      <c r="PZ13" s="86"/>
       <c r="QA13" s="39"/>
       <c r="QB13" s="46"/>
       <c r="QC13" s="47"/>
@@ -10537,8 +10560,8 @@
       <c r="QE13" s="47"/>
       <c r="QF13" s="47"/>
       <c r="QG13" s="48"/>
-      <c r="QL13" s="81"/>
-      <c r="QM13" s="82"/>
+      <c r="QL13" s="85"/>
+      <c r="QM13" s="86"/>
       <c r="QO13" s="46"/>
       <c r="QP13" s="47"/>
       <c r="QQ13" s="47"/>
@@ -10547,8 +10570,8 @@
       <c r="QT13" s="48"/>
       <c r="QU13" s="39"/>
       <c r="QV13" s="39"/>
-      <c r="QX13" s="81"/>
-      <c r="QY13" s="82"/>
+      <c r="QX13" s="85"/>
+      <c r="QY13" s="86"/>
       <c r="QZ13" s="39"/>
       <c r="RA13" s="46"/>
       <c r="RB13" s="47"/>
@@ -10556,8 +10579,8 @@
       <c r="RD13" s="47"/>
       <c r="RE13" s="47"/>
       <c r="RF13" s="48"/>
-      <c r="RK13" s="81"/>
-      <c r="RL13" s="82"/>
+      <c r="RK13" s="85"/>
+      <c r="RL13" s="86"/>
       <c r="RN13" s="46"/>
       <c r="RO13" s="47"/>
       <c r="RP13" s="47"/>
@@ -10566,8 +10589,8 @@
       <c r="RS13" s="48"/>
       <c r="RT13" s="39"/>
       <c r="RU13" s="39"/>
-      <c r="RW13" s="81"/>
-      <c r="RX13" s="82"/>
+      <c r="RW13" s="85"/>
+      <c r="RX13" s="86"/>
       <c r="RY13" s="39"/>
       <c r="RZ13" s="46"/>
       <c r="SA13" s="47"/>
@@ -10575,8 +10598,8 @@
       <c r="SC13" s="47"/>
       <c r="SD13" s="47"/>
       <c r="SE13" s="48"/>
-      <c r="SJ13" s="81"/>
-      <c r="SK13" s="82"/>
+      <c r="SJ13" s="85"/>
+      <c r="SK13" s="86"/>
       <c r="SM13" s="46"/>
       <c r="SN13" s="47"/>
       <c r="SO13" s="47"/>
@@ -10585,8 +10608,8 @@
       <c r="SR13" s="48"/>
       <c r="SS13" s="39"/>
       <c r="ST13" s="39"/>
-      <c r="SV13" s="81"/>
-      <c r="SW13" s="82"/>
+      <c r="SV13" s="85"/>
+      <c r="SW13" s="86"/>
       <c r="SX13" s="39"/>
       <c r="SY13" s="46"/>
       <c r="SZ13" s="47"/>
@@ -10594,8 +10617,8 @@
       <c r="TB13" s="47"/>
       <c r="TC13" s="47"/>
       <c r="TD13" s="48"/>
-      <c r="TI13" s="81"/>
-      <c r="TJ13" s="82"/>
+      <c r="TI13" s="85"/>
+      <c r="TJ13" s="86"/>
       <c r="TL13" s="46"/>
       <c r="TM13" s="47"/>
       <c r="TN13" s="47"/>
@@ -10604,8 +10627,8 @@
       <c r="TQ13" s="48"/>
       <c r="TR13" s="39"/>
       <c r="TS13" s="39"/>
-      <c r="TU13" s="81"/>
-      <c r="TV13" s="82"/>
+      <c r="TU13" s="85"/>
+      <c r="TV13" s="86"/>
       <c r="TW13" s="39"/>
       <c r="TX13" s="46"/>
       <c r="TY13" s="47"/>
@@ -10613,8 +10636,8 @@
       <c r="UA13" s="47"/>
       <c r="UB13" s="47"/>
       <c r="UC13" s="48"/>
-      <c r="UH13" s="81"/>
-      <c r="UI13" s="82"/>
+      <c r="UH13" s="85"/>
+      <c r="UI13" s="86"/>
       <c r="UK13" s="46"/>
       <c r="UL13" s="47"/>
       <c r="UM13" s="47"/>
@@ -10623,8 +10646,8 @@
       <c r="UP13" s="48"/>
       <c r="UQ13" s="39"/>
       <c r="UR13" s="39"/>
-      <c r="UT13" s="81"/>
-      <c r="UU13" s="82"/>
+      <c r="UT13" s="85"/>
+      <c r="UU13" s="86"/>
       <c r="UV13" s="39"/>
       <c r="UW13" s="46"/>
       <c r="UX13" s="47"/>
@@ -10632,8 +10655,8 @@
       <c r="UZ13" s="47"/>
       <c r="VA13" s="47"/>
       <c r="VB13" s="48"/>
-      <c r="VG13" s="81"/>
-      <c r="VH13" s="82"/>
+      <c r="VG13" s="85"/>
+      <c r="VH13" s="86"/>
       <c r="VJ13" s="46"/>
       <c r="VK13" s="47"/>
       <c r="VL13" s="47"/>
@@ -10642,8 +10665,8 @@
       <c r="VO13" s="48"/>
       <c r="VP13" s="39"/>
       <c r="VQ13" s="39"/>
-      <c r="VS13" s="81"/>
-      <c r="VT13" s="82"/>
+      <c r="VS13" s="85"/>
+      <c r="VT13" s="86"/>
       <c r="VU13" s="39"/>
       <c r="VV13" s="46"/>
       <c r="VW13" s="47"/>
@@ -10651,8 +10674,8 @@
       <c r="VY13" s="47"/>
       <c r="VZ13" s="47"/>
       <c r="WA13" s="48"/>
-      <c r="WF13" s="81"/>
-      <c r="WG13" s="82"/>
+      <c r="WF13" s="85"/>
+      <c r="WG13" s="86"/>
       <c r="WI13" s="46"/>
       <c r="WJ13" s="47"/>
       <c r="WK13" s="47"/>
@@ -10661,8 +10684,8 @@
       <c r="WN13" s="48"/>
       <c r="WO13" s="39"/>
       <c r="WP13" s="39"/>
-      <c r="WR13" s="81"/>
-      <c r="WS13" s="82"/>
+      <c r="WR13" s="85"/>
+      <c r="WS13" s="86"/>
       <c r="WT13" s="39"/>
       <c r="WU13" s="46"/>
       <c r="WV13" s="47"/>
@@ -10670,8 +10693,8 @@
       <c r="WX13" s="47"/>
       <c r="WY13" s="47"/>
       <c r="WZ13" s="48"/>
-      <c r="XE13" s="81"/>
-      <c r="XF13" s="82"/>
+      <c r="XE13" s="85"/>
+      <c r="XF13" s="86"/>
       <c r="XH13" s="46"/>
       <c r="XI13" s="47"/>
       <c r="XJ13" s="47"/>
@@ -16039,10 +16062,10 @@
     </row>
     <row r="22" spans="3:654" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="40"/>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="84"/>
       <c r="G22" s="41"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -16052,10 +16075,10 @@
       <c r="M22" s="39"/>
       <c r="N22" s="39"/>
       <c r="O22" s="40"/>
-      <c r="P22" s="79" t="s">
+      <c r="P22" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="80"/>
+      <c r="Q22" s="84"/>
       <c r="R22" s="39"/>
       <c r="S22" s="41"/>
       <c r="T22" s="42"/>
@@ -16065,10 +16088,10 @@
       <c r="X22" s="43"/>
       <c r="Y22" s="39"/>
       <c r="AB22" s="40"/>
-      <c r="AC22" s="79" t="s">
+      <c r="AC22" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AD22" s="80"/>
+      <c r="AD22" s="84"/>
       <c r="AF22" s="41"/>
       <c r="AG22" s="44"/>
       <c r="AH22" s="44"/>
@@ -16078,10 +16101,10 @@
       <c r="AL22" s="39"/>
       <c r="AM22" s="39"/>
       <c r="AN22" s="40"/>
-      <c r="AO22" s="79" t="s">
+      <c r="AO22" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AP22" s="80"/>
+      <c r="AP22" s="84"/>
       <c r="AQ22" s="39"/>
       <c r="AR22" s="41"/>
       <c r="AS22" s="42"/>
@@ -16091,10 +16114,10 @@
       <c r="AW22" s="43"/>
       <c r="AX22" s="39"/>
       <c r="BA22" s="40"/>
-      <c r="BB22" s="79" t="s">
+      <c r="BB22" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="BC22" s="80"/>
+      <c r="BC22" s="84"/>
       <c r="BE22" s="41"/>
       <c r="BF22" s="42"/>
       <c r="BG22" s="42"/>
@@ -16104,10 +16127,10 @@
       <c r="BK22" s="39"/>
       <c r="BL22" s="39"/>
       <c r="BM22" s="40"/>
-      <c r="BN22" s="79" t="s">
+      <c r="BN22" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="BO22" s="80"/>
+      <c r="BO22" s="84"/>
       <c r="BP22" s="39"/>
       <c r="BQ22" s="41"/>
       <c r="BR22" s="42"/>
@@ -16117,8 +16140,8 @@
       <c r="BV22" s="43"/>
       <c r="BW22" s="39"/>
       <c r="BZ22" s="40"/>
-      <c r="CA22" s="79"/>
-      <c r="CB22" s="80"/>
+      <c r="CA22" s="83"/>
+      <c r="CB22" s="84"/>
       <c r="CD22" s="41"/>
       <c r="CE22" s="42"/>
       <c r="CF22" s="42"/>
@@ -16128,10 +16151,10 @@
       <c r="CJ22" s="39"/>
       <c r="CK22" s="39"/>
       <c r="CL22" s="40"/>
-      <c r="CM22" s="79" t="s">
+      <c r="CM22" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="CN22" s="80"/>
+      <c r="CN22" s="84"/>
       <c r="CO22" s="39"/>
       <c r="CP22" s="45"/>
       <c r="CQ22" s="44"/>
@@ -16141,10 +16164,10 @@
       <c r="CU22" s="43"/>
       <c r="CV22" s="39"/>
       <c r="CY22" s="40"/>
-      <c r="CZ22" s="79" t="s">
+      <c r="CZ22" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="DA22" s="80"/>
+      <c r="DA22" s="84"/>
       <c r="DC22" s="41"/>
       <c r="DD22" s="42"/>
       <c r="DE22" s="44"/>
@@ -16154,10 +16177,10 @@
       <c r="DI22" s="39"/>
       <c r="DJ22" s="39"/>
       <c r="DK22" s="40"/>
-      <c r="DL22" s="79" t="s">
+      <c r="DL22" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="DM22" s="80"/>
+      <c r="DM22" s="84"/>
       <c r="DN22" s="39"/>
       <c r="DO22" s="41"/>
       <c r="DP22" s="42"/>
@@ -16167,10 +16190,10 @@
       <c r="DT22" s="43"/>
       <c r="DU22" s="39"/>
       <c r="DX22" s="40"/>
-      <c r="DY22" s="79" t="s">
+      <c r="DY22" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="DZ22" s="80"/>
+      <c r="DZ22" s="84"/>
       <c r="EB22" s="41"/>
       <c r="EC22" s="42"/>
       <c r="ED22" s="42"/>
@@ -16180,10 +16203,10 @@
       <c r="EH22" s="39"/>
       <c r="EI22" s="39"/>
       <c r="EJ22" s="40"/>
-      <c r="EK22" s="79" t="s">
+      <c r="EK22" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="EL22" s="80"/>
+      <c r="EL22" s="84"/>
       <c r="EM22" s="39"/>
       <c r="EN22" s="41"/>
       <c r="EO22" s="44"/>
@@ -16193,10 +16216,10 @@
       <c r="ES22" s="43"/>
       <c r="ET22" s="39"/>
       <c r="EW22" s="40"/>
-      <c r="EX22" s="79" t="s">
+      <c r="EX22" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="EY22" s="80"/>
+      <c r="EY22" s="84"/>
       <c r="FA22" s="45"/>
       <c r="FB22" s="42"/>
       <c r="FC22" s="42"/>
@@ -16206,10 +16229,10 @@
       <c r="FG22" s="39"/>
       <c r="FH22" s="39"/>
       <c r="FI22" s="40"/>
-      <c r="FJ22" s="79" t="s">
+      <c r="FJ22" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="FK22" s="80"/>
+      <c r="FK22" s="84"/>
       <c r="FL22" s="39"/>
       <c r="FM22" s="41"/>
       <c r="FN22" s="44"/>
@@ -16219,10 +16242,10 @@
       <c r="FR22" s="43"/>
       <c r="FS22" s="39"/>
       <c r="FV22" s="40"/>
-      <c r="FW22" s="79" t="s">
+      <c r="FW22" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="FX22" s="80"/>
+      <c r="FX22" s="84"/>
       <c r="FZ22" s="45"/>
       <c r="GA22" s="42"/>
       <c r="GB22" s="42"/>
@@ -16232,10 +16255,10 @@
       <c r="GF22" s="39"/>
       <c r="GG22" s="39"/>
       <c r="GH22" s="40"/>
-      <c r="GI22" s="79" t="s">
+      <c r="GI22" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="GJ22" s="80"/>
+      <c r="GJ22" s="84"/>
       <c r="GK22" s="39"/>
       <c r="GL22" s="45"/>
       <c r="GM22" s="42"/>
@@ -16245,10 +16268,10 @@
       <c r="GQ22" s="43"/>
       <c r="GR22" s="39"/>
       <c r="GU22" s="40"/>
-      <c r="GV22" s="79" t="s">
+      <c r="GV22" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="GW22" s="80"/>
+      <c r="GW22" s="84"/>
       <c r="GY22" s="45"/>
       <c r="GZ22" s="44"/>
       <c r="HA22" s="44"/>
@@ -16258,10 +16281,10 @@
       <c r="HE22" s="39"/>
       <c r="HF22" s="39"/>
       <c r="HG22" s="40"/>
-      <c r="HH22" s="79" t="s">
+      <c r="HH22" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="HI22" s="80"/>
+      <c r="HI22" s="84"/>
       <c r="HJ22" s="39"/>
       <c r="HK22" s="45"/>
       <c r="HL22" s="42"/>
@@ -16271,10 +16294,10 @@
       <c r="HP22" s="43"/>
       <c r="HQ22" s="39"/>
       <c r="HT22" s="40"/>
-      <c r="HU22" s="79" t="s">
+      <c r="HU22" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="HV22" s="80"/>
+      <c r="HV22" s="84"/>
       <c r="HX22" s="41"/>
       <c r="HY22" s="42"/>
       <c r="HZ22" s="42"/>
@@ -16284,10 +16307,10 @@
       <c r="ID22" s="39"/>
       <c r="IE22" s="39"/>
       <c r="IF22" s="40"/>
-      <c r="IG22" s="79" t="s">
+      <c r="IG22" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="IH22" s="80"/>
+      <c r="IH22" s="84"/>
       <c r="II22" s="39"/>
       <c r="IJ22" s="41"/>
       <c r="IK22" s="42"/>
@@ -16297,10 +16320,10 @@
       <c r="IO22" s="43"/>
       <c r="IP22" s="39"/>
       <c r="IS22" s="40"/>
-      <c r="IT22" s="79" t="s">
+      <c r="IT22" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="IU22" s="80"/>
+      <c r="IU22" s="84"/>
       <c r="IW22" s="41"/>
       <c r="IX22" s="42"/>
       <c r="IY22" s="42"/>
@@ -16310,10 +16333,10 @@
       <c r="JC22" s="39"/>
       <c r="JD22" s="39"/>
       <c r="JE22" s="40"/>
-      <c r="JF22" s="79" t="s">
+      <c r="JF22" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="JG22" s="80"/>
+      <c r="JG22" s="84"/>
       <c r="JH22" s="39"/>
       <c r="JI22" s="45"/>
       <c r="JJ22" s="42"/>
@@ -16323,10 +16346,10 @@
       <c r="JN22" s="43"/>
       <c r="JO22" s="39"/>
       <c r="JR22" s="40"/>
-      <c r="JS22" s="79" t="s">
+      <c r="JS22" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="JT22" s="80"/>
+      <c r="JT22" s="84"/>
       <c r="JV22" s="41"/>
       <c r="JW22" s="42"/>
       <c r="JX22" s="42"/>
@@ -16336,10 +16359,10 @@
       <c r="KB22" s="39"/>
       <c r="KC22" s="39"/>
       <c r="KD22" s="40"/>
-      <c r="KE22" s="79" t="s">
+      <c r="KE22" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="KF22" s="80"/>
+      <c r="KF22" s="84"/>
       <c r="KG22" s="39"/>
       <c r="KH22" s="41"/>
       <c r="KI22" s="42"/>
@@ -16349,10 +16372,10 @@
       <c r="KM22" s="43"/>
       <c r="KN22" s="39"/>
       <c r="KQ22" s="40"/>
-      <c r="KR22" s="79" t="s">
+      <c r="KR22" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="KS22" s="80"/>
+      <c r="KS22" s="84"/>
       <c r="KU22" s="41"/>
       <c r="KV22" s="42"/>
       <c r="KW22" s="42"/>
@@ -16362,10 +16385,10 @@
       <c r="LA22" s="39"/>
       <c r="LB22" s="39"/>
       <c r="LC22" s="40"/>
-      <c r="LD22" s="79" t="s">
+      <c r="LD22" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="LE22" s="80"/>
+      <c r="LE22" s="84"/>
       <c r="LF22" s="39"/>
       <c r="LG22" s="41"/>
       <c r="LH22" s="42"/>
@@ -16375,10 +16398,10 @@
       <c r="LL22" s="43"/>
       <c r="LM22" s="39"/>
       <c r="LP22" s="40"/>
-      <c r="LQ22" s="79" t="s">
+      <c r="LQ22" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="LR22" s="80"/>
+      <c r="LR22" s="84"/>
       <c r="LS22" s="39"/>
       <c r="LT22" s="41"/>
       <c r="LU22" s="44"/>
@@ -16389,10 +16412,10 @@
       <c r="LZ22" s="39"/>
       <c r="MA22" s="39"/>
       <c r="MB22" s="40"/>
-      <c r="MC22" s="79" t="s">
+      <c r="MC22" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="MD22" s="80"/>
+      <c r="MD22" s="84"/>
       <c r="ME22" s="39"/>
       <c r="MF22" s="41"/>
       <c r="MG22" s="44"/>
@@ -16402,10 +16425,10 @@
       <c r="MK22" s="43"/>
       <c r="ML22" s="39"/>
       <c r="MO22" s="40"/>
-      <c r="MP22" s="79" t="s">
+      <c r="MP22" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="MQ22" s="80"/>
+      <c r="MQ22" s="84"/>
       <c r="MR22" s="39"/>
       <c r="MS22" s="41"/>
       <c r="MT22" s="42"/>
@@ -16416,10 +16439,10 @@
       <c r="MY22" s="39"/>
       <c r="MZ22" s="39"/>
       <c r="NA22" s="40"/>
-      <c r="NB22" s="79" t="s">
+      <c r="NB22" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="NC22" s="80"/>
+      <c r="NC22" s="84"/>
       <c r="ND22" s="39"/>
       <c r="NE22" s="41"/>
       <c r="NF22" s="42"/>
@@ -16428,10 +16451,10 @@
       <c r="NI22" s="42"/>
       <c r="NJ22" s="43"/>
       <c r="NN22" s="40"/>
-      <c r="NO22" s="79" t="s">
+      <c r="NO22" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="NP22" s="80"/>
+      <c r="NP22" s="84"/>
       <c r="NQ22" s="39"/>
       <c r="NR22" s="41"/>
       <c r="NS22" s="44"/>
@@ -16442,10 +16465,10 @@
       <c r="NX22" s="39"/>
       <c r="NY22" s="39"/>
       <c r="NZ22" s="40"/>
-      <c r="OA22" s="79" t="s">
+      <c r="OA22" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="OB22" s="80"/>
+      <c r="OB22" s="84"/>
       <c r="OC22" s="39"/>
       <c r="OD22" s="41"/>
       <c r="OE22" s="42"/>
@@ -16454,10 +16477,10 @@
       <c r="OH22" s="42"/>
       <c r="OI22" s="43"/>
       <c r="OM22" s="40"/>
-      <c r="ON22" s="79" t="s">
+      <c r="ON22" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="OO22" s="80"/>
+      <c r="OO22" s="84"/>
       <c r="OP22" s="39"/>
       <c r="OQ22" s="41"/>
       <c r="OR22" s="42"/>
@@ -16468,10 +16491,10 @@
       <c r="OW22" s="39"/>
       <c r="OX22" s="39"/>
       <c r="OY22" s="40"/>
-      <c r="OZ22" s="79" t="s">
+      <c r="OZ22" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="PA22" s="80"/>
+      <c r="PA22" s="84"/>
       <c r="PB22" s="39"/>
       <c r="PC22" s="41"/>
       <c r="PD22" s="42"/>
@@ -16480,10 +16503,10 @@
       <c r="PG22" s="42"/>
       <c r="PH22" s="43"/>
       <c r="PL22" s="40"/>
-      <c r="PM22" s="79" t="s">
+      <c r="PM22" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="PN22" s="80"/>
+      <c r="PN22" s="84"/>
       <c r="PO22" s="39"/>
       <c r="PP22" s="41"/>
       <c r="PQ22" s="42"/>
@@ -16494,10 +16517,10 @@
       <c r="PV22" s="39"/>
       <c r="PW22" s="39"/>
       <c r="PX22" s="40"/>
-      <c r="PY22" s="79" t="s">
+      <c r="PY22" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="PZ22" s="80"/>
+      <c r="PZ22" s="84"/>
       <c r="QA22" s="39"/>
       <c r="QB22" s="41"/>
       <c r="QC22" s="42"/>
@@ -16506,10 +16529,10 @@
       <c r="QF22" s="42"/>
       <c r="QG22" s="43"/>
       <c r="QK22" s="40"/>
-      <c r="QL22" s="79" t="s">
+      <c r="QL22" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="QM22" s="80"/>
+      <c r="QM22" s="84"/>
       <c r="QN22" s="39"/>
       <c r="QO22" s="41"/>
       <c r="QP22" s="42"/>
@@ -16520,10 +16543,10 @@
       <c r="QU22" s="39"/>
       <c r="QV22" s="39"/>
       <c r="QW22" s="40"/>
-      <c r="QX22" s="79" t="s">
+      <c r="QX22" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="QY22" s="80"/>
+      <c r="QY22" s="84"/>
       <c r="QZ22" s="39"/>
       <c r="RA22" s="41"/>
       <c r="RB22" s="42"/>
@@ -16532,10 +16555,10 @@
       <c r="RE22" s="42"/>
       <c r="RF22" s="43"/>
       <c r="RJ22" s="40"/>
-      <c r="RK22" s="79" t="s">
+      <c r="RK22" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="RL22" s="80"/>
+      <c r="RL22" s="84"/>
       <c r="RM22" s="39"/>
       <c r="RN22" s="41"/>
       <c r="RO22" s="42"/>
@@ -16546,10 +16569,10 @@
       <c r="RT22" s="39"/>
       <c r="RU22" s="39"/>
       <c r="RV22" s="40"/>
-      <c r="RW22" s="79" t="s">
+      <c r="RW22" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="RX22" s="80"/>
+      <c r="RX22" s="84"/>
       <c r="RY22" s="39"/>
       <c r="RZ22" s="41"/>
       <c r="SA22" s="42"/>
@@ -16558,10 +16581,10 @@
       <c r="SD22" s="42"/>
       <c r="SE22" s="43"/>
       <c r="SI22" s="40"/>
-      <c r="SJ22" s="79" t="s">
+      <c r="SJ22" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="SK22" s="80"/>
+      <c r="SK22" s="84"/>
       <c r="SL22" s="39"/>
       <c r="SM22" s="41"/>
       <c r="SN22" s="42"/>
@@ -16572,10 +16595,10 @@
       <c r="SS22" s="39"/>
       <c r="ST22" s="39"/>
       <c r="SU22" s="40"/>
-      <c r="SV22" s="79" t="s">
+      <c r="SV22" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="SW22" s="80"/>
+      <c r="SW22" s="84"/>
       <c r="SX22" s="39"/>
       <c r="SY22" s="41"/>
       <c r="SZ22" s="42"/>
@@ -16584,10 +16607,10 @@
       <c r="TC22" s="42"/>
       <c r="TD22" s="43"/>
       <c r="TH22" s="40"/>
-      <c r="TI22" s="79" t="s">
+      <c r="TI22" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="TJ22" s="80"/>
+      <c r="TJ22" s="84"/>
       <c r="TK22" s="39"/>
       <c r="TL22" s="41"/>
       <c r="TM22" s="42"/>
@@ -16598,10 +16621,10 @@
       <c r="TR22" s="39"/>
       <c r="TS22" s="39"/>
       <c r="TT22" s="40"/>
-      <c r="TU22" s="79" t="s">
+      <c r="TU22" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="TV22" s="80"/>
+      <c r="TV22" s="84"/>
       <c r="TW22" s="39"/>
       <c r="TX22" s="41"/>
       <c r="TY22" s="42"/>
@@ -16610,10 +16633,10 @@
       <c r="UB22" s="42"/>
       <c r="UC22" s="43"/>
       <c r="UG22" s="40"/>
-      <c r="UH22" s="79" t="s">
+      <c r="UH22" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="UI22" s="80"/>
+      <c r="UI22" s="84"/>
       <c r="UJ22" s="39"/>
       <c r="UK22" s="41"/>
       <c r="UL22" s="42"/>
@@ -16624,10 +16647,10 @@
       <c r="UQ22" s="39"/>
       <c r="UR22" s="39"/>
       <c r="US22" s="40"/>
-      <c r="UT22" s="79" t="s">
+      <c r="UT22" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="UU22" s="80"/>
+      <c r="UU22" s="84"/>
       <c r="UV22" s="39"/>
       <c r="UW22" s="41"/>
       <c r="UX22" s="42"/>
@@ -16636,10 +16659,10 @@
       <c r="VA22" s="42"/>
       <c r="VB22" s="43"/>
       <c r="VF22" s="40"/>
-      <c r="VG22" s="79" t="s">
+      <c r="VG22" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="VH22" s="80"/>
+      <c r="VH22" s="84"/>
       <c r="VI22" s="39"/>
       <c r="VJ22" s="41"/>
       <c r="VK22" s="42"/>
@@ -16650,10 +16673,10 @@
       <c r="VP22" s="39"/>
       <c r="VQ22" s="39"/>
       <c r="VR22" s="40"/>
-      <c r="VS22" s="79" t="s">
+      <c r="VS22" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="VT22" s="80"/>
+      <c r="VT22" s="84"/>
       <c r="VU22" s="39"/>
       <c r="VV22" s="41"/>
       <c r="VW22" s="42"/>
@@ -16662,10 +16685,10 @@
       <c r="VZ22" s="42"/>
       <c r="WA22" s="43"/>
       <c r="WE22" s="40"/>
-      <c r="WF22" s="79" t="s">
+      <c r="WF22" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="WG22" s="80"/>
+      <c r="WG22" s="84"/>
       <c r="WH22" s="39"/>
       <c r="WI22" s="41"/>
       <c r="WJ22" s="42"/>
@@ -16676,10 +16699,10 @@
       <c r="WO22" s="39"/>
       <c r="WP22" s="39"/>
       <c r="WQ22" s="40"/>
-      <c r="WR22" s="79" t="s">
+      <c r="WR22" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="WS22" s="80"/>
+      <c r="WS22" s="84"/>
       <c r="WT22" s="39"/>
       <c r="WU22" s="41"/>
       <c r="WV22" s="42"/>
@@ -16688,10 +16711,10 @@
       <c r="WY22" s="42"/>
       <c r="WZ22" s="43"/>
       <c r="XD22" s="40"/>
-      <c r="XE22" s="79" t="s">
+      <c r="XE22" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="XF22" s="80"/>
+      <c r="XF22" s="84"/>
       <c r="XG22" s="39"/>
       <c r="XH22" s="41"/>
       <c r="XI22" s="42"/>
@@ -16703,8 +16726,8 @@
       <c r="XO22" s="39"/>
     </row>
     <row r="23" spans="3:654" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
       <c r="G23" s="50"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
@@ -16713,8 +16736,8 @@
       <c r="L23" s="48"/>
       <c r="M23" s="39"/>
       <c r="N23" s="39"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="82"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="86"/>
       <c r="R23" s="39"/>
       <c r="S23" s="46"/>
       <c r="T23" s="47"/>
@@ -16723,8 +16746,8 @@
       <c r="W23" s="47"/>
       <c r="X23" s="48"/>
       <c r="Y23" s="39"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="82"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="86"/>
       <c r="AF23" s="50"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
@@ -16733,8 +16756,8 @@
       <c r="AK23" s="48"/>
       <c r="AL23" s="39"/>
       <c r="AM23" s="39"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="82"/>
+      <c r="AO23" s="85"/>
+      <c r="AP23" s="86"/>
       <c r="AQ23" s="39"/>
       <c r="AR23" s="46"/>
       <c r="AS23" s="47"/>
@@ -16743,8 +16766,8 @@
       <c r="AV23" s="49"/>
       <c r="AW23" s="48"/>
       <c r="AX23" s="39"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="82"/>
+      <c r="BB23" s="85"/>
+      <c r="BC23" s="86"/>
       <c r="BE23" s="46"/>
       <c r="BF23" s="47"/>
       <c r="BG23" s="47"/>
@@ -16753,8 +16776,8 @@
       <c r="BJ23" s="48"/>
       <c r="BK23" s="39"/>
       <c r="BL23" s="39"/>
-      <c r="BN23" s="81"/>
-      <c r="BO23" s="82"/>
+      <c r="BN23" s="85"/>
+      <c r="BO23" s="86"/>
       <c r="BP23" s="39"/>
       <c r="BQ23" s="46"/>
       <c r="BR23" s="47"/>
@@ -16763,8 +16786,8 @@
       <c r="BU23" s="47"/>
       <c r="BV23" s="48"/>
       <c r="BW23" s="39"/>
-      <c r="CA23" s="81"/>
-      <c r="CB23" s="82"/>
+      <c r="CA23" s="85"/>
+      <c r="CB23" s="86"/>
       <c r="CD23" s="46"/>
       <c r="CE23" s="47"/>
       <c r="CF23" s="47"/>
@@ -16773,8 +16796,8 @@
       <c r="CI23" s="48"/>
       <c r="CJ23" s="39"/>
       <c r="CK23" s="39"/>
-      <c r="CM23" s="81"/>
-      <c r="CN23" s="82"/>
+      <c r="CM23" s="85"/>
+      <c r="CN23" s="86"/>
       <c r="CO23" s="39"/>
       <c r="CP23" s="50"/>
       <c r="CQ23" s="49"/>
@@ -16783,8 +16806,8 @@
       <c r="CT23" s="49"/>
       <c r="CU23" s="48"/>
       <c r="CV23" s="39"/>
-      <c r="CZ23" s="81"/>
-      <c r="DA23" s="82"/>
+      <c r="CZ23" s="85"/>
+      <c r="DA23" s="86"/>
       <c r="DC23" s="50"/>
       <c r="DD23" s="47"/>
       <c r="DE23" s="49"/>
@@ -16793,8 +16816,8 @@
       <c r="DH23" s="48"/>
       <c r="DI23" s="39"/>
       <c r="DJ23" s="39"/>
-      <c r="DL23" s="81"/>
-      <c r="DM23" s="82"/>
+      <c r="DL23" s="85"/>
+      <c r="DM23" s="86"/>
       <c r="DN23" s="39"/>
       <c r="DO23" s="46"/>
       <c r="DP23" s="47"/>
@@ -16803,8 +16826,8 @@
       <c r="DS23" s="49"/>
       <c r="DT23" s="48"/>
       <c r="DU23" s="39"/>
-      <c r="DY23" s="81"/>
-      <c r="DZ23" s="82"/>
+      <c r="DY23" s="85"/>
+      <c r="DZ23" s="86"/>
       <c r="EB23" s="46"/>
       <c r="EC23" s="47"/>
       <c r="ED23" s="49"/>
@@ -16813,8 +16836,8 @@
       <c r="EG23" s="48"/>
       <c r="EH23" s="39"/>
       <c r="EI23" s="39"/>
-      <c r="EK23" s="81"/>
-      <c r="EL23" s="82"/>
+      <c r="EK23" s="85"/>
+      <c r="EL23" s="86"/>
       <c r="EM23" s="39"/>
       <c r="EN23" s="50"/>
       <c r="EO23" s="47"/>
@@ -16823,8 +16846,8 @@
       <c r="ER23" s="49"/>
       <c r="ES23" s="48"/>
       <c r="ET23" s="39"/>
-      <c r="EX23" s="81"/>
-      <c r="EY23" s="82"/>
+      <c r="EX23" s="85"/>
+      <c r="EY23" s="86"/>
       <c r="FA23" s="46"/>
       <c r="FB23" s="49"/>
       <c r="FC23" s="47"/>
@@ -16833,8 +16856,8 @@
       <c r="FF23" s="48"/>
       <c r="FG23" s="39"/>
       <c r="FH23" s="39"/>
-      <c r="FJ23" s="81"/>
-      <c r="FK23" s="82"/>
+      <c r="FJ23" s="85"/>
+      <c r="FK23" s="86"/>
       <c r="FL23" s="39"/>
       <c r="FM23" s="50"/>
       <c r="FN23" s="47"/>
@@ -16843,8 +16866,8 @@
       <c r="FQ23" s="49"/>
       <c r="FR23" s="48"/>
       <c r="FS23" s="39"/>
-      <c r="FW23" s="81"/>
-      <c r="FX23" s="82"/>
+      <c r="FW23" s="85"/>
+      <c r="FX23" s="86"/>
       <c r="FZ23" s="50"/>
       <c r="GA23" s="47"/>
       <c r="GB23" s="47"/>
@@ -16853,8 +16876,8 @@
       <c r="GE23" s="48"/>
       <c r="GF23" s="39"/>
       <c r="GG23" s="39"/>
-      <c r="GI23" s="81"/>
-      <c r="GJ23" s="82"/>
+      <c r="GI23" s="85"/>
+      <c r="GJ23" s="86"/>
       <c r="GK23" s="39"/>
       <c r="GL23" s="50"/>
       <c r="GM23" s="49"/>
@@ -16863,8 +16886,8 @@
       <c r="GP23" s="49"/>
       <c r="GQ23" s="48"/>
       <c r="GR23" s="39"/>
-      <c r="GV23" s="81"/>
-      <c r="GW23" s="82"/>
+      <c r="GV23" s="85"/>
+      <c r="GW23" s="86"/>
       <c r="GY23" s="50"/>
       <c r="GZ23" s="47"/>
       <c r="HA23" s="47"/>
@@ -16873,8 +16896,8 @@
       <c r="HD23" s="48"/>
       <c r="HE23" s="39"/>
       <c r="HF23" s="39"/>
-      <c r="HH23" s="81"/>
-      <c r="HI23" s="82"/>
+      <c r="HH23" s="85"/>
+      <c r="HI23" s="86"/>
       <c r="HJ23" s="39"/>
       <c r="HK23" s="50"/>
       <c r="HL23" s="47"/>
@@ -16883,8 +16906,8 @@
       <c r="HO23" s="49"/>
       <c r="HP23" s="48"/>
       <c r="HQ23" s="39"/>
-      <c r="HU23" s="81"/>
-      <c r="HV23" s="82"/>
+      <c r="HU23" s="85"/>
+      <c r="HV23" s="86"/>
       <c r="HX23" s="50"/>
       <c r="HY23" s="47"/>
       <c r="HZ23" s="47"/>
@@ -16893,8 +16916,8 @@
       <c r="IC23" s="48"/>
       <c r="ID23" s="39"/>
       <c r="IE23" s="39"/>
-      <c r="IG23" s="81"/>
-      <c r="IH23" s="82"/>
+      <c r="IG23" s="85"/>
+      <c r="IH23" s="86"/>
       <c r="II23" s="39"/>
       <c r="IJ23" s="46"/>
       <c r="IK23" s="47"/>
@@ -16903,8 +16926,8 @@
       <c r="IN23" s="47"/>
       <c r="IO23" s="48"/>
       <c r="IP23" s="39"/>
-      <c r="IT23" s="81"/>
-      <c r="IU23" s="82"/>
+      <c r="IT23" s="85"/>
+      <c r="IU23" s="86"/>
       <c r="IW23" s="46"/>
       <c r="IX23" s="47"/>
       <c r="IY23" s="49"/>
@@ -16913,8 +16936,8 @@
       <c r="JB23" s="48"/>
       <c r="JC23" s="39"/>
       <c r="JD23" s="39"/>
-      <c r="JF23" s="81"/>
-      <c r="JG23" s="82"/>
+      <c r="JF23" s="85"/>
+      <c r="JG23" s="86"/>
       <c r="JH23" s="39"/>
       <c r="JI23" s="50"/>
       <c r="JJ23" s="47"/>
@@ -16923,8 +16946,8 @@
       <c r="JM23" s="47"/>
       <c r="JN23" s="48"/>
       <c r="JO23" s="39"/>
-      <c r="JS23" s="81"/>
-      <c r="JT23" s="82"/>
+      <c r="JS23" s="85"/>
+      <c r="JT23" s="86"/>
       <c r="JV23" s="46"/>
       <c r="JW23" s="47"/>
       <c r="JX23" s="47"/>
@@ -16933,8 +16956,8 @@
       <c r="KA23" s="48"/>
       <c r="KB23" s="39"/>
       <c r="KC23" s="39"/>
-      <c r="KE23" s="81"/>
-      <c r="KF23" s="82"/>
+      <c r="KE23" s="85"/>
+      <c r="KF23" s="86"/>
       <c r="KG23" s="39"/>
       <c r="KH23" s="46"/>
       <c r="KI23" s="47"/>
@@ -16943,8 +16966,8 @@
       <c r="KL23" s="47"/>
       <c r="KM23" s="48"/>
       <c r="KN23" s="39"/>
-      <c r="KR23" s="81"/>
-      <c r="KS23" s="82"/>
+      <c r="KR23" s="85"/>
+      <c r="KS23" s="86"/>
       <c r="KU23" s="46"/>
       <c r="KV23" s="47"/>
       <c r="KW23" s="47"/>
@@ -16953,8 +16976,8 @@
       <c r="KZ23" s="48"/>
       <c r="LA23" s="39"/>
       <c r="LB23" s="39"/>
-      <c r="LD23" s="81"/>
-      <c r="LE23" s="82"/>
+      <c r="LD23" s="85"/>
+      <c r="LE23" s="86"/>
       <c r="LF23" s="39"/>
       <c r="LG23" s="46"/>
       <c r="LH23" s="49"/>
@@ -16963,8 +16986,8 @@
       <c r="LK23" s="47"/>
       <c r="LL23" s="48"/>
       <c r="LM23" s="39"/>
-      <c r="LQ23" s="81"/>
-      <c r="LR23" s="82"/>
+      <c r="LQ23" s="85"/>
+      <c r="LR23" s="86"/>
       <c r="LS23" s="39"/>
       <c r="LT23" s="46"/>
       <c r="LU23" s="47"/>
@@ -16974,8 +16997,8 @@
       <c r="LY23" s="48"/>
       <c r="LZ23" s="39"/>
       <c r="MA23" s="39"/>
-      <c r="MC23" s="81"/>
-      <c r="MD23" s="82"/>
+      <c r="MC23" s="85"/>
+      <c r="MD23" s="86"/>
       <c r="ME23" s="39"/>
       <c r="MF23" s="46"/>
       <c r="MG23" s="47"/>
@@ -16984,8 +17007,8 @@
       <c r="MJ23" s="47"/>
       <c r="MK23" s="48"/>
       <c r="ML23" s="39"/>
-      <c r="MP23" s="81"/>
-      <c r="MQ23" s="82"/>
+      <c r="MP23" s="85"/>
+      <c r="MQ23" s="86"/>
       <c r="MR23" s="39"/>
       <c r="MS23" s="46"/>
       <c r="MT23" s="47"/>
@@ -16995,8 +17018,8 @@
       <c r="MX23" s="48"/>
       <c r="MY23" s="39"/>
       <c r="MZ23" s="39"/>
-      <c r="NB23" s="81"/>
-      <c r="NC23" s="82"/>
+      <c r="NB23" s="85"/>
+      <c r="NC23" s="86"/>
       <c r="ND23" s="39"/>
       <c r="NE23" s="46"/>
       <c r="NF23" s="49"/>
@@ -17004,8 +17027,8 @@
       <c r="NH23" s="49"/>
       <c r="NI23" s="47"/>
       <c r="NJ23" s="48"/>
-      <c r="NO23" s="81"/>
-      <c r="NP23" s="82"/>
+      <c r="NO23" s="85"/>
+      <c r="NP23" s="86"/>
       <c r="NQ23" s="39"/>
       <c r="NR23" s="46"/>
       <c r="NS23" s="47"/>
@@ -17015,8 +17038,8 @@
       <c r="NW23" s="48"/>
       <c r="NX23" s="39"/>
       <c r="NY23" s="39"/>
-      <c r="OA23" s="81"/>
-      <c r="OB23" s="82"/>
+      <c r="OA23" s="85"/>
+      <c r="OB23" s="86"/>
       <c r="OC23" s="39"/>
       <c r="OD23" s="46"/>
       <c r="OE23" s="47"/>
@@ -17024,8 +17047,8 @@
       <c r="OG23" s="47"/>
       <c r="OH23" s="47"/>
       <c r="OI23" s="48"/>
-      <c r="ON23" s="81"/>
-      <c r="OO23" s="82"/>
+      <c r="ON23" s="85"/>
+      <c r="OO23" s="86"/>
       <c r="OP23" s="39"/>
       <c r="OQ23" s="46"/>
       <c r="OR23" s="47"/>
@@ -17035,8 +17058,8 @@
       <c r="OV23" s="48"/>
       <c r="OW23" s="39"/>
       <c r="OX23" s="39"/>
-      <c r="OZ23" s="81"/>
-      <c r="PA23" s="82"/>
+      <c r="OZ23" s="85"/>
+      <c r="PA23" s="86"/>
       <c r="PB23" s="39"/>
       <c r="PC23" s="46"/>
       <c r="PD23" s="47"/>
@@ -17044,8 +17067,8 @@
       <c r="PF23" s="47"/>
       <c r="PG23" s="47"/>
       <c r="PH23" s="48"/>
-      <c r="PM23" s="81"/>
-      <c r="PN23" s="82"/>
+      <c r="PM23" s="85"/>
+      <c r="PN23" s="86"/>
       <c r="PO23" s="39"/>
       <c r="PP23" s="46"/>
       <c r="PQ23" s="47"/>
@@ -17055,8 +17078,8 @@
       <c r="PU23" s="48"/>
       <c r="PV23" s="39"/>
       <c r="PW23" s="39"/>
-      <c r="PY23" s="81"/>
-      <c r="PZ23" s="82"/>
+      <c r="PY23" s="85"/>
+      <c r="PZ23" s="86"/>
       <c r="QA23" s="39"/>
       <c r="QB23" s="46"/>
       <c r="QC23" s="47"/>
@@ -17064,8 +17087,8 @@
       <c r="QE23" s="47"/>
       <c r="QF23" s="47"/>
       <c r="QG23" s="48"/>
-      <c r="QL23" s="81"/>
-      <c r="QM23" s="82"/>
+      <c r="QL23" s="85"/>
+      <c r="QM23" s="86"/>
       <c r="QN23" s="39"/>
       <c r="QO23" s="46"/>
       <c r="QP23" s="47"/>
@@ -17075,8 +17098,8 @@
       <c r="QT23" s="48"/>
       <c r="QU23" s="39"/>
       <c r="QV23" s="39"/>
-      <c r="QX23" s="81"/>
-      <c r="QY23" s="82"/>
+      <c r="QX23" s="85"/>
+      <c r="QY23" s="86"/>
       <c r="QZ23" s="39"/>
       <c r="RA23" s="46"/>
       <c r="RB23" s="47"/>
@@ -17084,8 +17107,8 @@
       <c r="RD23" s="47"/>
       <c r="RE23" s="47"/>
       <c r="RF23" s="48"/>
-      <c r="RK23" s="81"/>
-      <c r="RL23" s="82"/>
+      <c r="RK23" s="85"/>
+      <c r="RL23" s="86"/>
       <c r="RM23" s="39"/>
       <c r="RN23" s="46"/>
       <c r="RO23" s="47"/>
@@ -17095,8 +17118,8 @@
       <c r="RS23" s="48"/>
       <c r="RT23" s="39"/>
       <c r="RU23" s="39"/>
-      <c r="RW23" s="81"/>
-      <c r="RX23" s="82"/>
+      <c r="RW23" s="85"/>
+      <c r="RX23" s="86"/>
       <c r="RY23" s="39"/>
       <c r="RZ23" s="46"/>
       <c r="SA23" s="47"/>
@@ -17104,8 +17127,8 @@
       <c r="SC23" s="47"/>
       <c r="SD23" s="47"/>
       <c r="SE23" s="48"/>
-      <c r="SJ23" s="81"/>
-      <c r="SK23" s="82"/>
+      <c r="SJ23" s="85"/>
+      <c r="SK23" s="86"/>
       <c r="SL23" s="39"/>
       <c r="SM23" s="46"/>
       <c r="SN23" s="47"/>
@@ -17115,8 +17138,8 @@
       <c r="SR23" s="48"/>
       <c r="SS23" s="39"/>
       <c r="ST23" s="39"/>
-      <c r="SV23" s="81"/>
-      <c r="SW23" s="82"/>
+      <c r="SV23" s="85"/>
+      <c r="SW23" s="86"/>
       <c r="SX23" s="39"/>
       <c r="SY23" s="46"/>
       <c r="SZ23" s="47"/>
@@ -17124,8 +17147,8 @@
       <c r="TB23" s="47"/>
       <c r="TC23" s="47"/>
       <c r="TD23" s="48"/>
-      <c r="TI23" s="81"/>
-      <c r="TJ23" s="82"/>
+      <c r="TI23" s="85"/>
+      <c r="TJ23" s="86"/>
       <c r="TK23" s="39"/>
       <c r="TL23" s="46"/>
       <c r="TM23" s="47"/>
@@ -17135,8 +17158,8 @@
       <c r="TQ23" s="48"/>
       <c r="TR23" s="39"/>
       <c r="TS23" s="39"/>
-      <c r="TU23" s="81"/>
-      <c r="TV23" s="82"/>
+      <c r="TU23" s="85"/>
+      <c r="TV23" s="86"/>
       <c r="TW23" s="39"/>
       <c r="TX23" s="46"/>
       <c r="TY23" s="47"/>
@@ -17144,8 +17167,8 @@
       <c r="UA23" s="47"/>
       <c r="UB23" s="47"/>
       <c r="UC23" s="48"/>
-      <c r="UH23" s="81"/>
-      <c r="UI23" s="82"/>
+      <c r="UH23" s="85"/>
+      <c r="UI23" s="86"/>
       <c r="UJ23" s="39"/>
       <c r="UK23" s="46"/>
       <c r="UL23" s="47"/>
@@ -17155,8 +17178,8 @@
       <c r="UP23" s="48"/>
       <c r="UQ23" s="39"/>
       <c r="UR23" s="39"/>
-      <c r="UT23" s="81"/>
-      <c r="UU23" s="82"/>
+      <c r="UT23" s="85"/>
+      <c r="UU23" s="86"/>
       <c r="UV23" s="39"/>
       <c r="UW23" s="46"/>
       <c r="UX23" s="47"/>
@@ -17164,8 +17187,8 @@
       <c r="UZ23" s="47"/>
       <c r="VA23" s="47"/>
       <c r="VB23" s="48"/>
-      <c r="VG23" s="81"/>
-      <c r="VH23" s="82"/>
+      <c r="VG23" s="85"/>
+      <c r="VH23" s="86"/>
       <c r="VI23" s="39"/>
       <c r="VJ23" s="46"/>
       <c r="VK23" s="47"/>
@@ -17175,8 +17198,8 @@
       <c r="VO23" s="48"/>
       <c r="VP23" s="39"/>
       <c r="VQ23" s="39"/>
-      <c r="VS23" s="81"/>
-      <c r="VT23" s="82"/>
+      <c r="VS23" s="85"/>
+      <c r="VT23" s="86"/>
       <c r="VU23" s="39"/>
       <c r="VV23" s="46"/>
       <c r="VW23" s="47"/>
@@ -17184,8 +17207,8 @@
       <c r="VY23" s="47"/>
       <c r="VZ23" s="47"/>
       <c r="WA23" s="48"/>
-      <c r="WF23" s="81"/>
-      <c r="WG23" s="82"/>
+      <c r="WF23" s="85"/>
+      <c r="WG23" s="86"/>
       <c r="WH23" s="39"/>
       <c r="WI23" s="46"/>
       <c r="WJ23" s="47"/>
@@ -17195,8 +17218,8 @@
       <c r="WN23" s="48"/>
       <c r="WO23" s="39"/>
       <c r="WP23" s="39"/>
-      <c r="WR23" s="81"/>
-      <c r="WS23" s="82"/>
+      <c r="WR23" s="85"/>
+      <c r="WS23" s="86"/>
       <c r="WT23" s="39"/>
       <c r="WU23" s="46"/>
       <c r="WV23" s="47"/>
@@ -17204,8 +17227,8 @@
       <c r="WX23" s="47"/>
       <c r="WY23" s="47"/>
       <c r="WZ23" s="48"/>
-      <c r="XE23" s="81"/>
-      <c r="XF23" s="82"/>
+      <c r="XE23" s="85"/>
+      <c r="XF23" s="86"/>
       <c r="XG23" s="39"/>
       <c r="XH23" s="46"/>
       <c r="XI23" s="47"/>
@@ -22434,10 +22457,10 @@
     </row>
     <row r="32" spans="3:654" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="40"/>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="84"/>
       <c r="G32" s="41"/>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -22447,10 +22470,10 @@
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
       <c r="O32" s="40"/>
-      <c r="P32" s="79" t="s">
+      <c r="P32" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="80"/>
+      <c r="Q32" s="84"/>
       <c r="R32" s="39"/>
       <c r="S32" s="45"/>
       <c r="T32" s="44"/>
@@ -22460,10 +22483,10 @@
       <c r="X32" s="43"/>
       <c r="Y32" s="39"/>
       <c r="AB32" s="40"/>
-      <c r="AC32" s="79" t="s">
+      <c r="AC32" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AD32" s="80"/>
+      <c r="AD32" s="84"/>
       <c r="AF32" s="41"/>
       <c r="AG32" s="44"/>
       <c r="AH32" s="44"/>
@@ -22473,10 +22496,10 @@
       <c r="AL32" s="39"/>
       <c r="AM32" s="39"/>
       <c r="AN32" s="40"/>
-      <c r="AO32" s="79" t="s">
+      <c r="AO32" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AP32" s="80"/>
+      <c r="AP32" s="84"/>
       <c r="AQ32" s="39"/>
       <c r="AR32" s="41"/>
       <c r="AS32" s="42"/>
@@ -22486,10 +22509,10 @@
       <c r="AW32" s="43"/>
       <c r="AX32" s="39"/>
       <c r="BA32" s="40"/>
-      <c r="BB32" s="79" t="s">
+      <c r="BB32" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="BC32" s="80"/>
+      <c r="BC32" s="84"/>
       <c r="BE32" s="41"/>
       <c r="BF32" s="42"/>
       <c r="BG32" s="44"/>
@@ -22499,10 +22522,10 @@
       <c r="BK32" s="39"/>
       <c r="BL32" s="39"/>
       <c r="BM32" s="40"/>
-      <c r="BN32" s="79" t="s">
+      <c r="BN32" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="BO32" s="80"/>
+      <c r="BO32" s="84"/>
       <c r="BP32" s="39"/>
       <c r="BQ32" s="41"/>
       <c r="BR32" s="42"/>
@@ -22512,10 +22535,10 @@
       <c r="BV32" s="43"/>
       <c r="BW32" s="39"/>
       <c r="BZ32" s="40"/>
-      <c r="CA32" s="79" t="s">
+      <c r="CA32" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="CB32" s="80"/>
+      <c r="CB32" s="84"/>
       <c r="CD32" s="41"/>
       <c r="CE32" s="42"/>
       <c r="CF32" s="44"/>
@@ -22525,10 +22548,10 @@
       <c r="CJ32" s="39"/>
       <c r="CK32" s="39"/>
       <c r="CL32" s="40"/>
-      <c r="CM32" s="79" t="s">
+      <c r="CM32" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="CN32" s="80"/>
+      <c r="CN32" s="84"/>
       <c r="CO32" s="39"/>
       <c r="CP32" s="41"/>
       <c r="CQ32" s="44"/>
@@ -22538,10 +22561,10 @@
       <c r="CU32" s="43"/>
       <c r="CV32" s="39"/>
       <c r="CY32" s="40"/>
-      <c r="CZ32" s="79" t="s">
+      <c r="CZ32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="DA32" s="80"/>
+      <c r="DA32" s="84"/>
       <c r="DC32" s="41"/>
       <c r="DD32" s="42"/>
       <c r="DE32" s="42"/>
@@ -22551,10 +22574,10 @@
       <c r="DI32" s="39"/>
       <c r="DJ32" s="39"/>
       <c r="DK32" s="40"/>
-      <c r="DL32" s="79" t="s">
+      <c r="DL32" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="DM32" s="80"/>
+      <c r="DM32" s="84"/>
       <c r="DN32" s="39"/>
       <c r="DO32" s="41"/>
       <c r="DP32" s="44"/>
@@ -22564,10 +22587,10 @@
       <c r="DT32" s="43"/>
       <c r="DU32" s="39"/>
       <c r="DX32" s="40"/>
-      <c r="DY32" s="79" t="s">
+      <c r="DY32" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="DZ32" s="80"/>
+      <c r="DZ32" s="84"/>
       <c r="EB32" s="45"/>
       <c r="EC32" s="44"/>
       <c r="ED32" s="44"/>
@@ -22577,10 +22600,10 @@
       <c r="EH32" s="39"/>
       <c r="EI32" s="39"/>
       <c r="EJ32" s="40"/>
-      <c r="EK32" s="79" t="s">
+      <c r="EK32" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="EL32" s="80"/>
+      <c r="EL32" s="84"/>
       <c r="EM32" s="39"/>
       <c r="EN32" s="41"/>
       <c r="EO32" s="42"/>
@@ -22590,10 +22613,10 @@
       <c r="ES32" s="43"/>
       <c r="ET32" s="39"/>
       <c r="EW32" s="40"/>
-      <c r="EX32" s="79" t="s">
+      <c r="EX32" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="EY32" s="80"/>
+      <c r="EY32" s="84"/>
       <c r="FA32" s="41"/>
       <c r="FB32" s="44"/>
       <c r="FC32" s="44"/>
@@ -22603,10 +22626,10 @@
       <c r="FG32" s="39"/>
       <c r="FH32" s="39"/>
       <c r="FI32" s="40"/>
-      <c r="FJ32" s="79" t="s">
+      <c r="FJ32" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="FK32" s="80"/>
+      <c r="FK32" s="84"/>
       <c r="FL32" s="39"/>
       <c r="FM32" s="45"/>
       <c r="FN32" s="44"/>
@@ -22616,10 +22639,10 @@
       <c r="FR32" s="43"/>
       <c r="FS32" s="39"/>
       <c r="FV32" s="40"/>
-      <c r="FW32" s="79" t="s">
+      <c r="FW32" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="FX32" s="80"/>
+      <c r="FX32" s="84"/>
       <c r="FZ32" s="41"/>
       <c r="GA32" s="44"/>
       <c r="GB32" s="44"/>
@@ -22629,10 +22652,10 @@
       <c r="GF32" s="39"/>
       <c r="GG32" s="39"/>
       <c r="GH32" s="40"/>
-      <c r="GI32" s="79" t="s">
+      <c r="GI32" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="GJ32" s="80"/>
+      <c r="GJ32" s="84"/>
       <c r="GK32" s="39"/>
       <c r="GL32" s="45"/>
       <c r="GM32" s="42"/>
@@ -22642,10 +22665,10 @@
       <c r="GQ32" s="43"/>
       <c r="GR32" s="39"/>
       <c r="GU32" s="40"/>
-      <c r="GV32" s="79" t="s">
+      <c r="GV32" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="GW32" s="80"/>
+      <c r="GW32" s="84"/>
       <c r="GY32" s="41"/>
       <c r="GZ32" s="44"/>
       <c r="HA32" s="44"/>
@@ -22655,10 +22678,10 @@
       <c r="HE32" s="39"/>
       <c r="HF32" s="39"/>
       <c r="HG32" s="40"/>
-      <c r="HH32" s="79" t="s">
+      <c r="HH32" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="HI32" s="80"/>
+      <c r="HI32" s="84"/>
       <c r="HJ32" s="39"/>
       <c r="HK32" s="45"/>
       <c r="HL32" s="42"/>
@@ -22668,10 +22691,10 @@
       <c r="HP32" s="43"/>
       <c r="HQ32" s="39"/>
       <c r="HT32" s="40"/>
-      <c r="HU32" s="79" t="s">
+      <c r="HU32" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="HV32" s="80"/>
+      <c r="HV32" s="84"/>
       <c r="HX32" s="41"/>
       <c r="HY32" s="44"/>
       <c r="HZ32" s="44"/>
@@ -22681,10 +22704,10 @@
       <c r="ID32" s="39"/>
       <c r="IE32" s="39"/>
       <c r="IF32" s="40"/>
-      <c r="IG32" s="79" t="s">
+      <c r="IG32" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="IH32" s="80"/>
+      <c r="IH32" s="84"/>
       <c r="II32" s="39"/>
       <c r="IJ32" s="45"/>
       <c r="IK32" s="42"/>
@@ -22694,10 +22717,10 @@
       <c r="IO32" s="43"/>
       <c r="IP32" s="39"/>
       <c r="IS32" s="40"/>
-      <c r="IT32" s="79" t="s">
+      <c r="IT32" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="IU32" s="80"/>
+      <c r="IU32" s="84"/>
       <c r="IW32" s="41"/>
       <c r="IX32" s="42"/>
       <c r="IY32" s="42"/>
@@ -22707,10 +22730,10 @@
       <c r="JC32" s="39"/>
       <c r="JD32" s="39"/>
       <c r="JE32" s="40"/>
-      <c r="JF32" s="79" t="s">
+      <c r="JF32" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="JG32" s="80"/>
+      <c r="JG32" s="84"/>
       <c r="JH32" s="39"/>
       <c r="JI32" s="41"/>
       <c r="JJ32" s="44"/>
@@ -22720,10 +22743,10 @@
       <c r="JN32" s="43"/>
       <c r="JO32" s="39"/>
       <c r="JR32" s="40"/>
-      <c r="JS32" s="79" t="s">
+      <c r="JS32" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="JT32" s="80"/>
+      <c r="JT32" s="84"/>
       <c r="JV32" s="41"/>
       <c r="JW32" s="42"/>
       <c r="JX32" s="42"/>
@@ -22733,10 +22756,10 @@
       <c r="KB32" s="39"/>
       <c r="KC32" s="39"/>
       <c r="KD32" s="40"/>
-      <c r="KE32" s="79" t="s">
+      <c r="KE32" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="KF32" s="80"/>
+      <c r="KF32" s="84"/>
       <c r="KG32" s="39"/>
       <c r="KH32" s="41"/>
       <c r="KI32" s="42"/>
@@ -22746,10 +22769,10 @@
       <c r="KM32" s="43"/>
       <c r="KN32" s="39"/>
       <c r="KQ32" s="40"/>
-      <c r="KR32" s="79" t="s">
+      <c r="KR32" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="KS32" s="80"/>
+      <c r="KS32" s="84"/>
       <c r="KU32" s="41"/>
       <c r="KV32" s="42"/>
       <c r="KW32" s="42"/>
@@ -22759,10 +22782,10 @@
       <c r="LA32" s="39"/>
       <c r="LB32" s="39"/>
       <c r="LC32" s="40"/>
-      <c r="LD32" s="79" t="s">
+      <c r="LD32" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="LE32" s="80"/>
+      <c r="LE32" s="84"/>
       <c r="LF32" s="39"/>
       <c r="LG32" s="41"/>
       <c r="LH32" s="42"/>
@@ -22772,10 +22795,10 @@
       <c r="LL32" s="43"/>
       <c r="LM32" s="39"/>
       <c r="LP32" s="40"/>
-      <c r="LQ32" s="79" t="s">
+      <c r="LQ32" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="LR32" s="80"/>
+      <c r="LR32" s="84"/>
       <c r="LS32" s="39"/>
       <c r="LT32" s="41"/>
       <c r="LU32" s="44"/>
@@ -22786,10 +22809,10 @@
       <c r="LZ32" s="39"/>
       <c r="MA32" s="39"/>
       <c r="MB32" s="40"/>
-      <c r="MC32" s="79" t="s">
+      <c r="MC32" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="MD32" s="80"/>
+      <c r="MD32" s="84"/>
       <c r="ME32" s="39"/>
       <c r="MF32" s="41"/>
       <c r="MG32" s="44"/>
@@ -22799,10 +22822,10 @@
       <c r="MK32" s="43"/>
       <c r="ML32" s="39"/>
       <c r="MO32" s="40"/>
-      <c r="MP32" s="79" t="s">
+      <c r="MP32" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="MQ32" s="80"/>
+      <c r="MQ32" s="84"/>
       <c r="MR32" s="39"/>
       <c r="MS32" s="41"/>
       <c r="MT32" s="42"/>
@@ -22813,10 +22836,10 @@
       <c r="MY32" s="39"/>
       <c r="MZ32" s="39"/>
       <c r="NA32" s="40"/>
-      <c r="NB32" s="79" t="s">
+      <c r="NB32" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="NC32" s="80"/>
+      <c r="NC32" s="84"/>
       <c r="ND32" s="39"/>
       <c r="NE32" s="41"/>
       <c r="NF32" s="44"/>
@@ -22825,10 +22848,10 @@
       <c r="NI32" s="42"/>
       <c r="NJ32" s="43"/>
       <c r="NN32" s="40"/>
-      <c r="NO32" s="79" t="s">
+      <c r="NO32" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="NP32" s="80"/>
+      <c r="NP32" s="84"/>
       <c r="NQ32" s="39"/>
       <c r="NR32" s="41"/>
       <c r="NS32" s="42"/>
@@ -22839,10 +22862,10 @@
       <c r="NX32" s="39"/>
       <c r="NY32" s="39"/>
       <c r="NZ32" s="40"/>
-      <c r="OA32" s="79" t="s">
+      <c r="OA32" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="OB32" s="80"/>
+      <c r="OB32" s="84"/>
       <c r="OC32" s="39"/>
       <c r="OD32" s="41"/>
       <c r="OE32" s="42"/>
@@ -22851,10 +22874,10 @@
       <c r="OH32" s="42"/>
       <c r="OI32" s="43"/>
       <c r="OM32" s="40"/>
-      <c r="ON32" s="79" t="s">
+      <c r="ON32" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="OO32" s="80"/>
+      <c r="OO32" s="84"/>
       <c r="OP32" s="39"/>
       <c r="OQ32" s="41"/>
       <c r="OR32" s="42"/>
@@ -22865,10 +22888,10 @@
       <c r="OW32" s="39"/>
       <c r="OX32" s="39"/>
       <c r="OY32" s="40"/>
-      <c r="OZ32" s="79" t="s">
+      <c r="OZ32" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="PA32" s="80"/>
+      <c r="PA32" s="84"/>
       <c r="PB32" s="39"/>
       <c r="PC32" s="41"/>
       <c r="PD32" s="42"/>
@@ -22877,10 +22900,10 @@
       <c r="PG32" s="42"/>
       <c r="PH32" s="43"/>
       <c r="PL32" s="40"/>
-      <c r="PM32" s="79" t="s">
+      <c r="PM32" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="PN32" s="80"/>
+      <c r="PN32" s="84"/>
       <c r="PO32" s="39"/>
       <c r="PP32" s="41"/>
       <c r="PQ32" s="42"/>
@@ -22891,10 +22914,10 @@
       <c r="PV32" s="39"/>
       <c r="PW32" s="39"/>
       <c r="PX32" s="40"/>
-      <c r="PY32" s="79" t="s">
+      <c r="PY32" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="PZ32" s="80"/>
+      <c r="PZ32" s="84"/>
       <c r="QA32" s="39"/>
       <c r="QB32" s="41"/>
       <c r="QC32" s="42"/>
@@ -22903,10 +22926,10 @@
       <c r="QF32" s="42"/>
       <c r="QG32" s="43"/>
       <c r="QK32" s="40"/>
-      <c r="QL32" s="79" t="s">
+      <c r="QL32" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="QM32" s="80"/>
+      <c r="QM32" s="84"/>
       <c r="QN32" s="39"/>
       <c r="QO32" s="41"/>
       <c r="QP32" s="42"/>
@@ -22917,10 +22940,10 @@
       <c r="QU32" s="39"/>
       <c r="QV32" s="39"/>
       <c r="QW32" s="40"/>
-      <c r="QX32" s="79" t="s">
+      <c r="QX32" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="QY32" s="80"/>
+      <c r="QY32" s="84"/>
       <c r="QZ32" s="39"/>
       <c r="RA32" s="41"/>
       <c r="RB32" s="42"/>
@@ -22929,10 +22952,10 @@
       <c r="RE32" s="42"/>
       <c r="RF32" s="43"/>
       <c r="RJ32" s="40"/>
-      <c r="RK32" s="79" t="s">
+      <c r="RK32" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="RL32" s="80"/>
+      <c r="RL32" s="84"/>
       <c r="RM32" s="39"/>
       <c r="RN32" s="41"/>
       <c r="RO32" s="42"/>
@@ -22943,10 +22966,10 @@
       <c r="RT32" s="39"/>
       <c r="RU32" s="39"/>
       <c r="RV32" s="40"/>
-      <c r="RW32" s="79" t="s">
+      <c r="RW32" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="RX32" s="80"/>
+      <c r="RX32" s="84"/>
       <c r="RY32" s="39"/>
       <c r="RZ32" s="41"/>
       <c r="SA32" s="42"/>
@@ -22955,10 +22978,10 @@
       <c r="SD32" s="42"/>
       <c r="SE32" s="43"/>
       <c r="SI32" s="40"/>
-      <c r="SJ32" s="79" t="s">
+      <c r="SJ32" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="SK32" s="80"/>
+      <c r="SK32" s="84"/>
       <c r="SL32" s="39"/>
       <c r="SM32" s="41"/>
       <c r="SN32" s="42"/>
@@ -22969,10 +22992,10 @@
       <c r="SS32" s="39"/>
       <c r="ST32" s="39"/>
       <c r="SU32" s="40"/>
-      <c r="SV32" s="79" t="s">
+      <c r="SV32" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="SW32" s="80"/>
+      <c r="SW32" s="84"/>
       <c r="SX32" s="39"/>
       <c r="SY32" s="41"/>
       <c r="SZ32" s="42"/>
@@ -22981,10 +23004,10 @@
       <c r="TC32" s="42"/>
       <c r="TD32" s="43"/>
       <c r="TH32" s="40"/>
-      <c r="TI32" s="79" t="s">
+      <c r="TI32" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="TJ32" s="80"/>
+      <c r="TJ32" s="84"/>
       <c r="TK32" s="39"/>
       <c r="TL32" s="41"/>
       <c r="TM32" s="42"/>
@@ -22995,10 +23018,10 @@
       <c r="TR32" s="39"/>
       <c r="TS32" s="39"/>
       <c r="TT32" s="40"/>
-      <c r="TU32" s="79" t="s">
+      <c r="TU32" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="TV32" s="80"/>
+      <c r="TV32" s="84"/>
       <c r="TW32" s="39"/>
       <c r="TX32" s="41"/>
       <c r="TY32" s="42"/>
@@ -23007,10 +23030,10 @@
       <c r="UB32" s="42"/>
       <c r="UC32" s="43"/>
       <c r="UG32" s="40"/>
-      <c r="UH32" s="79" t="s">
+      <c r="UH32" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="UI32" s="80"/>
+      <c r="UI32" s="84"/>
       <c r="UJ32" s="39"/>
       <c r="UK32" s="41"/>
       <c r="UL32" s="42"/>
@@ -23021,10 +23044,10 @@
       <c r="UQ32" s="39"/>
       <c r="UR32" s="39"/>
       <c r="US32" s="40"/>
-      <c r="UT32" s="79" t="s">
+      <c r="UT32" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="UU32" s="80"/>
+      <c r="UU32" s="84"/>
       <c r="UV32" s="39"/>
       <c r="UW32" s="41"/>
       <c r="UX32" s="42"/>
@@ -23033,10 +23056,10 @@
       <c r="VA32" s="42"/>
       <c r="VB32" s="43"/>
       <c r="VF32" s="40"/>
-      <c r="VG32" s="79" t="s">
+      <c r="VG32" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="VH32" s="80"/>
+      <c r="VH32" s="84"/>
       <c r="VI32" s="39"/>
       <c r="VJ32" s="41"/>
       <c r="VK32" s="42"/>
@@ -23047,10 +23070,10 @@
       <c r="VP32" s="39"/>
       <c r="VQ32" s="39"/>
       <c r="VR32" s="40"/>
-      <c r="VS32" s="79" t="s">
+      <c r="VS32" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="VT32" s="80"/>
+      <c r="VT32" s="84"/>
       <c r="VU32" s="39"/>
       <c r="VV32" s="41"/>
       <c r="VW32" s="42"/>
@@ -23059,10 +23082,10 @@
       <c r="VZ32" s="42"/>
       <c r="WA32" s="43"/>
       <c r="WE32" s="40"/>
-      <c r="WF32" s="79" t="s">
+      <c r="WF32" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="WG32" s="80"/>
+      <c r="WG32" s="84"/>
       <c r="WH32" s="39"/>
       <c r="WI32" s="41"/>
       <c r="WJ32" s="42"/>
@@ -23073,10 +23096,10 @@
       <c r="WO32" s="39"/>
       <c r="WP32" s="39"/>
       <c r="WQ32" s="40"/>
-      <c r="WR32" s="79" t="s">
+      <c r="WR32" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="WS32" s="80"/>
+      <c r="WS32" s="84"/>
       <c r="WT32" s="39"/>
       <c r="WU32" s="41"/>
       <c r="WV32" s="42"/>
@@ -23085,10 +23108,10 @@
       <c r="WY32" s="42"/>
       <c r="WZ32" s="43"/>
       <c r="XD32" s="40"/>
-      <c r="XE32" s="79" t="s">
+      <c r="XE32" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="XF32" s="80"/>
+      <c r="XF32" s="84"/>
       <c r="XG32" s="39"/>
       <c r="XH32" s="41"/>
       <c r="XI32" s="42"/>
@@ -23100,8 +23123,8 @@
       <c r="XO32" s="39"/>
     </row>
     <row r="33" spans="3:639" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
       <c r="G33" s="46"/>
       <c r="H33" s="49"/>
       <c r="I33" s="47"/>
@@ -23110,8 +23133,8 @@
       <c r="L33" s="48"/>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="82"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="39"/>
       <c r="S33" s="50"/>
       <c r="T33" s="49"/>
@@ -23120,8 +23143,8 @@
       <c r="W33" s="49"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="39"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="82"/>
+      <c r="AC33" s="85"/>
+      <c r="AD33" s="86"/>
       <c r="AF33" s="46"/>
       <c r="AG33" s="49"/>
       <c r="AH33" s="47"/>
@@ -23130,8 +23153,8 @@
       <c r="AK33" s="48"/>
       <c r="AL33" s="39"/>
       <c r="AM33" s="39"/>
-      <c r="AO33" s="81"/>
-      <c r="AP33" s="82"/>
+      <c r="AO33" s="85"/>
+      <c r="AP33" s="86"/>
       <c r="AQ33" s="39"/>
       <c r="AR33" s="46"/>
       <c r="AS33" s="49"/>
@@ -23140,8 +23163,8 @@
       <c r="AV33" s="47"/>
       <c r="AW33" s="48"/>
       <c r="AX33" s="39"/>
-      <c r="BB33" s="81"/>
-      <c r="BC33" s="82"/>
+      <c r="BB33" s="85"/>
+      <c r="BC33" s="86"/>
       <c r="BE33" s="46"/>
       <c r="BF33" s="49"/>
       <c r="BG33" s="49"/>
@@ -23150,8 +23173,8 @@
       <c r="BJ33" s="48"/>
       <c r="BK33" s="39"/>
       <c r="BL33" s="39"/>
-      <c r="BN33" s="81"/>
-      <c r="BO33" s="82"/>
+      <c r="BN33" s="85"/>
+      <c r="BO33" s="86"/>
       <c r="BP33" s="39"/>
       <c r="BQ33" s="50"/>
       <c r="BR33" s="47"/>
@@ -23160,8 +23183,8 @@
       <c r="BU33" s="47"/>
       <c r="BV33" s="48"/>
       <c r="BW33" s="39"/>
-      <c r="CA33" s="81"/>
-      <c r="CB33" s="82"/>
+      <c r="CA33" s="85"/>
+      <c r="CB33" s="86"/>
       <c r="CD33" s="46"/>
       <c r="CE33" s="47"/>
       <c r="CF33" s="49"/>
@@ -23170,8 +23193,8 @@
       <c r="CI33" s="48"/>
       <c r="CJ33" s="39"/>
       <c r="CK33" s="39"/>
-      <c r="CM33" s="81"/>
-      <c r="CN33" s="82"/>
+      <c r="CM33" s="85"/>
+      <c r="CN33" s="86"/>
       <c r="CO33" s="39"/>
       <c r="CP33" s="50"/>
       <c r="CQ33" s="47"/>
@@ -23180,8 +23203,8 @@
       <c r="CT33" s="47"/>
       <c r="CU33" s="48"/>
       <c r="CV33" s="39"/>
-      <c r="CZ33" s="81"/>
-      <c r="DA33" s="82"/>
+      <c r="CZ33" s="85"/>
+      <c r="DA33" s="86"/>
       <c r="DC33" s="46"/>
       <c r="DD33" s="47"/>
       <c r="DE33" s="49"/>
@@ -23190,8 +23213,8 @@
       <c r="DH33" s="48"/>
       <c r="DI33" s="39"/>
       <c r="DJ33" s="39"/>
-      <c r="DL33" s="81"/>
-      <c r="DM33" s="82"/>
+      <c r="DL33" s="85"/>
+      <c r="DM33" s="86"/>
       <c r="DN33" s="39"/>
       <c r="DO33" s="50"/>
       <c r="DP33" s="47"/>
@@ -23200,8 +23223,8 @@
       <c r="DS33" s="49"/>
       <c r="DT33" s="48"/>
       <c r="DU33" s="39"/>
-      <c r="DY33" s="81"/>
-      <c r="DZ33" s="82"/>
+      <c r="DY33" s="85"/>
+      <c r="DZ33" s="86"/>
       <c r="EB33" s="50"/>
       <c r="EC33" s="47"/>
       <c r="ED33" s="47"/>
@@ -23210,8 +23233,8 @@
       <c r="EG33" s="48"/>
       <c r="EH33" s="39"/>
       <c r="EI33" s="39"/>
-      <c r="EK33" s="81"/>
-      <c r="EL33" s="82"/>
+      <c r="EK33" s="85"/>
+      <c r="EL33" s="86"/>
       <c r="EM33" s="39"/>
       <c r="EN33" s="46"/>
       <c r="EO33" s="47"/>
@@ -23220,8 +23243,8 @@
       <c r="ER33" s="47"/>
       <c r="ES33" s="48"/>
       <c r="ET33" s="39"/>
-      <c r="EX33" s="81"/>
-      <c r="EY33" s="82"/>
+      <c r="EX33" s="85"/>
+      <c r="EY33" s="86"/>
       <c r="FA33" s="50"/>
       <c r="FB33" s="47"/>
       <c r="FC33" s="47"/>
@@ -23230,8 +23253,8 @@
       <c r="FF33" s="48"/>
       <c r="FG33" s="39"/>
       <c r="FH33" s="39"/>
-      <c r="FJ33" s="81"/>
-      <c r="FK33" s="82"/>
+      <c r="FJ33" s="85"/>
+      <c r="FK33" s="86"/>
       <c r="FL33" s="39"/>
       <c r="FM33" s="50"/>
       <c r="FN33" s="47"/>
@@ -23240,8 +23263,8 @@
       <c r="FQ33" s="47"/>
       <c r="FR33" s="48"/>
       <c r="FS33" s="39"/>
-      <c r="FW33" s="81"/>
-      <c r="FX33" s="82"/>
+      <c r="FW33" s="85"/>
+      <c r="FX33" s="86"/>
       <c r="FZ33" s="46"/>
       <c r="GA33" s="47"/>
       <c r="GB33" s="49"/>
@@ -23250,8 +23273,8 @@
       <c r="GE33" s="48"/>
       <c r="GF33" s="39"/>
       <c r="GG33" s="39"/>
-      <c r="GI33" s="81"/>
-      <c r="GJ33" s="82"/>
+      <c r="GI33" s="85"/>
+      <c r="GJ33" s="86"/>
       <c r="GK33" s="39"/>
       <c r="GL33" s="50"/>
       <c r="GM33" s="57"/>
@@ -23260,8 +23283,8 @@
       <c r="GP33" s="49"/>
       <c r="GQ33" s="48"/>
       <c r="GR33" s="39"/>
-      <c r="GV33" s="81"/>
-      <c r="GW33" s="82"/>
+      <c r="GV33" s="85"/>
+      <c r="GW33" s="86"/>
       <c r="GY33" s="50"/>
       <c r="GZ33" s="47"/>
       <c r="HA33" s="47"/>
@@ -23270,8 +23293,8 @@
       <c r="HD33" s="48"/>
       <c r="HE33" s="39"/>
       <c r="HF33" s="39"/>
-      <c r="HH33" s="81"/>
-      <c r="HI33" s="82"/>
+      <c r="HH33" s="85"/>
+      <c r="HI33" s="86"/>
       <c r="HJ33" s="39"/>
       <c r="HK33" s="50"/>
       <c r="HL33" s="47"/>
@@ -23280,8 +23303,8 @@
       <c r="HO33" s="49"/>
       <c r="HP33" s="48"/>
       <c r="HQ33" s="39"/>
-      <c r="HU33" s="81"/>
-      <c r="HV33" s="82"/>
+      <c r="HU33" s="85"/>
+      <c r="HV33" s="86"/>
       <c r="HX33" s="46"/>
       <c r="HY33" s="47"/>
       <c r="HZ33" s="47"/>
@@ -23290,8 +23313,8 @@
       <c r="IC33" s="48"/>
       <c r="ID33" s="39"/>
       <c r="IE33" s="39"/>
-      <c r="IG33" s="81"/>
-      <c r="IH33" s="82"/>
+      <c r="IG33" s="85"/>
+      <c r="IH33" s="86"/>
       <c r="II33" s="39"/>
       <c r="IJ33" s="50"/>
       <c r="IK33" s="47"/>
@@ -23300,8 +23323,8 @@
       <c r="IN33" s="47"/>
       <c r="IO33" s="48"/>
       <c r="IP33" s="39"/>
-      <c r="IT33" s="81"/>
-      <c r="IU33" s="82"/>
+      <c r="IT33" s="85"/>
+      <c r="IU33" s="86"/>
       <c r="IW33" s="46"/>
       <c r="IX33" s="49"/>
       <c r="IY33" s="49"/>
@@ -23310,8 +23333,8 @@
       <c r="JB33" s="48"/>
       <c r="JC33" s="39"/>
       <c r="JD33" s="39"/>
-      <c r="JF33" s="81"/>
-      <c r="JG33" s="82"/>
+      <c r="JF33" s="85"/>
+      <c r="JG33" s="86"/>
       <c r="JH33" s="39"/>
       <c r="JI33" s="46"/>
       <c r="JJ33" s="47"/>
@@ -23320,8 +23343,8 @@
       <c r="JM33" s="47"/>
       <c r="JN33" s="48"/>
       <c r="JO33" s="39"/>
-      <c r="JS33" s="81"/>
-      <c r="JT33" s="82"/>
+      <c r="JS33" s="85"/>
+      <c r="JT33" s="86"/>
       <c r="JV33" s="46"/>
       <c r="JW33" s="47"/>
       <c r="JX33" s="47"/>
@@ -23330,8 +23353,8 @@
       <c r="KA33" s="48"/>
       <c r="KB33" s="39"/>
       <c r="KC33" s="39"/>
-      <c r="KE33" s="81"/>
-      <c r="KF33" s="82"/>
+      <c r="KE33" s="85"/>
+      <c r="KF33" s="86"/>
       <c r="KG33" s="39"/>
       <c r="KH33" s="46"/>
       <c r="KI33" s="47"/>
@@ -23340,8 +23363,8 @@
       <c r="KL33" s="47"/>
       <c r="KM33" s="48"/>
       <c r="KN33" s="39"/>
-      <c r="KR33" s="81"/>
-      <c r="KS33" s="82"/>
+      <c r="KR33" s="85"/>
+      <c r="KS33" s="86"/>
       <c r="KU33" s="46"/>
       <c r="KV33" s="47"/>
       <c r="KW33" s="49"/>
@@ -23350,8 +23373,8 @@
       <c r="KZ33" s="48"/>
       <c r="LA33" s="39"/>
       <c r="LB33" s="39"/>
-      <c r="LD33" s="81"/>
-      <c r="LE33" s="82"/>
+      <c r="LD33" s="85"/>
+      <c r="LE33" s="86"/>
       <c r="LF33" s="39"/>
       <c r="LG33" s="46"/>
       <c r="LH33" s="47"/>
@@ -23360,8 +23383,8 @@
       <c r="LK33" s="47"/>
       <c r="LL33" s="48"/>
       <c r="LM33" s="39"/>
-      <c r="LQ33" s="81"/>
-      <c r="LR33" s="82"/>
+      <c r="LQ33" s="85"/>
+      <c r="LR33" s="86"/>
       <c r="LS33" s="39"/>
       <c r="LT33" s="46"/>
       <c r="LU33" s="47"/>
@@ -23371,8 +23394,8 @@
       <c r="LY33" s="48"/>
       <c r="LZ33" s="39"/>
       <c r="MA33" s="39"/>
-      <c r="MC33" s="81"/>
-      <c r="MD33" s="82"/>
+      <c r="MC33" s="85"/>
+      <c r="MD33" s="86"/>
       <c r="ME33" s="39"/>
       <c r="MF33" s="46"/>
       <c r="MG33" s="47"/>
@@ -23381,8 +23404,8 @@
       <c r="MJ33" s="47"/>
       <c r="MK33" s="48"/>
       <c r="ML33" s="39"/>
-      <c r="MP33" s="81"/>
-      <c r="MQ33" s="82"/>
+      <c r="MP33" s="85"/>
+      <c r="MQ33" s="86"/>
       <c r="MR33" s="39"/>
       <c r="MS33" s="46"/>
       <c r="MT33" s="47"/>
@@ -23392,8 +23415,8 @@
       <c r="MX33" s="48"/>
       <c r="MY33" s="39"/>
       <c r="MZ33" s="39"/>
-      <c r="NB33" s="81"/>
-      <c r="NC33" s="82"/>
+      <c r="NB33" s="85"/>
+      <c r="NC33" s="86"/>
       <c r="ND33" s="39"/>
       <c r="NE33" s="46"/>
       <c r="NF33" s="47"/>
@@ -23401,8 +23424,8 @@
       <c r="NH33" s="47"/>
       <c r="NI33" s="47"/>
       <c r="NJ33" s="48"/>
-      <c r="NO33" s="81"/>
-      <c r="NP33" s="82"/>
+      <c r="NO33" s="85"/>
+      <c r="NP33" s="86"/>
       <c r="NQ33" s="39"/>
       <c r="NR33" s="46"/>
       <c r="NS33" s="47"/>
@@ -23412,8 +23435,8 @@
       <c r="NW33" s="48"/>
       <c r="NX33" s="39"/>
       <c r="NY33" s="39"/>
-      <c r="OA33" s="81"/>
-      <c r="OB33" s="82"/>
+      <c r="OA33" s="85"/>
+      <c r="OB33" s="86"/>
       <c r="OC33" s="39"/>
       <c r="OD33" s="46"/>
       <c r="OE33" s="47"/>
@@ -23421,8 +23444,8 @@
       <c r="OG33" s="47"/>
       <c r="OH33" s="47"/>
       <c r="OI33" s="48"/>
-      <c r="ON33" s="81"/>
-      <c r="OO33" s="82"/>
+      <c r="ON33" s="85"/>
+      <c r="OO33" s="86"/>
       <c r="OP33" s="39"/>
       <c r="OQ33" s="46"/>
       <c r="OR33" s="47"/>
@@ -23432,8 +23455,8 @@
       <c r="OV33" s="48"/>
       <c r="OW33" s="39"/>
       <c r="OX33" s="39"/>
-      <c r="OZ33" s="81"/>
-      <c r="PA33" s="82"/>
+      <c r="OZ33" s="85"/>
+      <c r="PA33" s="86"/>
       <c r="PB33" s="39"/>
       <c r="PC33" s="46"/>
       <c r="PD33" s="47"/>
@@ -23441,8 +23464,8 @@
       <c r="PF33" s="47"/>
       <c r="PG33" s="47"/>
       <c r="PH33" s="48"/>
-      <c r="PM33" s="81"/>
-      <c r="PN33" s="82"/>
+      <c r="PM33" s="85"/>
+      <c r="PN33" s="86"/>
       <c r="PO33" s="39"/>
       <c r="PP33" s="46"/>
       <c r="PQ33" s="47"/>
@@ -23452,8 +23475,8 @@
       <c r="PU33" s="48"/>
       <c r="PV33" s="39"/>
       <c r="PW33" s="39"/>
-      <c r="PY33" s="81"/>
-      <c r="PZ33" s="82"/>
+      <c r="PY33" s="85"/>
+      <c r="PZ33" s="86"/>
       <c r="QA33" s="39"/>
       <c r="QB33" s="46"/>
       <c r="QC33" s="47"/>
@@ -23461,8 +23484,8 @@
       <c r="QE33" s="47"/>
       <c r="QF33" s="47"/>
       <c r="QG33" s="48"/>
-      <c r="QL33" s="81"/>
-      <c r="QM33" s="82"/>
+      <c r="QL33" s="85"/>
+      <c r="QM33" s="86"/>
       <c r="QN33" s="39"/>
       <c r="QO33" s="46"/>
       <c r="QP33" s="47"/>
@@ -23472,8 +23495,8 @@
       <c r="QT33" s="48"/>
       <c r="QU33" s="39"/>
       <c r="QV33" s="39"/>
-      <c r="QX33" s="81"/>
-      <c r="QY33" s="82"/>
+      <c r="QX33" s="85"/>
+      <c r="QY33" s="86"/>
       <c r="QZ33" s="39"/>
       <c r="RA33" s="46"/>
       <c r="RB33" s="47"/>
@@ -23481,8 +23504,8 @@
       <c r="RD33" s="47"/>
       <c r="RE33" s="47"/>
       <c r="RF33" s="48"/>
-      <c r="RK33" s="81"/>
-      <c r="RL33" s="82"/>
+      <c r="RK33" s="85"/>
+      <c r="RL33" s="86"/>
       <c r="RM33" s="39"/>
       <c r="RN33" s="46"/>
       <c r="RO33" s="47"/>
@@ -23492,8 +23515,8 @@
       <c r="RS33" s="48"/>
       <c r="RT33" s="39"/>
       <c r="RU33" s="39"/>
-      <c r="RW33" s="81"/>
-      <c r="RX33" s="82"/>
+      <c r="RW33" s="85"/>
+      <c r="RX33" s="86"/>
       <c r="RY33" s="39"/>
       <c r="RZ33" s="46"/>
       <c r="SA33" s="47"/>
@@ -23501,8 +23524,8 @@
       <c r="SC33" s="47"/>
       <c r="SD33" s="47"/>
       <c r="SE33" s="48"/>
-      <c r="SJ33" s="81"/>
-      <c r="SK33" s="82"/>
+      <c r="SJ33" s="85"/>
+      <c r="SK33" s="86"/>
       <c r="SL33" s="39"/>
       <c r="SM33" s="46"/>
       <c r="SN33" s="47"/>
@@ -23512,8 +23535,8 @@
       <c r="SR33" s="48"/>
       <c r="SS33" s="39"/>
       <c r="ST33" s="39"/>
-      <c r="SV33" s="81"/>
-      <c r="SW33" s="82"/>
+      <c r="SV33" s="85"/>
+      <c r="SW33" s="86"/>
       <c r="SX33" s="39"/>
       <c r="SY33" s="46"/>
       <c r="SZ33" s="47"/>
@@ -23521,8 +23544,8 @@
       <c r="TB33" s="47"/>
       <c r="TC33" s="47"/>
       <c r="TD33" s="48"/>
-      <c r="TI33" s="81"/>
-      <c r="TJ33" s="82"/>
+      <c r="TI33" s="85"/>
+      <c r="TJ33" s="86"/>
       <c r="TK33" s="39"/>
       <c r="TL33" s="46"/>
       <c r="TM33" s="47"/>
@@ -23532,8 +23555,8 @@
       <c r="TQ33" s="48"/>
       <c r="TR33" s="39"/>
       <c r="TS33" s="39"/>
-      <c r="TU33" s="81"/>
-      <c r="TV33" s="82"/>
+      <c r="TU33" s="85"/>
+      <c r="TV33" s="86"/>
       <c r="TW33" s="39"/>
       <c r="TX33" s="46"/>
       <c r="TY33" s="47"/>
@@ -23541,8 +23564,8 @@
       <c r="UA33" s="47"/>
       <c r="UB33" s="47"/>
       <c r="UC33" s="48"/>
-      <c r="UH33" s="81"/>
-      <c r="UI33" s="82"/>
+      <c r="UH33" s="85"/>
+      <c r="UI33" s="86"/>
       <c r="UJ33" s="39"/>
       <c r="UK33" s="46"/>
       <c r="UL33" s="47"/>
@@ -23552,8 +23575,8 @@
       <c r="UP33" s="48"/>
       <c r="UQ33" s="39"/>
       <c r="UR33" s="39"/>
-      <c r="UT33" s="81"/>
-      <c r="UU33" s="82"/>
+      <c r="UT33" s="85"/>
+      <c r="UU33" s="86"/>
       <c r="UV33" s="39"/>
       <c r="UW33" s="46"/>
       <c r="UX33" s="47"/>
@@ -23561,8 +23584,8 @@
       <c r="UZ33" s="47"/>
       <c r="VA33" s="47"/>
       <c r="VB33" s="48"/>
-      <c r="VG33" s="81"/>
-      <c r="VH33" s="82"/>
+      <c r="VG33" s="85"/>
+      <c r="VH33" s="86"/>
       <c r="VI33" s="39"/>
       <c r="VJ33" s="46"/>
       <c r="VK33" s="47"/>
@@ -23572,8 +23595,8 @@
       <c r="VO33" s="48"/>
       <c r="VP33" s="39"/>
       <c r="VQ33" s="39"/>
-      <c r="VS33" s="81"/>
-      <c r="VT33" s="82"/>
+      <c r="VS33" s="85"/>
+      <c r="VT33" s="86"/>
       <c r="VU33" s="39"/>
       <c r="VV33" s="46"/>
       <c r="VW33" s="47"/>
@@ -23581,8 +23604,8 @@
       <c r="VY33" s="47"/>
       <c r="VZ33" s="47"/>
       <c r="WA33" s="48"/>
-      <c r="WF33" s="81"/>
-      <c r="WG33" s="82"/>
+      <c r="WF33" s="85"/>
+      <c r="WG33" s="86"/>
       <c r="WH33" s="39"/>
       <c r="WI33" s="46"/>
       <c r="WJ33" s="47"/>
@@ -23592,8 +23615,8 @@
       <c r="WN33" s="48"/>
       <c r="WO33" s="39"/>
       <c r="WP33" s="39"/>
-      <c r="WR33" s="81"/>
-      <c r="WS33" s="82"/>
+      <c r="WR33" s="85"/>
+      <c r="WS33" s="86"/>
       <c r="WT33" s="39"/>
       <c r="WU33" s="46"/>
       <c r="WV33" s="47"/>
@@ -23601,8 +23624,8 @@
       <c r="WX33" s="47"/>
       <c r="WY33" s="47"/>
       <c r="WZ33" s="48"/>
-      <c r="XE33" s="81"/>
-      <c r="XF33" s="82"/>
+      <c r="XE33" s="85"/>
+      <c r="XF33" s="86"/>
       <c r="XG33" s="39"/>
       <c r="XH33" s="46"/>
       <c r="XI33" s="47"/>
@@ -29048,10 +29071,10 @@
     </row>
     <row r="42" spans="3:639" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="40"/>
-      <c r="D42" s="79" t="s">
+      <c r="D42" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="80"/>
+      <c r="E42" s="84"/>
       <c r="G42" s="41"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
@@ -29061,10 +29084,10 @@
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
       <c r="O42" s="40"/>
-      <c r="P42" s="79" t="s">
+      <c r="P42" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Q42" s="80"/>
+      <c r="Q42" s="84"/>
       <c r="R42" s="39"/>
       <c r="S42" s="41"/>
       <c r="T42" s="42"/>
@@ -29074,10 +29097,10 @@
       <c r="X42" s="43"/>
       <c r="Y42" s="39"/>
       <c r="AB42" s="40"/>
-      <c r="AC42" s="79" t="s">
+      <c r="AC42" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="AD42" s="80"/>
+      <c r="AD42" s="84"/>
       <c r="AF42" s="41"/>
       <c r="AG42" s="44"/>
       <c r="AH42" s="44"/>
@@ -29087,10 +29110,10 @@
       <c r="AL42" s="39"/>
       <c r="AM42" s="39"/>
       <c r="AN42" s="40"/>
-      <c r="AO42" s="79" t="s">
+      <c r="AO42" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AP42" s="80"/>
+      <c r="AP42" s="84"/>
       <c r="AQ42" s="39"/>
       <c r="AR42" s="41"/>
       <c r="AS42" s="44"/>
@@ -29100,10 +29123,10 @@
       <c r="AW42" s="43"/>
       <c r="AX42" s="39"/>
       <c r="BA42" s="40"/>
-      <c r="BB42" s="79" t="s">
+      <c r="BB42" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="BC42" s="80"/>
+      <c r="BC42" s="84"/>
       <c r="BE42" s="41"/>
       <c r="BF42" s="42"/>
       <c r="BG42" s="42"/>
@@ -29113,10 +29136,10 @@
       <c r="BK42" s="39"/>
       <c r="BL42" s="39"/>
       <c r="BM42" s="40"/>
-      <c r="BN42" s="79" t="s">
+      <c r="BN42" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="BO42" s="80"/>
+      <c r="BO42" s="84"/>
       <c r="BP42" s="39"/>
       <c r="BQ42" s="41"/>
       <c r="BR42" s="42"/>
@@ -29126,10 +29149,10 @@
       <c r="BV42" s="43"/>
       <c r="BW42" s="39"/>
       <c r="BZ42" s="40"/>
-      <c r="CA42" s="79" t="s">
+      <c r="CA42" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="CB42" s="80"/>
+      <c r="CB42" s="84"/>
       <c r="CD42" s="41"/>
       <c r="CE42" s="44"/>
       <c r="CF42" s="42"/>
@@ -29139,8 +29162,8 @@
       <c r="CJ42" s="39"/>
       <c r="CK42" s="39"/>
       <c r="CL42" s="40"/>
-      <c r="CM42" s="83"/>
-      <c r="CN42" s="80"/>
+      <c r="CM42" s="87"/>
+      <c r="CN42" s="84"/>
       <c r="CO42" s="39"/>
       <c r="CP42" s="41"/>
       <c r="CQ42" s="42"/>
@@ -29150,10 +29173,10 @@
       <c r="CU42" s="43"/>
       <c r="CV42" s="39"/>
       <c r="CY42" s="40"/>
-      <c r="CZ42" s="79" t="s">
+      <c r="CZ42" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="DA42" s="80"/>
+      <c r="DA42" s="84"/>
       <c r="DC42" s="41"/>
       <c r="DD42" s="42"/>
       <c r="DE42" s="42"/>
@@ -29163,10 +29186,10 @@
       <c r="DI42" s="39"/>
       <c r="DJ42" s="39"/>
       <c r="DK42" s="40"/>
-      <c r="DL42" s="79" t="s">
+      <c r="DL42" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="DM42" s="80"/>
+      <c r="DM42" s="84"/>
       <c r="DN42" s="39"/>
       <c r="DO42" s="41"/>
       <c r="DP42" s="42"/>
@@ -29176,10 +29199,10 @@
       <c r="DT42" s="43"/>
       <c r="DU42" s="39"/>
       <c r="DX42" s="40"/>
-      <c r="DY42" s="79" t="s">
+      <c r="DY42" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="DZ42" s="80"/>
+      <c r="DZ42" s="84"/>
       <c r="EB42" s="41"/>
       <c r="EC42" s="42"/>
       <c r="ED42" s="44"/>
@@ -29189,10 +29212,10 @@
       <c r="EH42" s="39"/>
       <c r="EI42" s="39"/>
       <c r="EJ42" s="40"/>
-      <c r="EK42" s="79" t="s">
+      <c r="EK42" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="EL42" s="80"/>
+      <c r="EL42" s="84"/>
       <c r="EM42" s="39"/>
       <c r="EN42" s="41"/>
       <c r="EO42" s="42"/>
@@ -29202,10 +29225,10 @@
       <c r="ES42" s="43"/>
       <c r="ET42" s="39"/>
       <c r="EW42" s="40"/>
-      <c r="EX42" s="79" t="s">
+      <c r="EX42" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="EY42" s="80"/>
+      <c r="EY42" s="84"/>
       <c r="FA42" s="41"/>
       <c r="FB42" s="44"/>
       <c r="FC42" s="44"/>
@@ -29215,10 +29238,10 @@
       <c r="FG42" s="39"/>
       <c r="FH42" s="39"/>
       <c r="FI42" s="40"/>
-      <c r="FJ42" s="79" t="s">
+      <c r="FJ42" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="FK42" s="80"/>
+      <c r="FK42" s="84"/>
       <c r="FL42" s="39"/>
       <c r="FM42" s="45"/>
       <c r="FN42" s="44"/>
@@ -29228,10 +29251,10 @@
       <c r="FR42" s="43"/>
       <c r="FS42" s="39"/>
       <c r="FV42" s="40"/>
-      <c r="FW42" s="79" t="s">
+      <c r="FW42" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="FX42" s="80"/>
+      <c r="FX42" s="84"/>
       <c r="FZ42" s="41"/>
       <c r="GA42" s="42"/>
       <c r="GB42" s="44"/>
@@ -29241,10 +29264,10 @@
       <c r="GF42" s="39"/>
       <c r="GG42" s="39"/>
       <c r="GH42" s="40"/>
-      <c r="GI42" s="79" t="s">
+      <c r="GI42" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="GJ42" s="80"/>
+      <c r="GJ42" s="84"/>
       <c r="GK42" s="39"/>
       <c r="GL42" s="41"/>
       <c r="GM42" s="44"/>
@@ -29254,10 +29277,10 @@
       <c r="GQ42" s="43"/>
       <c r="GR42" s="39"/>
       <c r="GU42" s="40"/>
-      <c r="GV42" s="79" t="s">
+      <c r="GV42" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="GW42" s="80"/>
+      <c r="GW42" s="84"/>
       <c r="GY42" s="45"/>
       <c r="GZ42" s="44"/>
       <c r="HA42" s="44"/>
@@ -29267,10 +29290,10 @@
       <c r="HE42" s="39"/>
       <c r="HF42" s="39"/>
       <c r="HG42" s="40"/>
-      <c r="HH42" s="79" t="s">
+      <c r="HH42" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="HI42" s="80"/>
+      <c r="HI42" s="84"/>
       <c r="HJ42" s="39"/>
       <c r="HK42" s="45"/>
       <c r="HL42" s="42"/>
@@ -29280,10 +29303,10 @@
       <c r="HP42" s="43"/>
       <c r="HQ42" s="39"/>
       <c r="HT42" s="40"/>
-      <c r="HU42" s="79" t="s">
+      <c r="HU42" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="HV42" s="80"/>
+      <c r="HV42" s="84"/>
       <c r="HX42" s="41"/>
       <c r="HY42" s="42"/>
       <c r="HZ42" s="44"/>
@@ -29293,10 +29316,10 @@
       <c r="ID42" s="39"/>
       <c r="IE42" s="39"/>
       <c r="IF42" s="40"/>
-      <c r="IG42" s="79" t="s">
+      <c r="IG42" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="IH42" s="80"/>
+      <c r="IH42" s="84"/>
       <c r="II42" s="39"/>
       <c r="IJ42" s="41"/>
       <c r="IK42" s="42"/>
@@ -29306,10 +29329,10 @@
       <c r="IO42" s="43"/>
       <c r="IP42" s="39"/>
       <c r="IS42" s="40"/>
-      <c r="IT42" s="79" t="s">
+      <c r="IT42" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="IU42" s="80"/>
+      <c r="IU42" s="84"/>
       <c r="IW42" s="45"/>
       <c r="IX42" s="42"/>
       <c r="IY42" s="42"/>
@@ -29319,10 +29342,10 @@
       <c r="JC42" s="39"/>
       <c r="JD42" s="39"/>
       <c r="JE42" s="40"/>
-      <c r="JF42" s="79" t="s">
+      <c r="JF42" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="JG42" s="80"/>
+      <c r="JG42" s="84"/>
       <c r="JH42" s="39"/>
       <c r="JI42" s="41"/>
       <c r="JJ42" s="42"/>
@@ -29332,10 +29355,10 @@
       <c r="JN42" s="43"/>
       <c r="JO42" s="39"/>
       <c r="JR42" s="40"/>
-      <c r="JS42" s="79" t="s">
+      <c r="JS42" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="JT42" s="80"/>
+      <c r="JT42" s="84"/>
       <c r="JV42" s="41"/>
       <c r="JW42" s="42"/>
       <c r="JX42" s="42"/>
@@ -29345,10 +29368,10 @@
       <c r="KB42" s="39"/>
       <c r="KC42" s="39"/>
       <c r="KD42" s="40"/>
-      <c r="KE42" s="79" t="s">
+      <c r="KE42" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="KF42" s="80"/>
+      <c r="KF42" s="84"/>
       <c r="KG42" s="39"/>
       <c r="KH42" s="41"/>
       <c r="KI42" s="42"/>
@@ -29358,10 +29381,10 @@
       <c r="KM42" s="43"/>
       <c r="KN42" s="39"/>
       <c r="KQ42" s="40"/>
-      <c r="KR42" s="79" t="s">
+      <c r="KR42" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="KS42" s="80"/>
+      <c r="KS42" s="84"/>
       <c r="KU42" s="41"/>
       <c r="KV42" s="42"/>
       <c r="KW42" s="44"/>
@@ -29371,10 +29394,10 @@
       <c r="LA42" s="39"/>
       <c r="LB42" s="39"/>
       <c r="LC42" s="40"/>
-      <c r="LD42" s="79" t="s">
+      <c r="LD42" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="LE42" s="80"/>
+      <c r="LE42" s="84"/>
       <c r="LF42" s="39"/>
       <c r="LG42" s="41"/>
       <c r="LH42" s="44"/>
@@ -29384,10 +29407,10 @@
       <c r="LL42" s="43"/>
       <c r="LM42" s="39"/>
       <c r="LP42" s="40"/>
-      <c r="LQ42" s="79" t="s">
+      <c r="LQ42" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="LR42" s="80"/>
+      <c r="LR42" s="84"/>
       <c r="LS42" s="39"/>
       <c r="LT42" s="41"/>
       <c r="LU42" s="42"/>
@@ -29398,10 +29421,10 @@
       <c r="LZ42" s="39"/>
       <c r="MA42" s="39"/>
       <c r="MB42" s="40"/>
-      <c r="MC42" s="79" t="s">
+      <c r="MC42" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="MD42" s="80"/>
+      <c r="MD42" s="84"/>
       <c r="ME42" s="39"/>
       <c r="MF42" s="41"/>
       <c r="MG42" s="44"/>
@@ -29411,10 +29434,10 @@
       <c r="MK42" s="43"/>
       <c r="ML42" s="39"/>
       <c r="MO42" s="40"/>
-      <c r="MP42" s="79" t="s">
+      <c r="MP42" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="MQ42" s="80"/>
+      <c r="MQ42" s="84"/>
       <c r="MR42" s="39"/>
       <c r="MS42" s="41"/>
       <c r="MT42" s="42"/>
@@ -29425,10 +29448,10 @@
       <c r="MY42" s="39"/>
       <c r="MZ42" s="39"/>
       <c r="NA42" s="40"/>
-      <c r="NB42" s="79" t="s">
+      <c r="NB42" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="NC42" s="80"/>
+      <c r="NC42" s="84"/>
       <c r="ND42" s="39"/>
       <c r="NE42" s="41"/>
       <c r="NF42" s="44"/>
@@ -29437,10 +29460,10 @@
       <c r="NI42" s="42"/>
       <c r="NJ42" s="43"/>
       <c r="NN42" s="40"/>
-      <c r="NO42" s="79" t="s">
+      <c r="NO42" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="NP42" s="80"/>
+      <c r="NP42" s="84"/>
       <c r="NQ42" s="39"/>
       <c r="NR42" s="41"/>
       <c r="NS42" s="42"/>
@@ -29451,10 +29474,10 @@
       <c r="NX42" s="39"/>
       <c r="NY42" s="39"/>
       <c r="NZ42" s="40"/>
-      <c r="OA42" s="79" t="s">
+      <c r="OA42" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="OB42" s="80"/>
+      <c r="OB42" s="84"/>
       <c r="OC42" s="39"/>
       <c r="OD42" s="41"/>
       <c r="OE42" s="42"/>
@@ -29463,10 +29486,10 @@
       <c r="OH42" s="42"/>
       <c r="OI42" s="43"/>
       <c r="OM42" s="40"/>
-      <c r="ON42" s="79" t="s">
+      <c r="ON42" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="OO42" s="80"/>
+      <c r="OO42" s="84"/>
       <c r="OP42" s="39"/>
       <c r="OQ42" s="41"/>
       <c r="OR42" s="44"/>
@@ -29477,10 +29500,10 @@
       <c r="OW42" s="39"/>
       <c r="OX42" s="39"/>
       <c r="OY42" s="40"/>
-      <c r="OZ42" s="79" t="s">
+      <c r="OZ42" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="PA42" s="80"/>
+      <c r="PA42" s="84"/>
       <c r="PB42" s="39"/>
       <c r="PC42" s="41"/>
       <c r="PD42" s="42"/>
@@ -29489,10 +29512,10 @@
       <c r="PG42" s="42"/>
       <c r="PH42" s="43"/>
       <c r="PL42" s="40"/>
-      <c r="PM42" s="79" t="s">
+      <c r="PM42" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="PN42" s="80"/>
+      <c r="PN42" s="84"/>
       <c r="PO42" s="39"/>
       <c r="PP42" s="41"/>
       <c r="PQ42" s="42"/>
@@ -29503,10 +29526,10 @@
       <c r="PV42" s="39"/>
       <c r="PW42" s="39"/>
       <c r="PX42" s="40"/>
-      <c r="PY42" s="79" t="s">
+      <c r="PY42" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="PZ42" s="80"/>
+      <c r="PZ42" s="84"/>
       <c r="QA42" s="39"/>
       <c r="QB42" s="41"/>
       <c r="QC42" s="42"/>
@@ -29515,10 +29538,10 @@
       <c r="QF42" s="42"/>
       <c r="QG42" s="43"/>
       <c r="QK42" s="40"/>
-      <c r="QL42" s="79" t="s">
+      <c r="QL42" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="QM42" s="80"/>
+      <c r="QM42" s="84"/>
       <c r="QN42" s="39"/>
       <c r="QO42" s="41"/>
       <c r="QP42" s="42"/>
@@ -29529,10 +29552,10 @@
       <c r="QU42" s="39"/>
       <c r="QV42" s="39"/>
       <c r="QW42" s="40"/>
-      <c r="QX42" s="79" t="s">
+      <c r="QX42" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="QY42" s="80"/>
+      <c r="QY42" s="84"/>
       <c r="QZ42" s="39"/>
       <c r="RA42" s="41"/>
       <c r="RB42" s="42"/>
@@ -29541,10 +29564,10 @@
       <c r="RE42" s="42"/>
       <c r="RF42" s="43"/>
       <c r="RJ42" s="40"/>
-      <c r="RK42" s="79" t="s">
+      <c r="RK42" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="RL42" s="80"/>
+      <c r="RL42" s="84"/>
       <c r="RM42" s="39"/>
       <c r="RN42" s="41"/>
       <c r="RO42" s="42"/>
@@ -29555,10 +29578,10 @@
       <c r="RT42" s="39"/>
       <c r="RU42" s="39"/>
       <c r="RV42" s="40"/>
-      <c r="RW42" s="79" t="s">
+      <c r="RW42" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="RX42" s="80"/>
+      <c r="RX42" s="84"/>
       <c r="RY42" s="39"/>
       <c r="RZ42" s="41"/>
       <c r="SA42" s="42"/>
@@ -29567,10 +29590,10 @@
       <c r="SD42" s="42"/>
       <c r="SE42" s="43"/>
       <c r="SI42" s="40"/>
-      <c r="SJ42" s="79" t="s">
+      <c r="SJ42" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="SK42" s="80"/>
+      <c r="SK42" s="84"/>
       <c r="SL42" s="39"/>
       <c r="SM42" s="41"/>
       <c r="SN42" s="42"/>
@@ -29581,10 +29604,10 @@
       <c r="SS42" s="39"/>
       <c r="ST42" s="39"/>
       <c r="SU42" s="40"/>
-      <c r="SV42" s="79" t="s">
+      <c r="SV42" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="SW42" s="80"/>
+      <c r="SW42" s="84"/>
       <c r="SX42" s="39"/>
       <c r="SY42" s="41"/>
       <c r="SZ42" s="42"/>
@@ -29593,10 +29616,10 @@
       <c r="TC42" s="42"/>
       <c r="TD42" s="43"/>
       <c r="TH42" s="40"/>
-      <c r="TI42" s="79" t="s">
+      <c r="TI42" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="TJ42" s="80"/>
+      <c r="TJ42" s="84"/>
       <c r="TK42" s="39"/>
       <c r="TL42" s="41"/>
       <c r="TM42" s="42"/>
@@ -29607,10 +29630,10 @@
       <c r="TR42" s="39"/>
       <c r="TS42" s="39"/>
       <c r="TT42" s="40"/>
-      <c r="TU42" s="79" t="s">
+      <c r="TU42" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="TV42" s="80"/>
+      <c r="TV42" s="84"/>
       <c r="TW42" s="39"/>
       <c r="TX42" s="41"/>
       <c r="TY42" s="42"/>
@@ -29619,10 +29642,10 @@
       <c r="UB42" s="42"/>
       <c r="UC42" s="43"/>
       <c r="UG42" s="40"/>
-      <c r="UH42" s="79" t="s">
+      <c r="UH42" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="UI42" s="80"/>
+      <c r="UI42" s="84"/>
       <c r="UJ42" s="39"/>
       <c r="UK42" s="41"/>
       <c r="UL42" s="42"/>
@@ -29633,10 +29656,10 @@
       <c r="UQ42" s="39"/>
       <c r="UR42" s="39"/>
       <c r="US42" s="40"/>
-      <c r="UT42" s="79" t="s">
+      <c r="UT42" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="UU42" s="80"/>
+      <c r="UU42" s="84"/>
       <c r="UV42" s="39"/>
       <c r="UW42" s="41"/>
       <c r="UX42" s="42"/>
@@ -29645,10 +29668,10 @@
       <c r="VA42" s="42"/>
       <c r="VB42" s="43"/>
       <c r="VF42" s="40"/>
-      <c r="VG42" s="79" t="s">
+      <c r="VG42" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="VH42" s="80"/>
+      <c r="VH42" s="84"/>
       <c r="VI42" s="39"/>
       <c r="VJ42" s="41"/>
       <c r="VK42" s="42"/>
@@ -29659,10 +29682,10 @@
       <c r="VP42" s="39"/>
       <c r="VQ42" s="39"/>
       <c r="VR42" s="40"/>
-      <c r="VS42" s="79" t="s">
+      <c r="VS42" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="VT42" s="80"/>
+      <c r="VT42" s="84"/>
       <c r="VU42" s="39"/>
       <c r="VV42" s="41"/>
       <c r="VW42" s="42"/>
@@ -29671,10 +29694,10 @@
       <c r="VZ42" s="42"/>
       <c r="WA42" s="43"/>
       <c r="WE42" s="40"/>
-      <c r="WF42" s="79" t="s">
+      <c r="WF42" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="WG42" s="80"/>
+      <c r="WG42" s="84"/>
       <c r="WH42" s="39"/>
       <c r="WI42" s="41"/>
       <c r="WJ42" s="42"/>
@@ -29685,10 +29708,10 @@
       <c r="WO42" s="39"/>
       <c r="WP42" s="39"/>
       <c r="WQ42" s="40"/>
-      <c r="WR42" s="79" t="s">
+      <c r="WR42" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="WS42" s="80"/>
+      <c r="WS42" s="84"/>
       <c r="WT42" s="39"/>
       <c r="WU42" s="41"/>
       <c r="WV42" s="42"/>
@@ -29697,10 +29720,10 @@
       <c r="WY42" s="42"/>
       <c r="WZ42" s="43"/>
       <c r="XD42" s="40"/>
-      <c r="XE42" s="79" t="s">
+      <c r="XE42" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="XF42" s="80"/>
+      <c r="XF42" s="84"/>
       <c r="XG42" s="39"/>
       <c r="XH42" s="41"/>
       <c r="XI42" s="42"/>
@@ -29712,8 +29735,8 @@
       <c r="XO42" s="39"/>
     </row>
     <row r="43" spans="3:639" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
       <c r="G43" s="46"/>
       <c r="H43" s="47"/>
       <c r="I43" s="49"/>
@@ -29722,8 +29745,8 @@
       <c r="L43" s="48"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="82"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="86"/>
       <c r="R43" s="39"/>
       <c r="S43" s="46"/>
       <c r="T43" s="47"/>
@@ -29732,8 +29755,8 @@
       <c r="W43" s="47"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="39"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="82"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="86"/>
       <c r="AF43" s="46"/>
       <c r="AG43" s="49"/>
       <c r="AH43" s="47"/>
@@ -29742,8 +29765,8 @@
       <c r="AK43" s="48"/>
       <c r="AL43" s="39"/>
       <c r="AM43" s="39"/>
-      <c r="AO43" s="81"/>
-      <c r="AP43" s="82"/>
+      <c r="AO43" s="85"/>
+      <c r="AP43" s="86"/>
       <c r="AQ43" s="39"/>
       <c r="AR43" s="46"/>
       <c r="AS43" s="49"/>
@@ -29752,8 +29775,8 @@
       <c r="AV43" s="47"/>
       <c r="AW43" s="48"/>
       <c r="AX43" s="39"/>
-      <c r="BB43" s="81"/>
-      <c r="BC43" s="82"/>
+      <c r="BB43" s="85"/>
+      <c r="BC43" s="86"/>
       <c r="BE43" s="46"/>
       <c r="BF43" s="47"/>
       <c r="BG43" s="49"/>
@@ -29762,8 +29785,8 @@
       <c r="BJ43" s="48"/>
       <c r="BK43" s="39"/>
       <c r="BL43" s="39"/>
-      <c r="BN43" s="81"/>
-      <c r="BO43" s="82"/>
+      <c r="BN43" s="85"/>
+      <c r="BO43" s="86"/>
       <c r="BP43" s="39"/>
       <c r="BQ43" s="46"/>
       <c r="BR43" s="49"/>
@@ -29772,8 +29795,8 @@
       <c r="BU43" s="47"/>
       <c r="BV43" s="48"/>
       <c r="BW43" s="39"/>
-      <c r="CA43" s="81"/>
-      <c r="CB43" s="82"/>
+      <c r="CA43" s="85"/>
+      <c r="CB43" s="86"/>
       <c r="CD43" s="46"/>
       <c r="CE43" s="49"/>
       <c r="CF43" s="47"/>
@@ -29782,8 +29805,8 @@
       <c r="CI43" s="48"/>
       <c r="CJ43" s="39"/>
       <c r="CK43" s="39"/>
-      <c r="CM43" s="81"/>
-      <c r="CN43" s="82"/>
+      <c r="CM43" s="85"/>
+      <c r="CN43" s="86"/>
       <c r="CO43" s="39"/>
       <c r="CP43" s="46"/>
       <c r="CQ43" s="47"/>
@@ -29792,8 +29815,8 @@
       <c r="CT43" s="47"/>
       <c r="CU43" s="48"/>
       <c r="CV43" s="39"/>
-      <c r="CZ43" s="81"/>
-      <c r="DA43" s="82"/>
+      <c r="CZ43" s="85"/>
+      <c r="DA43" s="86"/>
       <c r="DC43" s="46"/>
       <c r="DD43" s="47"/>
       <c r="DE43" s="47"/>
@@ -29802,8 +29825,8 @@
       <c r="DH43" s="48"/>
       <c r="DI43" s="39"/>
       <c r="DJ43" s="39"/>
-      <c r="DL43" s="81"/>
-      <c r="DM43" s="82"/>
+      <c r="DL43" s="85"/>
+      <c r="DM43" s="86"/>
       <c r="DN43" s="39"/>
       <c r="DO43" s="46"/>
       <c r="DP43" s="49"/>
@@ -29812,8 +29835,8 @@
       <c r="DS43" s="47"/>
       <c r="DT43" s="48"/>
       <c r="DU43" s="39"/>
-      <c r="DY43" s="81"/>
-      <c r="DZ43" s="82"/>
+      <c r="DY43" s="85"/>
+      <c r="DZ43" s="86"/>
       <c r="EB43" s="46"/>
       <c r="EC43" s="49"/>
       <c r="ED43" s="47"/>
@@ -29822,8 +29845,8 @@
       <c r="EG43" s="48"/>
       <c r="EH43" s="39"/>
       <c r="EI43" s="39"/>
-      <c r="EK43" s="81"/>
-      <c r="EL43" s="82"/>
+      <c r="EK43" s="85"/>
+      <c r="EL43" s="86"/>
       <c r="EM43" s="39"/>
       <c r="EN43" s="46"/>
       <c r="EO43" s="47"/>
@@ -29832,8 +29855,8 @@
       <c r="ER43" s="47"/>
       <c r="ES43" s="48"/>
       <c r="ET43" s="39"/>
-      <c r="EX43" s="81"/>
-      <c r="EY43" s="82"/>
+      <c r="EX43" s="85"/>
+      <c r="EY43" s="86"/>
       <c r="FA43" s="50"/>
       <c r="FB43" s="47"/>
       <c r="FC43" s="47"/>
@@ -29842,8 +29865,8 @@
       <c r="FF43" s="48"/>
       <c r="FG43" s="39"/>
       <c r="FH43" s="39"/>
-      <c r="FJ43" s="81"/>
-      <c r="FK43" s="82"/>
+      <c r="FJ43" s="85"/>
+      <c r="FK43" s="86"/>
       <c r="FL43" s="39"/>
       <c r="FM43" s="50"/>
       <c r="FN43" s="47"/>
@@ -29852,8 +29875,8 @@
       <c r="FQ43" s="47"/>
       <c r="FR43" s="48"/>
       <c r="FS43" s="39"/>
-      <c r="FW43" s="81"/>
-      <c r="FX43" s="82"/>
+      <c r="FW43" s="85"/>
+      <c r="FX43" s="86"/>
       <c r="FZ43" s="46"/>
       <c r="GA43" s="47"/>
       <c r="GB43" s="47"/>
@@ -29862,8 +29885,8 @@
       <c r="GE43" s="48"/>
       <c r="GF43" s="39"/>
       <c r="GG43" s="39"/>
-      <c r="GI43" s="81"/>
-      <c r="GJ43" s="82"/>
+      <c r="GI43" s="85"/>
+      <c r="GJ43" s="86"/>
       <c r="GK43" s="39"/>
       <c r="GL43" s="50"/>
       <c r="GM43" s="47"/>
@@ -29872,8 +29895,8 @@
       <c r="GP43" s="49"/>
       <c r="GQ43" s="48"/>
       <c r="GR43" s="39"/>
-      <c r="GV43" s="81"/>
-      <c r="GW43" s="82"/>
+      <c r="GV43" s="85"/>
+      <c r="GW43" s="86"/>
       <c r="GY43" s="46"/>
       <c r="GZ43" s="47"/>
       <c r="HA43" s="49"/>
@@ -29882,8 +29905,8 @@
       <c r="HD43" s="48"/>
       <c r="HE43" s="39"/>
       <c r="HF43" s="39"/>
-      <c r="HH43" s="81"/>
-      <c r="HI43" s="82"/>
+      <c r="HH43" s="85"/>
+      <c r="HI43" s="86"/>
       <c r="HJ43" s="39"/>
       <c r="HK43" s="50"/>
       <c r="HL43" s="47"/>
@@ -29892,8 +29915,8 @@
       <c r="HO43" s="49"/>
       <c r="HP43" s="48"/>
       <c r="HQ43" s="39"/>
-      <c r="HU43" s="81"/>
-      <c r="HV43" s="82"/>
+      <c r="HU43" s="85"/>
+      <c r="HV43" s="86"/>
       <c r="HX43" s="46"/>
       <c r="HY43" s="49"/>
       <c r="HZ43" s="47"/>
@@ -29902,8 +29925,8 @@
       <c r="IC43" s="48"/>
       <c r="ID43" s="39"/>
       <c r="IE43" s="39"/>
-      <c r="IG43" s="81"/>
-      <c r="IH43" s="82"/>
+      <c r="IG43" s="85"/>
+      <c r="IH43" s="86"/>
       <c r="II43" s="39"/>
       <c r="IJ43" s="46"/>
       <c r="IK43" s="47"/>
@@ -29912,8 +29935,8 @@
       <c r="IN43" s="47"/>
       <c r="IO43" s="48"/>
       <c r="IP43" s="39"/>
-      <c r="IT43" s="81"/>
-      <c r="IU43" s="82"/>
+      <c r="IT43" s="85"/>
+      <c r="IU43" s="86"/>
       <c r="IW43" s="50"/>
       <c r="IX43" s="47"/>
       <c r="IY43" s="47"/>
@@ -29922,8 +29945,8 @@
       <c r="JB43" s="48"/>
       <c r="JC43" s="39"/>
       <c r="JD43" s="39"/>
-      <c r="JF43" s="81"/>
-      <c r="JG43" s="82"/>
+      <c r="JF43" s="85"/>
+      <c r="JG43" s="86"/>
       <c r="JH43" s="39"/>
       <c r="JI43" s="46"/>
       <c r="JJ43" s="47"/>
@@ -29932,8 +29955,8 @@
       <c r="JM43" s="47"/>
       <c r="JN43" s="48"/>
       <c r="JO43" s="39"/>
-      <c r="JS43" s="81"/>
-      <c r="JT43" s="82"/>
+      <c r="JS43" s="85"/>
+      <c r="JT43" s="86"/>
       <c r="JV43" s="46"/>
       <c r="JW43" s="47"/>
       <c r="JX43" s="47"/>
@@ -29942,8 +29965,8 @@
       <c r="KA43" s="48"/>
       <c r="KB43" s="39"/>
       <c r="KC43" s="39"/>
-      <c r="KE43" s="81"/>
-      <c r="KF43" s="82"/>
+      <c r="KE43" s="85"/>
+      <c r="KF43" s="86"/>
       <c r="KG43" s="39"/>
       <c r="KH43" s="46"/>
       <c r="KI43" s="47"/>
@@ -29952,8 +29975,8 @@
       <c r="KL43" s="47"/>
       <c r="KM43" s="48"/>
       <c r="KN43" s="39"/>
-      <c r="KR43" s="81"/>
-      <c r="KS43" s="82"/>
+      <c r="KR43" s="85"/>
+      <c r="KS43" s="86"/>
       <c r="KU43" s="46"/>
       <c r="KV43" s="47"/>
       <c r="KW43" s="49"/>
@@ -29962,8 +29985,8 @@
       <c r="KZ43" s="48"/>
       <c r="LA43" s="39"/>
       <c r="LB43" s="39"/>
-      <c r="LD43" s="81"/>
-      <c r="LE43" s="82"/>
+      <c r="LD43" s="85"/>
+      <c r="LE43" s="86"/>
       <c r="LF43" s="39"/>
       <c r="LG43" s="46"/>
       <c r="LH43" s="47"/>
@@ -29972,8 +29995,8 @@
       <c r="LK43" s="47"/>
       <c r="LL43" s="48"/>
       <c r="LM43" s="39"/>
-      <c r="LQ43" s="81"/>
-      <c r="LR43" s="82"/>
+      <c r="LQ43" s="85"/>
+      <c r="LR43" s="86"/>
       <c r="LS43" s="39"/>
       <c r="LT43" s="46"/>
       <c r="LU43" s="47"/>
@@ -29983,8 +30006,8 @@
       <c r="LY43" s="48"/>
       <c r="LZ43" s="39"/>
       <c r="MA43" s="39"/>
-      <c r="MC43" s="81"/>
-      <c r="MD43" s="82"/>
+      <c r="MC43" s="85"/>
+      <c r="MD43" s="86"/>
       <c r="ME43" s="39"/>
       <c r="MF43" s="46"/>
       <c r="MG43" s="47"/>
@@ -29993,8 +30016,8 @@
       <c r="MJ43" s="47"/>
       <c r="MK43" s="48"/>
       <c r="ML43" s="39"/>
-      <c r="MP43" s="81"/>
-      <c r="MQ43" s="82"/>
+      <c r="MP43" s="85"/>
+      <c r="MQ43" s="86"/>
       <c r="MR43" s="39"/>
       <c r="MS43" s="46"/>
       <c r="MT43" s="47"/>
@@ -30004,8 +30027,8 @@
       <c r="MX43" s="48"/>
       <c r="MY43" s="39"/>
       <c r="MZ43" s="39"/>
-      <c r="NB43" s="81"/>
-      <c r="NC43" s="82"/>
+      <c r="NB43" s="85"/>
+      <c r="NC43" s="86"/>
       <c r="ND43" s="39"/>
       <c r="NE43" s="46"/>
       <c r="NF43" s="47"/>
@@ -30013,8 +30036,8 @@
       <c r="NH43" s="47"/>
       <c r="NI43" s="47"/>
       <c r="NJ43" s="48"/>
-      <c r="NO43" s="81"/>
-      <c r="NP43" s="82"/>
+      <c r="NO43" s="85"/>
+      <c r="NP43" s="86"/>
       <c r="NQ43" s="39"/>
       <c r="NR43" s="46"/>
       <c r="NS43" s="47"/>
@@ -30024,8 +30047,8 @@
       <c r="NW43" s="48"/>
       <c r="NX43" s="39"/>
       <c r="NY43" s="39"/>
-      <c r="OA43" s="81"/>
-      <c r="OB43" s="82"/>
+      <c r="OA43" s="85"/>
+      <c r="OB43" s="86"/>
       <c r="OC43" s="39"/>
       <c r="OD43" s="46"/>
       <c r="OE43" s="47"/>
@@ -30033,8 +30056,8 @@
       <c r="OG43" s="47"/>
       <c r="OH43" s="47"/>
       <c r="OI43" s="48"/>
-      <c r="ON43" s="81"/>
-      <c r="OO43" s="82"/>
+      <c r="ON43" s="85"/>
+      <c r="OO43" s="86"/>
       <c r="OP43" s="39"/>
       <c r="OQ43" s="50"/>
       <c r="OR43" s="47"/>
@@ -30044,8 +30067,8 @@
       <c r="OV43" s="48"/>
       <c r="OW43" s="39"/>
       <c r="OX43" s="39"/>
-      <c r="OZ43" s="81"/>
-      <c r="PA43" s="82"/>
+      <c r="OZ43" s="85"/>
+      <c r="PA43" s="86"/>
       <c r="PB43" s="39"/>
       <c r="PC43" s="46"/>
       <c r="PD43" s="47"/>
@@ -30053,8 +30076,8 @@
       <c r="PF43" s="47"/>
       <c r="PG43" s="47"/>
       <c r="PH43" s="48"/>
-      <c r="PM43" s="81"/>
-      <c r="PN43" s="82"/>
+      <c r="PM43" s="85"/>
+      <c r="PN43" s="86"/>
       <c r="PO43" s="39"/>
       <c r="PP43" s="46"/>
       <c r="PQ43" s="47"/>
@@ -30064,8 +30087,8 @@
       <c r="PU43" s="48"/>
       <c r="PV43" s="39"/>
       <c r="PW43" s="39"/>
-      <c r="PY43" s="81"/>
-      <c r="PZ43" s="82"/>
+      <c r="PY43" s="85"/>
+      <c r="PZ43" s="86"/>
       <c r="QA43" s="39"/>
       <c r="QB43" s="46"/>
       <c r="QC43" s="47"/>
@@ -30073,8 +30096,8 @@
       <c r="QE43" s="47"/>
       <c r="QF43" s="47"/>
       <c r="QG43" s="48"/>
-      <c r="QL43" s="81"/>
-      <c r="QM43" s="82"/>
+      <c r="QL43" s="85"/>
+      <c r="QM43" s="86"/>
       <c r="QN43" s="39"/>
       <c r="QO43" s="46"/>
       <c r="QP43" s="47"/>
@@ -30084,8 +30107,8 @@
       <c r="QT43" s="48"/>
       <c r="QU43" s="39"/>
       <c r="QV43" s="39"/>
-      <c r="QX43" s="81"/>
-      <c r="QY43" s="82"/>
+      <c r="QX43" s="85"/>
+      <c r="QY43" s="86"/>
       <c r="QZ43" s="39"/>
       <c r="RA43" s="46"/>
       <c r="RB43" s="47"/>
@@ -30093,8 +30116,8 @@
       <c r="RD43" s="47"/>
       <c r="RE43" s="47"/>
       <c r="RF43" s="48"/>
-      <c r="RK43" s="81"/>
-      <c r="RL43" s="82"/>
+      <c r="RK43" s="85"/>
+      <c r="RL43" s="86"/>
       <c r="RM43" s="39"/>
       <c r="RN43" s="46"/>
       <c r="RO43" s="47"/>
@@ -30104,8 +30127,8 @@
       <c r="RS43" s="48"/>
       <c r="RT43" s="39"/>
       <c r="RU43" s="39"/>
-      <c r="RW43" s="81"/>
-      <c r="RX43" s="82"/>
+      <c r="RW43" s="85"/>
+      <c r="RX43" s="86"/>
       <c r="RY43" s="39"/>
       <c r="RZ43" s="46"/>
       <c r="SA43" s="47"/>
@@ -30113,8 +30136,8 @@
       <c r="SC43" s="47"/>
       <c r="SD43" s="47"/>
       <c r="SE43" s="48"/>
-      <c r="SJ43" s="81"/>
-      <c r="SK43" s="82"/>
+      <c r="SJ43" s="85"/>
+      <c r="SK43" s="86"/>
       <c r="SL43" s="39"/>
       <c r="SM43" s="46"/>
       <c r="SN43" s="47"/>
@@ -30124,8 +30147,8 @@
       <c r="SR43" s="48"/>
       <c r="SS43" s="39"/>
       <c r="ST43" s="39"/>
-      <c r="SV43" s="81"/>
-      <c r="SW43" s="82"/>
+      <c r="SV43" s="85"/>
+      <c r="SW43" s="86"/>
       <c r="SX43" s="39"/>
       <c r="SY43" s="46"/>
       <c r="SZ43" s="47"/>
@@ -30133,8 +30156,8 @@
       <c r="TB43" s="47"/>
       <c r="TC43" s="47"/>
       <c r="TD43" s="48"/>
-      <c r="TI43" s="81"/>
-      <c r="TJ43" s="82"/>
+      <c r="TI43" s="85"/>
+      <c r="TJ43" s="86"/>
       <c r="TK43" s="39"/>
       <c r="TL43" s="46"/>
       <c r="TM43" s="47"/>
@@ -30144,8 +30167,8 @@
       <c r="TQ43" s="48"/>
       <c r="TR43" s="39"/>
       <c r="TS43" s="39"/>
-      <c r="TU43" s="81"/>
-      <c r="TV43" s="82"/>
+      <c r="TU43" s="85"/>
+      <c r="TV43" s="86"/>
       <c r="TW43" s="39"/>
       <c r="TX43" s="46"/>
       <c r="TY43" s="47"/>
@@ -30153,8 +30176,8 @@
       <c r="UA43" s="47"/>
       <c r="UB43" s="47"/>
       <c r="UC43" s="48"/>
-      <c r="UH43" s="81"/>
-      <c r="UI43" s="82"/>
+      <c r="UH43" s="85"/>
+      <c r="UI43" s="86"/>
       <c r="UJ43" s="39"/>
       <c r="UK43" s="46"/>
       <c r="UL43" s="47"/>
@@ -30164,8 +30187,8 @@
       <c r="UP43" s="48"/>
       <c r="UQ43" s="39"/>
       <c r="UR43" s="39"/>
-      <c r="UT43" s="81"/>
-      <c r="UU43" s="82"/>
+      <c r="UT43" s="85"/>
+      <c r="UU43" s="86"/>
       <c r="UV43" s="39"/>
       <c r="UW43" s="46"/>
       <c r="UX43" s="47"/>
@@ -30173,8 +30196,8 @@
       <c r="UZ43" s="47"/>
       <c r="VA43" s="47"/>
       <c r="VB43" s="48"/>
-      <c r="VG43" s="81"/>
-      <c r="VH43" s="82"/>
+      <c r="VG43" s="85"/>
+      <c r="VH43" s="86"/>
       <c r="VI43" s="39"/>
       <c r="VJ43" s="46"/>
       <c r="VK43" s="47"/>
@@ -30184,8 +30207,8 @@
       <c r="VO43" s="48"/>
       <c r="VP43" s="39"/>
       <c r="VQ43" s="39"/>
-      <c r="VS43" s="81"/>
-      <c r="VT43" s="82"/>
+      <c r="VS43" s="85"/>
+      <c r="VT43" s="86"/>
       <c r="VU43" s="39"/>
       <c r="VV43" s="46"/>
       <c r="VW43" s="47"/>
@@ -30193,8 +30216,8 @@
       <c r="VY43" s="47"/>
       <c r="VZ43" s="47"/>
       <c r="WA43" s="48"/>
-      <c r="WF43" s="81"/>
-      <c r="WG43" s="82"/>
+      <c r="WF43" s="85"/>
+      <c r="WG43" s="86"/>
       <c r="WH43" s="39"/>
       <c r="WI43" s="46"/>
       <c r="WJ43" s="47"/>
@@ -30204,8 +30227,8 @@
       <c r="WN43" s="48"/>
       <c r="WO43" s="39"/>
       <c r="WP43" s="39"/>
-      <c r="WR43" s="81"/>
-      <c r="WS43" s="82"/>
+      <c r="WR43" s="85"/>
+      <c r="WS43" s="86"/>
       <c r="WT43" s="39"/>
       <c r="WU43" s="46"/>
       <c r="WV43" s="47"/>
@@ -30213,8 +30236,8 @@
       <c r="WX43" s="47"/>
       <c r="WY43" s="47"/>
       <c r="WZ43" s="48"/>
-      <c r="XE43" s="81"/>
-      <c r="XF43" s="82"/>
+      <c r="XE43" s="85"/>
+      <c r="XF43" s="86"/>
       <c r="XG43" s="39"/>
       <c r="XH43" s="46"/>
       <c r="XI43" s="47"/>
@@ -34712,881 +34735,1137 @@
       <c r="XO49" s="5"/>
     </row>
     <row r="51" spans="3:649" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="84" t="s">
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="S51" s="85"/>
-      <c r="T51" s="85" t="s">
+      <c r="S51" s="81"/>
+      <c r="T51" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="U51" s="85"/>
+      <c r="U51" s="81"/>
       <c r="V51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="W51" s="85" t="s">
+      <c r="W51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="X51" s="86"/>
-      <c r="AB51" s="84" t="s">
+      <c r="X51" s="82"/>
+      <c r="AB51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="AC51" s="85"/>
-      <c r="AD51" s="85"/>
-      <c r="AE51" s="85"/>
-      <c r="AF51" s="85"/>
-      <c r="AG51" s="85"/>
-      <c r="AH51" s="85"/>
-      <c r="AI51" s="85"/>
-      <c r="AJ51" s="85"/>
-      <c r="AK51" s="85"/>
-      <c r="AL51" s="85"/>
-      <c r="AM51" s="85"/>
-      <c r="AN51" s="85"/>
-      <c r="AO51" s="85"/>
-      <c r="AP51" s="86"/>
-      <c r="AQ51" s="84" t="s">
+      <c r="AC51" s="81"/>
+      <c r="AD51" s="81"/>
+      <c r="AE51" s="81"/>
+      <c r="AF51" s="81"/>
+      <c r="AG51" s="81"/>
+      <c r="AH51" s="81"/>
+      <c r="AI51" s="81"/>
+      <c r="AJ51" s="81"/>
+      <c r="AK51" s="81"/>
+      <c r="AL51" s="81"/>
+      <c r="AM51" s="81"/>
+      <c r="AN51" s="81"/>
+      <c r="AO51" s="81"/>
+      <c r="AP51" s="82"/>
+      <c r="AQ51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="AR51" s="85"/>
-      <c r="AS51" s="85" t="s">
+      <c r="AR51" s="81"/>
+      <c r="AS51" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AT51" s="85"/>
+      <c r="AT51" s="81"/>
       <c r="AU51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="AV51" s="85" t="s">
+      <c r="AV51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="AW51" s="86"/>
-      <c r="BA51" s="84" t="s">
+      <c r="AW51" s="82"/>
+      <c r="BA51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="BB51" s="85"/>
-      <c r="BC51" s="85"/>
-      <c r="BD51" s="85"/>
-      <c r="BE51" s="85"/>
-      <c r="BF51" s="85"/>
-      <c r="BG51" s="85"/>
-      <c r="BH51" s="85"/>
-      <c r="BI51" s="85"/>
-      <c r="BJ51" s="85"/>
-      <c r="BK51" s="85"/>
-      <c r="BL51" s="85"/>
-      <c r="BM51" s="85"/>
-      <c r="BN51" s="85"/>
-      <c r="BO51" s="86"/>
-      <c r="BP51" s="84" t="s">
+      <c r="BB51" s="81"/>
+      <c r="BC51" s="81"/>
+      <c r="BD51" s="81"/>
+      <c r="BE51" s="81"/>
+      <c r="BF51" s="81"/>
+      <c r="BG51" s="81"/>
+      <c r="BH51" s="81"/>
+      <c r="BI51" s="81"/>
+      <c r="BJ51" s="81"/>
+      <c r="BK51" s="81"/>
+      <c r="BL51" s="81"/>
+      <c r="BM51" s="81"/>
+      <c r="BN51" s="81"/>
+      <c r="BO51" s="82"/>
+      <c r="BP51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="BQ51" s="85"/>
-      <c r="BR51" s="85" t="s">
+      <c r="BQ51" s="81"/>
+      <c r="BR51" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BS51" s="85"/>
+      <c r="BS51" s="81"/>
       <c r="BT51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="BU51" s="85" t="s">
+      <c r="BU51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="BV51" s="86"/>
-      <c r="BZ51" s="84" t="s">
+      <c r="BV51" s="82"/>
+      <c r="BZ51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="CA51" s="85"/>
-      <c r="CB51" s="85"/>
-      <c r="CC51" s="85"/>
-      <c r="CD51" s="85"/>
-      <c r="CE51" s="85"/>
-      <c r="CF51" s="85"/>
-      <c r="CG51" s="85"/>
-      <c r="CH51" s="85"/>
-      <c r="CI51" s="85"/>
-      <c r="CJ51" s="85"/>
-      <c r="CK51" s="85"/>
-      <c r="CL51" s="85"/>
-      <c r="CM51" s="85"/>
-      <c r="CN51" s="86"/>
-      <c r="CO51" s="84" t="s">
+      <c r="CA51" s="81"/>
+      <c r="CB51" s="81"/>
+      <c r="CC51" s="81"/>
+      <c r="CD51" s="81"/>
+      <c r="CE51" s="81"/>
+      <c r="CF51" s="81"/>
+      <c r="CG51" s="81"/>
+      <c r="CH51" s="81"/>
+      <c r="CI51" s="81"/>
+      <c r="CJ51" s="81"/>
+      <c r="CK51" s="81"/>
+      <c r="CL51" s="81"/>
+      <c r="CM51" s="81"/>
+      <c r="CN51" s="82"/>
+      <c r="CO51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="CP51" s="85"/>
-      <c r="CQ51" s="85" t="s">
+      <c r="CP51" s="81"/>
+      <c r="CQ51" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="CR51" s="85"/>
+      <c r="CR51" s="81"/>
       <c r="CS51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="CT51" s="85" t="s">
+      <c r="CT51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="CU51" s="86"/>
-      <c r="CY51" s="84" t="s">
+      <c r="CU51" s="82"/>
+      <c r="CY51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="CZ51" s="85"/>
-      <c r="DA51" s="85"/>
-      <c r="DB51" s="85"/>
-      <c r="DC51" s="85"/>
-      <c r="DD51" s="85"/>
-      <c r="DE51" s="85"/>
-      <c r="DF51" s="85"/>
-      <c r="DG51" s="85"/>
-      <c r="DH51" s="85"/>
-      <c r="DI51" s="85"/>
-      <c r="DJ51" s="85"/>
-      <c r="DK51" s="85"/>
-      <c r="DL51" s="85"/>
-      <c r="DM51" s="86"/>
-      <c r="DN51" s="84" t="s">
+      <c r="CZ51" s="81"/>
+      <c r="DA51" s="81"/>
+      <c r="DB51" s="81"/>
+      <c r="DC51" s="81"/>
+      <c r="DD51" s="81"/>
+      <c r="DE51" s="81"/>
+      <c r="DF51" s="81"/>
+      <c r="DG51" s="81"/>
+      <c r="DH51" s="81"/>
+      <c r="DI51" s="81"/>
+      <c r="DJ51" s="81"/>
+      <c r="DK51" s="81"/>
+      <c r="DL51" s="81"/>
+      <c r="DM51" s="82"/>
+      <c r="DN51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="DO51" s="85"/>
-      <c r="DP51" s="85" t="s">
+      <c r="DO51" s="81"/>
+      <c r="DP51" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="DQ51" s="85"/>
+      <c r="DQ51" s="81"/>
       <c r="DR51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="DS51" s="85" t="s">
+      <c r="DS51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="DT51" s="86"/>
-      <c r="DX51" s="84" t="s">
+      <c r="DT51" s="82"/>
+      <c r="DX51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="DY51" s="85"/>
-      <c r="DZ51" s="85"/>
-      <c r="EA51" s="85"/>
-      <c r="EB51" s="85"/>
-      <c r="EC51" s="85"/>
-      <c r="ED51" s="85"/>
-      <c r="EE51" s="85"/>
-      <c r="EF51" s="85"/>
-      <c r="EG51" s="85"/>
-      <c r="EH51" s="85"/>
-      <c r="EI51" s="85"/>
-      <c r="EJ51" s="85"/>
-      <c r="EK51" s="85"/>
-      <c r="EL51" s="86"/>
-      <c r="EM51" s="84" t="s">
+      <c r="DY51" s="81"/>
+      <c r="DZ51" s="81"/>
+      <c r="EA51" s="81"/>
+      <c r="EB51" s="81"/>
+      <c r="EC51" s="81"/>
+      <c r="ED51" s="81"/>
+      <c r="EE51" s="81"/>
+      <c r="EF51" s="81"/>
+      <c r="EG51" s="81"/>
+      <c r="EH51" s="81"/>
+      <c r="EI51" s="81"/>
+      <c r="EJ51" s="81"/>
+      <c r="EK51" s="81"/>
+      <c r="EL51" s="82"/>
+      <c r="EM51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="EN51" s="85"/>
-      <c r="EO51" s="85" t="s">
+      <c r="EN51" s="81"/>
+      <c r="EO51" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="EP51" s="85"/>
+      <c r="EP51" s="81"/>
       <c r="EQ51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="ER51" s="85" t="s">
+      <c r="ER51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="ES51" s="86"/>
-      <c r="EW51" s="84" t="s">
+      <c r="ES51" s="82"/>
+      <c r="EW51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="EX51" s="85"/>
-      <c r="EY51" s="85"/>
-      <c r="EZ51" s="85"/>
-      <c r="FA51" s="85"/>
-      <c r="FB51" s="85"/>
-      <c r="FC51" s="85"/>
-      <c r="FD51" s="85"/>
-      <c r="FE51" s="85"/>
-      <c r="FF51" s="85"/>
-      <c r="FG51" s="85"/>
-      <c r="FH51" s="85"/>
-      <c r="FI51" s="85"/>
-      <c r="FJ51" s="85"/>
-      <c r="FK51" s="86"/>
-      <c r="FL51" s="84" t="s">
+      <c r="EX51" s="81"/>
+      <c r="EY51" s="81"/>
+      <c r="EZ51" s="81"/>
+      <c r="FA51" s="81"/>
+      <c r="FB51" s="81"/>
+      <c r="FC51" s="81"/>
+      <c r="FD51" s="81"/>
+      <c r="FE51" s="81"/>
+      <c r="FF51" s="81"/>
+      <c r="FG51" s="81"/>
+      <c r="FH51" s="81"/>
+      <c r="FI51" s="81"/>
+      <c r="FJ51" s="81"/>
+      <c r="FK51" s="82"/>
+      <c r="FL51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="FM51" s="85"/>
-      <c r="FN51" s="85" t="s">
+      <c r="FM51" s="81"/>
+      <c r="FN51" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="FO51" s="85"/>
+      <c r="FO51" s="81"/>
       <c r="FP51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="FQ51" s="85" t="s">
+      <c r="FQ51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="FR51" s="86"/>
-      <c r="FV51" s="84" t="s">
+      <c r="FR51" s="82"/>
+      <c r="FV51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="FW51" s="85"/>
-      <c r="FX51" s="85"/>
-      <c r="FY51" s="85"/>
-      <c r="FZ51" s="85"/>
-      <c r="GA51" s="85"/>
-      <c r="GB51" s="85"/>
-      <c r="GC51" s="85"/>
-      <c r="GD51" s="85"/>
-      <c r="GE51" s="85"/>
-      <c r="GF51" s="85"/>
-      <c r="GG51" s="85"/>
-      <c r="GH51" s="85"/>
-      <c r="GI51" s="85"/>
-      <c r="GJ51" s="86"/>
-      <c r="GK51" s="84" t="s">
+      <c r="FW51" s="81"/>
+      <c r="FX51" s="81"/>
+      <c r="FY51" s="81"/>
+      <c r="FZ51" s="81"/>
+      <c r="GA51" s="81"/>
+      <c r="GB51" s="81"/>
+      <c r="GC51" s="81"/>
+      <c r="GD51" s="81"/>
+      <c r="GE51" s="81"/>
+      <c r="GF51" s="81"/>
+      <c r="GG51" s="81"/>
+      <c r="GH51" s="81"/>
+      <c r="GI51" s="81"/>
+      <c r="GJ51" s="82"/>
+      <c r="GK51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="GL51" s="85"/>
-      <c r="GM51" s="85" t="s">
+      <c r="GL51" s="81"/>
+      <c r="GM51" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="GN51" s="85"/>
+      <c r="GN51" s="81"/>
       <c r="GO51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="GP51" s="85" t="s">
+      <c r="GP51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="GQ51" s="86"/>
-      <c r="GU51" s="84" t="s">
+      <c r="GQ51" s="82"/>
+      <c r="GU51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="GV51" s="85"/>
-      <c r="GW51" s="85"/>
-      <c r="GX51" s="85"/>
-      <c r="GY51" s="85"/>
-      <c r="GZ51" s="85"/>
-      <c r="HA51" s="85"/>
-      <c r="HB51" s="85"/>
-      <c r="HC51" s="85"/>
-      <c r="HD51" s="85"/>
-      <c r="HE51" s="85"/>
-      <c r="HF51" s="85"/>
-      <c r="HG51" s="85"/>
-      <c r="HH51" s="85"/>
-      <c r="HI51" s="86"/>
-      <c r="HJ51" s="84" t="s">
+      <c r="GV51" s="81"/>
+      <c r="GW51" s="81"/>
+      <c r="GX51" s="81"/>
+      <c r="GY51" s="81"/>
+      <c r="GZ51" s="81"/>
+      <c r="HA51" s="81"/>
+      <c r="HB51" s="81"/>
+      <c r="HC51" s="81"/>
+      <c r="HD51" s="81"/>
+      <c r="HE51" s="81"/>
+      <c r="HF51" s="81"/>
+      <c r="HG51" s="81"/>
+      <c r="HH51" s="81"/>
+      <c r="HI51" s="82"/>
+      <c r="HJ51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="HK51" s="85"/>
-      <c r="HL51" s="85" t="s">
+      <c r="HK51" s="81"/>
+      <c r="HL51" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="HM51" s="85"/>
+      <c r="HM51" s="81"/>
       <c r="HN51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="HO51" s="85" t="s">
+      <c r="HO51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="HP51" s="86"/>
-      <c r="HT51" s="84" t="s">
+      <c r="HP51" s="82"/>
+      <c r="HT51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="HU51" s="85"/>
-      <c r="HV51" s="85"/>
-      <c r="HW51" s="85"/>
-      <c r="HX51" s="85"/>
-      <c r="HY51" s="85"/>
-      <c r="HZ51" s="85"/>
-      <c r="IA51" s="85"/>
-      <c r="IB51" s="85"/>
-      <c r="IC51" s="85"/>
-      <c r="ID51" s="85"/>
-      <c r="IE51" s="85"/>
-      <c r="IF51" s="85"/>
-      <c r="IG51" s="85"/>
-      <c r="IH51" s="86"/>
-      <c r="II51" s="84" t="s">
+      <c r="HU51" s="81"/>
+      <c r="HV51" s="81"/>
+      <c r="HW51" s="81"/>
+      <c r="HX51" s="81"/>
+      <c r="HY51" s="81"/>
+      <c r="HZ51" s="81"/>
+      <c r="IA51" s="81"/>
+      <c r="IB51" s="81"/>
+      <c r="IC51" s="81"/>
+      <c r="ID51" s="81"/>
+      <c r="IE51" s="81"/>
+      <c r="IF51" s="81"/>
+      <c r="IG51" s="81"/>
+      <c r="IH51" s="82"/>
+      <c r="II51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="IJ51" s="85"/>
-      <c r="IK51" s="85" t="s">
+      <c r="IJ51" s="81"/>
+      <c r="IK51" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="IL51" s="85"/>
+      <c r="IL51" s="81"/>
       <c r="IM51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="IN51" s="85" t="s">
+      <c r="IN51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="IO51" s="86"/>
-      <c r="IS51" s="84" t="s">
+      <c r="IO51" s="82"/>
+      <c r="IS51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="IT51" s="85"/>
-      <c r="IU51" s="85"/>
-      <c r="IV51" s="85"/>
-      <c r="IW51" s="85"/>
-      <c r="IX51" s="85"/>
-      <c r="IY51" s="85"/>
-      <c r="IZ51" s="85"/>
-      <c r="JA51" s="85"/>
-      <c r="JB51" s="85"/>
-      <c r="JC51" s="85"/>
-      <c r="JD51" s="85"/>
-      <c r="JE51" s="85"/>
-      <c r="JF51" s="85"/>
-      <c r="JG51" s="86"/>
-      <c r="JH51" s="84" t="s">
+      <c r="IT51" s="81"/>
+      <c r="IU51" s="81"/>
+      <c r="IV51" s="81"/>
+      <c r="IW51" s="81"/>
+      <c r="IX51" s="81"/>
+      <c r="IY51" s="81"/>
+      <c r="IZ51" s="81"/>
+      <c r="JA51" s="81"/>
+      <c r="JB51" s="81"/>
+      <c r="JC51" s="81"/>
+      <c r="JD51" s="81"/>
+      <c r="JE51" s="81"/>
+      <c r="JF51" s="81"/>
+      <c r="JG51" s="82"/>
+      <c r="JH51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="JI51" s="85"/>
-      <c r="JJ51" s="85" t="s">
+      <c r="JI51" s="81"/>
+      <c r="JJ51" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="JK51" s="85"/>
+      <c r="JK51" s="81"/>
       <c r="JL51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="JM51" s="85" t="s">
+      <c r="JM51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="JN51" s="86"/>
-      <c r="JR51" s="84" t="s">
+      <c r="JN51" s="82"/>
+      <c r="JR51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="JS51" s="85"/>
-      <c r="JT51" s="85"/>
-      <c r="JU51" s="85"/>
-      <c r="JV51" s="85"/>
-      <c r="JW51" s="85"/>
-      <c r="JX51" s="85"/>
-      <c r="JY51" s="85"/>
-      <c r="JZ51" s="85"/>
-      <c r="KA51" s="85"/>
-      <c r="KB51" s="85"/>
-      <c r="KC51" s="85"/>
-      <c r="KD51" s="85"/>
-      <c r="KE51" s="85"/>
-      <c r="KF51" s="86"/>
-      <c r="KG51" s="84" t="s">
+      <c r="JS51" s="81"/>
+      <c r="JT51" s="81"/>
+      <c r="JU51" s="81"/>
+      <c r="JV51" s="81"/>
+      <c r="JW51" s="81"/>
+      <c r="JX51" s="81"/>
+      <c r="JY51" s="81"/>
+      <c r="JZ51" s="81"/>
+      <c r="KA51" s="81"/>
+      <c r="KB51" s="81"/>
+      <c r="KC51" s="81"/>
+      <c r="KD51" s="81"/>
+      <c r="KE51" s="81"/>
+      <c r="KF51" s="82"/>
+      <c r="KG51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="KH51" s="85"/>
-      <c r="KI51" s="85" t="s">
+      <c r="KH51" s="81"/>
+      <c r="KI51" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="KJ51" s="85"/>
+      <c r="KJ51" s="81"/>
       <c r="KK51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="KL51" s="85" t="s">
+      <c r="KL51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="KM51" s="86"/>
-      <c r="KQ51" s="84" t="s">
+      <c r="KM51" s="82"/>
+      <c r="KQ51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="KR51" s="85"/>
-      <c r="KS51" s="85"/>
-      <c r="KT51" s="85"/>
-      <c r="KU51" s="85"/>
-      <c r="KV51" s="85"/>
-      <c r="KW51" s="85"/>
-      <c r="KX51" s="85"/>
-      <c r="KY51" s="85"/>
-      <c r="KZ51" s="85"/>
-      <c r="LA51" s="85"/>
-      <c r="LB51" s="85"/>
-      <c r="LC51" s="85"/>
-      <c r="LD51" s="85"/>
-      <c r="LE51" s="86"/>
-      <c r="LF51" s="84" t="s">
+      <c r="KR51" s="81"/>
+      <c r="KS51" s="81"/>
+      <c r="KT51" s="81"/>
+      <c r="KU51" s="81"/>
+      <c r="KV51" s="81"/>
+      <c r="KW51" s="81"/>
+      <c r="KX51" s="81"/>
+      <c r="KY51" s="81"/>
+      <c r="KZ51" s="81"/>
+      <c r="LA51" s="81"/>
+      <c r="LB51" s="81"/>
+      <c r="LC51" s="81"/>
+      <c r="LD51" s="81"/>
+      <c r="LE51" s="82"/>
+      <c r="LF51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="LG51" s="85"/>
-      <c r="LH51" s="85" t="s">
+      <c r="LG51" s="81"/>
+      <c r="LH51" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="LI51" s="85"/>
+      <c r="LI51" s="81"/>
       <c r="LJ51" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="LK51" s="85" t="s">
+      <c r="LK51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="LL51" s="86"/>
-      <c r="LP51" s="84" t="s">
+      <c r="LL51" s="82"/>
+      <c r="LP51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="LQ51" s="85"/>
-      <c r="LR51" s="85"/>
-      <c r="LS51" s="85"/>
-      <c r="LT51" s="85"/>
-      <c r="LU51" s="85"/>
-      <c r="LV51" s="85"/>
-      <c r="LW51" s="85"/>
-      <c r="LX51" s="85"/>
-      <c r="LY51" s="85"/>
-      <c r="LZ51" s="85"/>
-      <c r="MA51" s="85"/>
-      <c r="MB51" s="85"/>
-      <c r="MC51" s="85"/>
-      <c r="MD51" s="86"/>
-      <c r="ME51" s="84" t="s">
+      <c r="LQ51" s="81"/>
+      <c r="LR51" s="81"/>
+      <c r="LS51" s="81"/>
+      <c r="LT51" s="81"/>
+      <c r="LU51" s="81"/>
+      <c r="LV51" s="81"/>
+      <c r="LW51" s="81"/>
+      <c r="LX51" s="81"/>
+      <c r="LY51" s="81"/>
+      <c r="LZ51" s="81"/>
+      <c r="MA51" s="81"/>
+      <c r="MB51" s="81"/>
+      <c r="MC51" s="81"/>
+      <c r="MD51" s="82"/>
+      <c r="ME51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="MF51" s="85"/>
-      <c r="MG51" s="85" t="s">
+      <c r="MF51" s="81"/>
+      <c r="MG51" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="MH51" s="85"/>
+      <c r="MH51" s="81"/>
       <c r="MI51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="MJ51" s="85" t="s">
+      <c r="MJ51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="MK51" s="86"/>
-      <c r="MO51" s="84" t="s">
+      <c r="MK51" s="82"/>
+      <c r="MO51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="MP51" s="85"/>
-      <c r="MQ51" s="85"/>
-      <c r="MR51" s="85"/>
-      <c r="MS51" s="85"/>
-      <c r="MT51" s="85"/>
-      <c r="MU51" s="85"/>
-      <c r="MV51" s="85"/>
-      <c r="MW51" s="85"/>
-      <c r="MX51" s="85"/>
-      <c r="MY51" s="85"/>
-      <c r="MZ51" s="85"/>
-      <c r="NA51" s="85"/>
-      <c r="NB51" s="85"/>
-      <c r="NC51" s="86"/>
-      <c r="ND51" s="84" t="s">
+      <c r="MP51" s="81"/>
+      <c r="MQ51" s="81"/>
+      <c r="MR51" s="81"/>
+      <c r="MS51" s="81"/>
+      <c r="MT51" s="81"/>
+      <c r="MU51" s="81"/>
+      <c r="MV51" s="81"/>
+      <c r="MW51" s="81"/>
+      <c r="MX51" s="81"/>
+      <c r="MY51" s="81"/>
+      <c r="MZ51" s="81"/>
+      <c r="NA51" s="81"/>
+      <c r="NB51" s="81"/>
+      <c r="NC51" s="82"/>
+      <c r="ND51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="NE51" s="85"/>
-      <c r="NF51" s="85" t="s">
+      <c r="NE51" s="81"/>
+      <c r="NF51" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="NG51" s="85"/>
+      <c r="NG51" s="81"/>
       <c r="NH51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="NI51" s="85" t="s">
+      <c r="NI51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="NJ51" s="86"/>
-      <c r="NN51" s="84" t="s">
+      <c r="NJ51" s="82"/>
+      <c r="NN51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="NO51" s="85"/>
-      <c r="NP51" s="85"/>
-      <c r="NQ51" s="85"/>
-      <c r="NR51" s="85"/>
-      <c r="NS51" s="85"/>
-      <c r="NT51" s="85"/>
-      <c r="NU51" s="85"/>
-      <c r="NV51" s="85"/>
-      <c r="NW51" s="85"/>
-      <c r="NX51" s="85"/>
-      <c r="NY51" s="85"/>
-      <c r="NZ51" s="85"/>
-      <c r="OA51" s="85"/>
-      <c r="OB51" s="86"/>
-      <c r="OC51" s="84" t="s">
+      <c r="NO51" s="81"/>
+      <c r="NP51" s="81"/>
+      <c r="NQ51" s="81"/>
+      <c r="NR51" s="81"/>
+      <c r="NS51" s="81"/>
+      <c r="NT51" s="81"/>
+      <c r="NU51" s="81"/>
+      <c r="NV51" s="81"/>
+      <c r="NW51" s="81"/>
+      <c r="NX51" s="81"/>
+      <c r="NY51" s="81"/>
+      <c r="NZ51" s="81"/>
+      <c r="OA51" s="81"/>
+      <c r="OB51" s="82"/>
+      <c r="OC51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="OD51" s="85"/>
-      <c r="OE51" s="85" t="s">
+      <c r="OD51" s="81"/>
+      <c r="OE51" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="OF51" s="85"/>
+      <c r="OF51" s="81"/>
       <c r="OG51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="OH51" s="85" t="s">
+      <c r="OH51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="OI51" s="86"/>
-      <c r="OM51" s="84" t="s">
+      <c r="OI51" s="82"/>
+      <c r="OM51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="ON51" s="85"/>
-      <c r="OO51" s="85"/>
-      <c r="OP51" s="85"/>
-      <c r="OQ51" s="85"/>
-      <c r="OR51" s="85"/>
-      <c r="OS51" s="85"/>
-      <c r="OT51" s="85"/>
-      <c r="OU51" s="85"/>
-      <c r="OV51" s="85"/>
-      <c r="OW51" s="85"/>
-      <c r="OX51" s="85"/>
-      <c r="OY51" s="85"/>
-      <c r="OZ51" s="85"/>
-      <c r="PA51" s="86"/>
-      <c r="PB51" s="84" t="s">
+      <c r="ON51" s="81"/>
+      <c r="OO51" s="81"/>
+      <c r="OP51" s="81"/>
+      <c r="OQ51" s="81"/>
+      <c r="OR51" s="81"/>
+      <c r="OS51" s="81"/>
+      <c r="OT51" s="81"/>
+      <c r="OU51" s="81"/>
+      <c r="OV51" s="81"/>
+      <c r="OW51" s="81"/>
+      <c r="OX51" s="81"/>
+      <c r="OY51" s="81"/>
+      <c r="OZ51" s="81"/>
+      <c r="PA51" s="82"/>
+      <c r="PB51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="PC51" s="85"/>
-      <c r="PD51" s="85" t="s">
+      <c r="PC51" s="81"/>
+      <c r="PD51" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="PE51" s="85"/>
+      <c r="PE51" s="81"/>
       <c r="PF51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="PG51" s="85" t="s">
+      <c r="PG51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="PH51" s="86"/>
-      <c r="PL51" s="84" t="s">
+      <c r="PH51" s="82"/>
+      <c r="PL51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="PM51" s="85"/>
-      <c r="PN51" s="85"/>
-      <c r="PO51" s="85"/>
-      <c r="PP51" s="85"/>
-      <c r="PQ51" s="85"/>
-      <c r="PR51" s="85"/>
-      <c r="PS51" s="85"/>
-      <c r="PT51" s="85"/>
-      <c r="PU51" s="85"/>
-      <c r="PV51" s="85"/>
-      <c r="PW51" s="85"/>
-      <c r="PX51" s="85"/>
-      <c r="PY51" s="85"/>
-      <c r="PZ51" s="86"/>
-      <c r="QA51" s="84" t="s">
+      <c r="PM51" s="81"/>
+      <c r="PN51" s="81"/>
+      <c r="PO51" s="81"/>
+      <c r="PP51" s="81"/>
+      <c r="PQ51" s="81"/>
+      <c r="PR51" s="81"/>
+      <c r="PS51" s="81"/>
+      <c r="PT51" s="81"/>
+      <c r="PU51" s="81"/>
+      <c r="PV51" s="81"/>
+      <c r="PW51" s="81"/>
+      <c r="PX51" s="81"/>
+      <c r="PY51" s="81"/>
+      <c r="PZ51" s="82"/>
+      <c r="QA51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="QB51" s="85"/>
-      <c r="QC51" s="85" t="s">
+      <c r="QB51" s="81"/>
+      <c r="QC51" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="QD51" s="85"/>
+      <c r="QD51" s="81"/>
       <c r="QE51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="QF51" s="85" t="s">
+      <c r="QF51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="QG51" s="86"/>
-      <c r="QK51" s="84" t="s">
+      <c r="QG51" s="82"/>
+      <c r="QK51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="QL51" s="85"/>
-      <c r="QM51" s="85"/>
-      <c r="QN51" s="85"/>
-      <c r="QO51" s="85"/>
-      <c r="QP51" s="85"/>
-      <c r="QQ51" s="85"/>
-      <c r="QR51" s="85"/>
-      <c r="QS51" s="85"/>
-      <c r="QT51" s="85"/>
-      <c r="QU51" s="85"/>
-      <c r="QV51" s="85"/>
-      <c r="QW51" s="85"/>
-      <c r="QX51" s="85"/>
-      <c r="QY51" s="86"/>
-      <c r="QZ51" s="84" t="s">
+      <c r="QL51" s="81"/>
+      <c r="QM51" s="81"/>
+      <c r="QN51" s="81"/>
+      <c r="QO51" s="81"/>
+      <c r="QP51" s="81"/>
+      <c r="QQ51" s="81"/>
+      <c r="QR51" s="81"/>
+      <c r="QS51" s="81"/>
+      <c r="QT51" s="81"/>
+      <c r="QU51" s="81"/>
+      <c r="QV51" s="81"/>
+      <c r="QW51" s="81"/>
+      <c r="QX51" s="81"/>
+      <c r="QY51" s="82"/>
+      <c r="QZ51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="RA51" s="85"/>
-      <c r="RB51" s="85" t="s">
+      <c r="RA51" s="81"/>
+      <c r="RB51" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="RC51" s="85"/>
+      <c r="RC51" s="81"/>
       <c r="RD51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="RE51" s="85" t="s">
+      <c r="RE51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="RF51" s="86"/>
-      <c r="RJ51" s="84" t="s">
+      <c r="RF51" s="82"/>
+      <c r="RJ51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="RK51" s="85"/>
-      <c r="RL51" s="85"/>
-      <c r="RM51" s="85"/>
-      <c r="RN51" s="85"/>
-      <c r="RO51" s="85"/>
-      <c r="RP51" s="85"/>
-      <c r="RQ51" s="85"/>
-      <c r="RR51" s="85"/>
-      <c r="RS51" s="85"/>
-      <c r="RT51" s="85"/>
-      <c r="RU51" s="85"/>
-      <c r="RV51" s="85"/>
-      <c r="RW51" s="85"/>
-      <c r="RX51" s="86"/>
-      <c r="RY51" s="84" t="s">
+      <c r="RK51" s="81"/>
+      <c r="RL51" s="81"/>
+      <c r="RM51" s="81"/>
+      <c r="RN51" s="81"/>
+      <c r="RO51" s="81"/>
+      <c r="RP51" s="81"/>
+      <c r="RQ51" s="81"/>
+      <c r="RR51" s="81"/>
+      <c r="RS51" s="81"/>
+      <c r="RT51" s="81"/>
+      <c r="RU51" s="81"/>
+      <c r="RV51" s="81"/>
+      <c r="RW51" s="81"/>
+      <c r="RX51" s="82"/>
+      <c r="RY51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="RZ51" s="85"/>
-      <c r="SA51" s="85" t="s">
+      <c r="RZ51" s="81"/>
+      <c r="SA51" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="SB51" s="85"/>
+      <c r="SB51" s="81"/>
       <c r="SC51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="SD51" s="85" t="s">
+      <c r="SD51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="SE51" s="86"/>
-      <c r="SI51" s="84" t="s">
+      <c r="SE51" s="82"/>
+      <c r="SI51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="SJ51" s="85"/>
-      <c r="SK51" s="85"/>
-      <c r="SL51" s="85"/>
-      <c r="SM51" s="85"/>
-      <c r="SN51" s="85"/>
-      <c r="SO51" s="85"/>
-      <c r="SP51" s="85"/>
-      <c r="SQ51" s="85"/>
-      <c r="SR51" s="85"/>
-      <c r="SS51" s="85"/>
-      <c r="ST51" s="85"/>
-      <c r="SU51" s="85"/>
-      <c r="SV51" s="85"/>
-      <c r="SW51" s="86"/>
-      <c r="SX51" s="84" t="s">
+      <c r="SJ51" s="81"/>
+      <c r="SK51" s="81"/>
+      <c r="SL51" s="81"/>
+      <c r="SM51" s="81"/>
+      <c r="SN51" s="81"/>
+      <c r="SO51" s="81"/>
+      <c r="SP51" s="81"/>
+      <c r="SQ51" s="81"/>
+      <c r="SR51" s="81"/>
+      <c r="SS51" s="81"/>
+      <c r="ST51" s="81"/>
+      <c r="SU51" s="81"/>
+      <c r="SV51" s="81"/>
+      <c r="SW51" s="82"/>
+      <c r="SX51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="SY51" s="85"/>
-      <c r="SZ51" s="85" t="s">
+      <c r="SY51" s="81"/>
+      <c r="SZ51" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="TA51" s="85"/>
+      <c r="TA51" s="81"/>
       <c r="TB51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="TC51" s="85" t="s">
+      <c r="TC51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="TD51" s="86"/>
-      <c r="TH51" s="84" t="s">
+      <c r="TD51" s="82"/>
+      <c r="TH51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="TI51" s="85"/>
-      <c r="TJ51" s="85"/>
-      <c r="TK51" s="85"/>
-      <c r="TL51" s="85"/>
-      <c r="TM51" s="85"/>
-      <c r="TN51" s="85"/>
-      <c r="TO51" s="85"/>
-      <c r="TP51" s="85"/>
-      <c r="TQ51" s="85"/>
-      <c r="TR51" s="85"/>
-      <c r="TS51" s="85"/>
-      <c r="TT51" s="85"/>
-      <c r="TU51" s="85"/>
-      <c r="TV51" s="86"/>
-      <c r="TW51" s="84" t="s">
+      <c r="TI51" s="81"/>
+      <c r="TJ51" s="81"/>
+      <c r="TK51" s="81"/>
+      <c r="TL51" s="81"/>
+      <c r="TM51" s="81"/>
+      <c r="TN51" s="81"/>
+      <c r="TO51" s="81"/>
+      <c r="TP51" s="81"/>
+      <c r="TQ51" s="81"/>
+      <c r="TR51" s="81"/>
+      <c r="TS51" s="81"/>
+      <c r="TT51" s="81"/>
+      <c r="TU51" s="81"/>
+      <c r="TV51" s="82"/>
+      <c r="TW51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="TX51" s="85"/>
-      <c r="TY51" s="85" t="s">
+      <c r="TX51" s="81"/>
+      <c r="TY51" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="TZ51" s="85"/>
+      <c r="TZ51" s="81"/>
       <c r="UA51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="UB51" s="85" t="s">
+      <c r="UB51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="UC51" s="86"/>
-      <c r="UG51" s="84" t="s">
+      <c r="UC51" s="82"/>
+      <c r="UG51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="UH51" s="85"/>
-      <c r="UI51" s="85"/>
-      <c r="UJ51" s="85"/>
-      <c r="UK51" s="85"/>
-      <c r="UL51" s="85"/>
-      <c r="UM51" s="85"/>
-      <c r="UN51" s="85"/>
-      <c r="UO51" s="85"/>
-      <c r="UP51" s="85"/>
-      <c r="UQ51" s="85"/>
-      <c r="UR51" s="85"/>
-      <c r="US51" s="85"/>
-      <c r="UT51" s="85"/>
-      <c r="UU51" s="86"/>
-      <c r="UV51" s="84" t="s">
+      <c r="UH51" s="81"/>
+      <c r="UI51" s="81"/>
+      <c r="UJ51" s="81"/>
+      <c r="UK51" s="81"/>
+      <c r="UL51" s="81"/>
+      <c r="UM51" s="81"/>
+      <c r="UN51" s="81"/>
+      <c r="UO51" s="81"/>
+      <c r="UP51" s="81"/>
+      <c r="UQ51" s="81"/>
+      <c r="UR51" s="81"/>
+      <c r="US51" s="81"/>
+      <c r="UT51" s="81"/>
+      <c r="UU51" s="82"/>
+      <c r="UV51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="UW51" s="85"/>
-      <c r="UX51" s="85" t="s">
+      <c r="UW51" s="81"/>
+      <c r="UX51" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="UY51" s="85"/>
+      <c r="UY51" s="81"/>
       <c r="UZ51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="VA51" s="85" t="s">
+      <c r="VA51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="VB51" s="86"/>
-      <c r="VF51" s="84" t="s">
+      <c r="VB51" s="82"/>
+      <c r="VF51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="VG51" s="85"/>
-      <c r="VH51" s="85"/>
-      <c r="VI51" s="85"/>
-      <c r="VJ51" s="85"/>
-      <c r="VK51" s="85"/>
-      <c r="VL51" s="85"/>
-      <c r="VM51" s="85"/>
-      <c r="VN51" s="85"/>
-      <c r="VO51" s="85"/>
-      <c r="VP51" s="85"/>
-      <c r="VQ51" s="85"/>
-      <c r="VR51" s="85"/>
-      <c r="VS51" s="85"/>
-      <c r="VT51" s="86"/>
-      <c r="VU51" s="84" t="s">
+      <c r="VG51" s="81"/>
+      <c r="VH51" s="81"/>
+      <c r="VI51" s="81"/>
+      <c r="VJ51" s="81"/>
+      <c r="VK51" s="81"/>
+      <c r="VL51" s="81"/>
+      <c r="VM51" s="81"/>
+      <c r="VN51" s="81"/>
+      <c r="VO51" s="81"/>
+      <c r="VP51" s="81"/>
+      <c r="VQ51" s="81"/>
+      <c r="VR51" s="81"/>
+      <c r="VS51" s="81"/>
+      <c r="VT51" s="82"/>
+      <c r="VU51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="VV51" s="85"/>
-      <c r="VW51" s="85" t="s">
+      <c r="VV51" s="81"/>
+      <c r="VW51" s="81" t="s">
         <v>290</v>
       </c>
-      <c r="VX51" s="85"/>
+      <c r="VX51" s="81"/>
       <c r="VY51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="VZ51" s="85" t="s">
+      <c r="VZ51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="WA51" s="86"/>
-      <c r="WE51" s="84" t="s">
+      <c r="WA51" s="82"/>
+      <c r="WE51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="WF51" s="85"/>
-      <c r="WG51" s="85"/>
-      <c r="WH51" s="85"/>
-      <c r="WI51" s="85"/>
-      <c r="WJ51" s="85"/>
-      <c r="WK51" s="85"/>
-      <c r="WL51" s="85"/>
-      <c r="WM51" s="85"/>
-      <c r="WN51" s="85"/>
-      <c r="WO51" s="85"/>
-      <c r="WP51" s="85"/>
-      <c r="WQ51" s="85"/>
-      <c r="WR51" s="85"/>
-      <c r="WS51" s="86"/>
-      <c r="WT51" s="84" t="s">
+      <c r="WF51" s="81"/>
+      <c r="WG51" s="81"/>
+      <c r="WH51" s="81"/>
+      <c r="WI51" s="81"/>
+      <c r="WJ51" s="81"/>
+      <c r="WK51" s="81"/>
+      <c r="WL51" s="81"/>
+      <c r="WM51" s="81"/>
+      <c r="WN51" s="81"/>
+      <c r="WO51" s="81"/>
+      <c r="WP51" s="81"/>
+      <c r="WQ51" s="81"/>
+      <c r="WR51" s="81"/>
+      <c r="WS51" s="82"/>
+      <c r="WT51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="WU51" s="85"/>
-      <c r="WV51" s="85" t="s">
+      <c r="WU51" s="81"/>
+      <c r="WV51" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="WW51" s="85"/>
+      <c r="WW51" s="81"/>
       <c r="WX51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="WY51" s="85" t="s">
+      <c r="WY51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="WZ51" s="86"/>
-      <c r="XD51" s="84" t="s">
+      <c r="WZ51" s="82"/>
+      <c r="XD51" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="XE51" s="85"/>
-      <c r="XF51" s="85"/>
-      <c r="XG51" s="85"/>
-      <c r="XH51" s="85"/>
-      <c r="XI51" s="85"/>
-      <c r="XJ51" s="85"/>
-      <c r="XK51" s="85"/>
-      <c r="XL51" s="85"/>
-      <c r="XM51" s="85"/>
-      <c r="XN51" s="85"/>
-      <c r="XO51" s="85"/>
-      <c r="XP51" s="85"/>
-      <c r="XQ51" s="85"/>
-      <c r="XR51" s="86"/>
-      <c r="XS51" s="84" t="s">
+      <c r="XE51" s="81"/>
+      <c r="XF51" s="81"/>
+      <c r="XG51" s="81"/>
+      <c r="XH51" s="81"/>
+      <c r="XI51" s="81"/>
+      <c r="XJ51" s="81"/>
+      <c r="XK51" s="81"/>
+      <c r="XL51" s="81"/>
+      <c r="XM51" s="81"/>
+      <c r="XN51" s="81"/>
+      <c r="XO51" s="81"/>
+      <c r="XP51" s="81"/>
+      <c r="XQ51" s="81"/>
+      <c r="XR51" s="82"/>
+      <c r="XS51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="XT51" s="85"/>
-      <c r="XU51" s="85" t="s">
+      <c r="XT51" s="81"/>
+      <c r="XU51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="XV51" s="85"/>
+      <c r="XV51" s="81"/>
       <c r="XW51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="XX51" s="85" t="s">
+      <c r="XX51" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="XY51" s="86"/>
+      <c r="XY51" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="360">
-    <mergeCell ref="XD51:XR51"/>
-    <mergeCell ref="XS51:XT51"/>
-    <mergeCell ref="XU51:XV51"/>
-    <mergeCell ref="XX51:XY51"/>
-    <mergeCell ref="VA51:VB51"/>
-    <mergeCell ref="VF51:VT51"/>
-    <mergeCell ref="VU51:VV51"/>
-    <mergeCell ref="VW51:VX51"/>
-    <mergeCell ref="VZ51:WA51"/>
-    <mergeCell ref="WE51:WS51"/>
-    <mergeCell ref="WT51:WU51"/>
-    <mergeCell ref="WV51:WW51"/>
-    <mergeCell ref="WY51:WZ51"/>
-    <mergeCell ref="SZ51:TA51"/>
-    <mergeCell ref="TC51:TD51"/>
-    <mergeCell ref="TH51:TV51"/>
-    <mergeCell ref="TW51:TX51"/>
-    <mergeCell ref="TY51:TZ51"/>
-    <mergeCell ref="UB51:UC51"/>
-    <mergeCell ref="UG51:UU51"/>
-    <mergeCell ref="UV51:UW51"/>
-    <mergeCell ref="UX51:UY51"/>
-    <mergeCell ref="QZ51:RA51"/>
-    <mergeCell ref="RB51:RC51"/>
-    <mergeCell ref="RE51:RF51"/>
-    <mergeCell ref="RJ51:RX51"/>
-    <mergeCell ref="RY51:RZ51"/>
-    <mergeCell ref="SA51:SB51"/>
-    <mergeCell ref="SD51:SE51"/>
-    <mergeCell ref="SI51:SW51"/>
-    <mergeCell ref="SX51:SY51"/>
-    <mergeCell ref="OM51:PA51"/>
-    <mergeCell ref="PB51:PC51"/>
-    <mergeCell ref="PD51:PE51"/>
-    <mergeCell ref="PG51:PH51"/>
-    <mergeCell ref="PL51:PZ51"/>
-    <mergeCell ref="QA51:QB51"/>
-    <mergeCell ref="QC51:QD51"/>
-    <mergeCell ref="QF51:QG51"/>
-    <mergeCell ref="QK51:QY51"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AO2:AP3"/>
+    <mergeCell ref="BB2:BC3"/>
+    <mergeCell ref="BN2:BO3"/>
+    <mergeCell ref="FW2:FX3"/>
+    <mergeCell ref="GI2:GJ3"/>
+    <mergeCell ref="GV2:GW3"/>
+    <mergeCell ref="HH2:HI3"/>
+    <mergeCell ref="CA2:CB3"/>
+    <mergeCell ref="CM2:CN3"/>
+    <mergeCell ref="CZ2:DA3"/>
+    <mergeCell ref="DL2:DM3"/>
+    <mergeCell ref="DY2:DZ3"/>
+    <mergeCell ref="EK2:EL3"/>
+    <mergeCell ref="CZ12:DA13"/>
+    <mergeCell ref="DL12:DM13"/>
+    <mergeCell ref="DY12:DZ13"/>
+    <mergeCell ref="EK12:EL13"/>
+    <mergeCell ref="EX12:EY13"/>
+    <mergeCell ref="FJ12:FK13"/>
+    <mergeCell ref="FW12:FX13"/>
+    <mergeCell ref="GI12:GJ13"/>
+    <mergeCell ref="GV12:GW13"/>
+    <mergeCell ref="HH12:HI13"/>
+    <mergeCell ref="KR2:KS3"/>
+    <mergeCell ref="LD2:LE3"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="AC12:AD13"/>
+    <mergeCell ref="AO12:AP13"/>
+    <mergeCell ref="BB12:BC13"/>
+    <mergeCell ref="BN12:BO13"/>
+    <mergeCell ref="CA12:CB13"/>
+    <mergeCell ref="CM12:CN13"/>
+    <mergeCell ref="HU2:HV3"/>
+    <mergeCell ref="IG2:IH3"/>
+    <mergeCell ref="IT2:IU3"/>
+    <mergeCell ref="JF2:JG3"/>
+    <mergeCell ref="JS2:JT3"/>
+    <mergeCell ref="KE2:KF3"/>
+    <mergeCell ref="EX2:EY3"/>
+    <mergeCell ref="FJ2:FK3"/>
+    <mergeCell ref="IT12:IU13"/>
+    <mergeCell ref="JF12:JG13"/>
+    <mergeCell ref="JS12:JT13"/>
+    <mergeCell ref="KE12:KF13"/>
+    <mergeCell ref="KR12:KS13"/>
+    <mergeCell ref="LD12:LE13"/>
+    <mergeCell ref="HU12:HV13"/>
+    <mergeCell ref="IG12:IH13"/>
+    <mergeCell ref="CZ22:DA23"/>
+    <mergeCell ref="DL22:DM23"/>
+    <mergeCell ref="DY22:DZ23"/>
+    <mergeCell ref="EK22:EL23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="AC22:AD23"/>
+    <mergeCell ref="AO22:AP23"/>
+    <mergeCell ref="BB22:BC23"/>
+    <mergeCell ref="BN22:BO23"/>
+    <mergeCell ref="KR22:KS23"/>
+    <mergeCell ref="LD22:LE23"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="P32:Q33"/>
+    <mergeCell ref="AC32:AD33"/>
+    <mergeCell ref="AO32:AP33"/>
+    <mergeCell ref="BB32:BC33"/>
+    <mergeCell ref="BN32:BO33"/>
+    <mergeCell ref="CA32:CB33"/>
+    <mergeCell ref="CM32:CN33"/>
+    <mergeCell ref="HU22:HV23"/>
+    <mergeCell ref="IG22:IH23"/>
+    <mergeCell ref="IT22:IU23"/>
+    <mergeCell ref="JF22:JG23"/>
+    <mergeCell ref="JS22:JT23"/>
+    <mergeCell ref="KE22:KF23"/>
+    <mergeCell ref="EX22:EY23"/>
+    <mergeCell ref="FJ22:FK23"/>
+    <mergeCell ref="FW22:FX23"/>
+    <mergeCell ref="GI22:GJ23"/>
+    <mergeCell ref="GV22:GW23"/>
+    <mergeCell ref="HH22:HI23"/>
+    <mergeCell ref="CA22:CB23"/>
+    <mergeCell ref="CM22:CN23"/>
+    <mergeCell ref="IT32:IU33"/>
+    <mergeCell ref="JF32:JG33"/>
+    <mergeCell ref="JS32:JT33"/>
+    <mergeCell ref="KE32:KF33"/>
+    <mergeCell ref="KR32:KS33"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="P42:Q43"/>
+    <mergeCell ref="AC42:AD43"/>
+    <mergeCell ref="AO42:AP43"/>
+    <mergeCell ref="BB42:BC43"/>
+    <mergeCell ref="FW32:FX33"/>
+    <mergeCell ref="GI32:GJ33"/>
+    <mergeCell ref="GV32:GW33"/>
+    <mergeCell ref="HH32:HI33"/>
+    <mergeCell ref="HU32:HV33"/>
+    <mergeCell ref="IG32:IH33"/>
+    <mergeCell ref="CZ32:DA33"/>
+    <mergeCell ref="DL32:DM33"/>
+    <mergeCell ref="DY32:DZ33"/>
+    <mergeCell ref="EK32:EL33"/>
+    <mergeCell ref="EX32:EY33"/>
+    <mergeCell ref="FJ32:FK33"/>
+    <mergeCell ref="FJ42:FK43"/>
+    <mergeCell ref="FW42:FX43"/>
+    <mergeCell ref="GI42:GJ43"/>
+    <mergeCell ref="GV42:GW43"/>
+    <mergeCell ref="BN42:BO43"/>
+    <mergeCell ref="CA42:CB43"/>
+    <mergeCell ref="CM42:CN43"/>
+    <mergeCell ref="CZ42:DA43"/>
+    <mergeCell ref="DL42:DM43"/>
+    <mergeCell ref="DY42:DZ43"/>
+    <mergeCell ref="BA51:BO51"/>
+    <mergeCell ref="BP51:BQ51"/>
+    <mergeCell ref="BR51:BS51"/>
+    <mergeCell ref="BU51:BV51"/>
+    <mergeCell ref="BZ51:CN51"/>
+    <mergeCell ref="CO51:CP51"/>
+    <mergeCell ref="CQ51:CR51"/>
+    <mergeCell ref="CT51:CU51"/>
+    <mergeCell ref="CY51:DM51"/>
+    <mergeCell ref="DN51:DO51"/>
+    <mergeCell ref="DP51:DQ51"/>
+    <mergeCell ref="DS51:DT51"/>
+    <mergeCell ref="GU51:HI51"/>
+    <mergeCell ref="KE42:KF43"/>
+    <mergeCell ref="KR42:KS43"/>
+    <mergeCell ref="C51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="AB51:AP51"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AS51:AT51"/>
+    <mergeCell ref="AV51:AW51"/>
+    <mergeCell ref="HH42:HI43"/>
+    <mergeCell ref="HU42:HV43"/>
+    <mergeCell ref="IG42:IH43"/>
+    <mergeCell ref="IT42:IU43"/>
+    <mergeCell ref="JF42:JG43"/>
+    <mergeCell ref="JS42:JT43"/>
+    <mergeCell ref="EK42:EL43"/>
+    <mergeCell ref="EX42:EY43"/>
+    <mergeCell ref="DX51:EL51"/>
+    <mergeCell ref="EM51:EN51"/>
+    <mergeCell ref="EO51:EP51"/>
+    <mergeCell ref="ER51:ES51"/>
+    <mergeCell ref="EW51:FK51"/>
+    <mergeCell ref="FL51:FM51"/>
+    <mergeCell ref="HJ51:HK51"/>
+    <mergeCell ref="HL51:HM51"/>
+    <mergeCell ref="HO51:HP51"/>
+    <mergeCell ref="HT51:IH51"/>
+    <mergeCell ref="II51:IJ51"/>
+    <mergeCell ref="FN51:FO51"/>
+    <mergeCell ref="FQ51:FR51"/>
+    <mergeCell ref="FV51:GJ51"/>
+    <mergeCell ref="GK51:GL51"/>
+    <mergeCell ref="GM51:GN51"/>
+    <mergeCell ref="GP51:GQ51"/>
+    <mergeCell ref="LH51:LI51"/>
+    <mergeCell ref="LK51:LL51"/>
+    <mergeCell ref="JR51:KF51"/>
+    <mergeCell ref="KG51:KH51"/>
+    <mergeCell ref="KI51:KJ51"/>
+    <mergeCell ref="KL51:KM51"/>
+    <mergeCell ref="KQ51:LE51"/>
+    <mergeCell ref="LF51:LG51"/>
+    <mergeCell ref="IK51:IL51"/>
+    <mergeCell ref="IN51:IO51"/>
+    <mergeCell ref="IS51:JG51"/>
+    <mergeCell ref="JH51:JI51"/>
+    <mergeCell ref="JJ51:JK51"/>
+    <mergeCell ref="JM51:JN51"/>
+    <mergeCell ref="LQ2:LR3"/>
+    <mergeCell ref="MC2:MD3"/>
+    <mergeCell ref="MP2:MQ3"/>
+    <mergeCell ref="NB2:NC3"/>
+    <mergeCell ref="NO2:NP3"/>
+    <mergeCell ref="OA2:OB3"/>
+    <mergeCell ref="ON2:OO3"/>
+    <mergeCell ref="OZ2:PA3"/>
+    <mergeCell ref="PM2:PN3"/>
+    <mergeCell ref="PY2:PZ3"/>
+    <mergeCell ref="QL2:QM3"/>
+    <mergeCell ref="QX2:QY3"/>
+    <mergeCell ref="RK2:RL3"/>
+    <mergeCell ref="RW2:RX3"/>
+    <mergeCell ref="SJ2:SK3"/>
+    <mergeCell ref="SV2:SW3"/>
+    <mergeCell ref="TI2:TJ3"/>
+    <mergeCell ref="TU2:TV3"/>
+    <mergeCell ref="UH2:UI3"/>
+    <mergeCell ref="UT2:UU3"/>
+    <mergeCell ref="VG2:VH3"/>
+    <mergeCell ref="VS2:VT3"/>
+    <mergeCell ref="WF2:WG3"/>
+    <mergeCell ref="WR2:WS3"/>
+    <mergeCell ref="XE2:XF3"/>
+    <mergeCell ref="XQ2:XR3"/>
+    <mergeCell ref="LQ12:LR13"/>
+    <mergeCell ref="MC12:MD13"/>
+    <mergeCell ref="MP12:MQ13"/>
+    <mergeCell ref="NB12:NC13"/>
+    <mergeCell ref="NO12:NP13"/>
+    <mergeCell ref="OA12:OB13"/>
+    <mergeCell ref="ON12:OO13"/>
+    <mergeCell ref="OZ12:PA13"/>
+    <mergeCell ref="PM12:PN13"/>
+    <mergeCell ref="PY12:PZ13"/>
+    <mergeCell ref="QL12:QM13"/>
+    <mergeCell ref="QX12:QY13"/>
+    <mergeCell ref="RK12:RL13"/>
+    <mergeCell ref="RW12:RX13"/>
+    <mergeCell ref="SJ12:SK13"/>
+    <mergeCell ref="SV12:SW13"/>
+    <mergeCell ref="TI12:TJ13"/>
+    <mergeCell ref="TU12:TV13"/>
+    <mergeCell ref="UH12:UI13"/>
+    <mergeCell ref="UT12:UU13"/>
+    <mergeCell ref="VG12:VH13"/>
+    <mergeCell ref="VS12:VT13"/>
+    <mergeCell ref="WF12:WG13"/>
+    <mergeCell ref="WR12:WS13"/>
+    <mergeCell ref="XE12:XF13"/>
+    <mergeCell ref="LQ22:LR23"/>
+    <mergeCell ref="MC22:MD23"/>
+    <mergeCell ref="MP22:MQ23"/>
+    <mergeCell ref="NB22:NC23"/>
+    <mergeCell ref="NO22:NP23"/>
+    <mergeCell ref="OA22:OB23"/>
+    <mergeCell ref="ON22:OO23"/>
+    <mergeCell ref="OZ22:PA23"/>
+    <mergeCell ref="PM22:PN23"/>
+    <mergeCell ref="PY22:PZ23"/>
+    <mergeCell ref="QL22:QM23"/>
+    <mergeCell ref="QX22:QY23"/>
+    <mergeCell ref="RK22:RL23"/>
+    <mergeCell ref="RW22:RX23"/>
+    <mergeCell ref="SJ22:SK23"/>
+    <mergeCell ref="SV22:SW23"/>
+    <mergeCell ref="TI22:TJ23"/>
+    <mergeCell ref="TU22:TV23"/>
+    <mergeCell ref="UH22:UI23"/>
+    <mergeCell ref="UT22:UU23"/>
+    <mergeCell ref="VG22:VH23"/>
+    <mergeCell ref="VS22:VT23"/>
+    <mergeCell ref="WF22:WG23"/>
+    <mergeCell ref="WR22:WS23"/>
+    <mergeCell ref="XE22:XF23"/>
+    <mergeCell ref="LD32:LE33"/>
+    <mergeCell ref="LQ32:LR33"/>
+    <mergeCell ref="MC32:MD33"/>
+    <mergeCell ref="MP32:MQ33"/>
+    <mergeCell ref="NB32:NC33"/>
+    <mergeCell ref="NO32:NP33"/>
+    <mergeCell ref="OA32:OB33"/>
+    <mergeCell ref="ON32:OO33"/>
+    <mergeCell ref="OZ32:PA33"/>
+    <mergeCell ref="PM32:PN33"/>
+    <mergeCell ref="PY32:PZ33"/>
+    <mergeCell ref="QL32:QM33"/>
+    <mergeCell ref="QX32:QY33"/>
+    <mergeCell ref="RK32:RL33"/>
+    <mergeCell ref="RW32:RX33"/>
+    <mergeCell ref="SJ32:SK33"/>
+    <mergeCell ref="SV32:SW33"/>
+    <mergeCell ref="TI32:TJ33"/>
+    <mergeCell ref="TU32:TV33"/>
+    <mergeCell ref="UH32:UI33"/>
+    <mergeCell ref="UT32:UU33"/>
+    <mergeCell ref="VG32:VH33"/>
+    <mergeCell ref="VS32:VT33"/>
+    <mergeCell ref="WF32:WG33"/>
+    <mergeCell ref="WR32:WS33"/>
+    <mergeCell ref="XE32:XF33"/>
+    <mergeCell ref="RK42:RL43"/>
+    <mergeCell ref="RW42:RX43"/>
+    <mergeCell ref="SJ42:SK43"/>
+    <mergeCell ref="SV42:SW43"/>
+    <mergeCell ref="TI42:TJ43"/>
+    <mergeCell ref="LD42:LE43"/>
+    <mergeCell ref="LQ42:LR43"/>
+    <mergeCell ref="MC42:MD43"/>
+    <mergeCell ref="MP42:MQ43"/>
+    <mergeCell ref="NB42:NC43"/>
+    <mergeCell ref="NO42:NP43"/>
+    <mergeCell ref="OA42:OB43"/>
+    <mergeCell ref="ON42:OO43"/>
+    <mergeCell ref="OZ42:PA43"/>
     <mergeCell ref="TU42:TV43"/>
     <mergeCell ref="UH42:UI43"/>
     <mergeCell ref="UT42:UU43"/>
@@ -35611,309 +35890,53 @@
     <mergeCell ref="PY42:PZ43"/>
     <mergeCell ref="QL42:QM43"/>
     <mergeCell ref="QX42:QY43"/>
-    <mergeCell ref="RK42:RL43"/>
-    <mergeCell ref="RW42:RX43"/>
-    <mergeCell ref="SJ42:SK43"/>
-    <mergeCell ref="SV42:SW43"/>
-    <mergeCell ref="TI42:TJ43"/>
-    <mergeCell ref="LD42:LE43"/>
-    <mergeCell ref="LQ42:LR43"/>
-    <mergeCell ref="MC42:MD43"/>
-    <mergeCell ref="MP42:MQ43"/>
-    <mergeCell ref="NB42:NC43"/>
-    <mergeCell ref="NO42:NP43"/>
-    <mergeCell ref="OA42:OB43"/>
-    <mergeCell ref="ON42:OO43"/>
-    <mergeCell ref="OZ42:PA43"/>
-    <mergeCell ref="TI32:TJ33"/>
-    <mergeCell ref="TU32:TV33"/>
-    <mergeCell ref="UH32:UI33"/>
-    <mergeCell ref="UT32:UU33"/>
-    <mergeCell ref="VG32:VH33"/>
-    <mergeCell ref="VS32:VT33"/>
-    <mergeCell ref="WF32:WG33"/>
-    <mergeCell ref="WR32:WS33"/>
-    <mergeCell ref="XE32:XF33"/>
-    <mergeCell ref="UH22:UI23"/>
-    <mergeCell ref="UT22:UU23"/>
-    <mergeCell ref="VG22:VH23"/>
-    <mergeCell ref="VS22:VT23"/>
-    <mergeCell ref="WF22:WG23"/>
-    <mergeCell ref="WR22:WS23"/>
-    <mergeCell ref="XE22:XF23"/>
-    <mergeCell ref="LD32:LE33"/>
-    <mergeCell ref="LQ32:LR33"/>
-    <mergeCell ref="MC32:MD33"/>
-    <mergeCell ref="MP32:MQ33"/>
-    <mergeCell ref="NB32:NC33"/>
-    <mergeCell ref="NO32:NP33"/>
-    <mergeCell ref="OA32:OB33"/>
-    <mergeCell ref="ON32:OO33"/>
-    <mergeCell ref="OZ32:PA33"/>
-    <mergeCell ref="PM32:PN33"/>
-    <mergeCell ref="PY32:PZ33"/>
-    <mergeCell ref="QL32:QM33"/>
-    <mergeCell ref="QX32:QY33"/>
-    <mergeCell ref="RK32:RL33"/>
-    <mergeCell ref="RW32:RX33"/>
-    <mergeCell ref="SJ32:SK33"/>
-    <mergeCell ref="SV32:SW33"/>
-    <mergeCell ref="PY22:PZ23"/>
-    <mergeCell ref="QL22:QM23"/>
-    <mergeCell ref="QX22:QY23"/>
-    <mergeCell ref="RK22:RL23"/>
-    <mergeCell ref="RW22:RX23"/>
-    <mergeCell ref="SJ22:SK23"/>
-    <mergeCell ref="SV22:SW23"/>
-    <mergeCell ref="TI22:TJ23"/>
-    <mergeCell ref="TU22:TV23"/>
-    <mergeCell ref="LQ22:LR23"/>
-    <mergeCell ref="MC22:MD23"/>
-    <mergeCell ref="MP22:MQ23"/>
-    <mergeCell ref="NB22:NC23"/>
-    <mergeCell ref="NO22:NP23"/>
-    <mergeCell ref="OA22:OB23"/>
-    <mergeCell ref="ON22:OO23"/>
-    <mergeCell ref="OZ22:PA23"/>
-    <mergeCell ref="PM22:PN23"/>
-    <mergeCell ref="TI12:TJ13"/>
-    <mergeCell ref="TU12:TV13"/>
-    <mergeCell ref="UH12:UI13"/>
-    <mergeCell ref="UT12:UU13"/>
-    <mergeCell ref="VG12:VH13"/>
-    <mergeCell ref="VS12:VT13"/>
-    <mergeCell ref="WF12:WG13"/>
-    <mergeCell ref="WR12:WS13"/>
-    <mergeCell ref="XE12:XF13"/>
-    <mergeCell ref="UH2:UI3"/>
-    <mergeCell ref="UT2:UU3"/>
-    <mergeCell ref="VG2:VH3"/>
-    <mergeCell ref="VS2:VT3"/>
-    <mergeCell ref="WF2:WG3"/>
-    <mergeCell ref="WR2:WS3"/>
-    <mergeCell ref="XE2:XF3"/>
-    <mergeCell ref="XQ2:XR3"/>
-    <mergeCell ref="LQ12:LR13"/>
-    <mergeCell ref="MC12:MD13"/>
-    <mergeCell ref="MP12:MQ13"/>
-    <mergeCell ref="NB12:NC13"/>
-    <mergeCell ref="NO12:NP13"/>
-    <mergeCell ref="OA12:OB13"/>
-    <mergeCell ref="ON12:OO13"/>
-    <mergeCell ref="OZ12:PA13"/>
-    <mergeCell ref="PM12:PN13"/>
-    <mergeCell ref="PY12:PZ13"/>
-    <mergeCell ref="QL12:QM13"/>
-    <mergeCell ref="QX12:QY13"/>
-    <mergeCell ref="RK12:RL13"/>
-    <mergeCell ref="RW12:RX13"/>
-    <mergeCell ref="SJ12:SK13"/>
-    <mergeCell ref="SV12:SW13"/>
-    <mergeCell ref="PY2:PZ3"/>
-    <mergeCell ref="QL2:QM3"/>
-    <mergeCell ref="QX2:QY3"/>
-    <mergeCell ref="RK2:RL3"/>
-    <mergeCell ref="RW2:RX3"/>
-    <mergeCell ref="SJ2:SK3"/>
-    <mergeCell ref="SV2:SW3"/>
-    <mergeCell ref="TI2:TJ3"/>
-    <mergeCell ref="TU2:TV3"/>
-    <mergeCell ref="LQ2:LR3"/>
-    <mergeCell ref="MC2:MD3"/>
-    <mergeCell ref="MP2:MQ3"/>
-    <mergeCell ref="NB2:NC3"/>
-    <mergeCell ref="NO2:NP3"/>
-    <mergeCell ref="OA2:OB3"/>
-    <mergeCell ref="ON2:OO3"/>
-    <mergeCell ref="OZ2:PA3"/>
-    <mergeCell ref="PM2:PN3"/>
-    <mergeCell ref="LH51:LI51"/>
-    <mergeCell ref="LK51:LL51"/>
-    <mergeCell ref="JR51:KF51"/>
-    <mergeCell ref="KG51:KH51"/>
-    <mergeCell ref="KI51:KJ51"/>
-    <mergeCell ref="KL51:KM51"/>
-    <mergeCell ref="KQ51:LE51"/>
-    <mergeCell ref="LF51:LG51"/>
-    <mergeCell ref="IK51:IL51"/>
-    <mergeCell ref="IN51:IO51"/>
-    <mergeCell ref="IS51:JG51"/>
-    <mergeCell ref="JH51:JI51"/>
-    <mergeCell ref="JJ51:JK51"/>
-    <mergeCell ref="JM51:JN51"/>
-    <mergeCell ref="HJ51:HK51"/>
-    <mergeCell ref="HL51:HM51"/>
-    <mergeCell ref="HO51:HP51"/>
-    <mergeCell ref="HT51:IH51"/>
-    <mergeCell ref="II51:IJ51"/>
-    <mergeCell ref="FN51:FO51"/>
-    <mergeCell ref="FQ51:FR51"/>
-    <mergeCell ref="FV51:GJ51"/>
-    <mergeCell ref="GK51:GL51"/>
-    <mergeCell ref="GM51:GN51"/>
-    <mergeCell ref="GP51:GQ51"/>
-    <mergeCell ref="KE42:KF43"/>
-    <mergeCell ref="KR42:KS43"/>
-    <mergeCell ref="C51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="AB51:AP51"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AS51:AT51"/>
-    <mergeCell ref="AV51:AW51"/>
-    <mergeCell ref="HH42:HI43"/>
-    <mergeCell ref="HU42:HV43"/>
-    <mergeCell ref="IG42:IH43"/>
-    <mergeCell ref="IT42:IU43"/>
-    <mergeCell ref="JF42:JG43"/>
-    <mergeCell ref="JS42:JT43"/>
-    <mergeCell ref="EK42:EL43"/>
-    <mergeCell ref="EX42:EY43"/>
-    <mergeCell ref="DX51:EL51"/>
-    <mergeCell ref="EM51:EN51"/>
-    <mergeCell ref="EO51:EP51"/>
-    <mergeCell ref="ER51:ES51"/>
-    <mergeCell ref="EW51:FK51"/>
-    <mergeCell ref="FL51:FM51"/>
-    <mergeCell ref="GI42:GJ43"/>
-    <mergeCell ref="GV42:GW43"/>
-    <mergeCell ref="BN42:BO43"/>
-    <mergeCell ref="CA42:CB43"/>
-    <mergeCell ref="CM42:CN43"/>
-    <mergeCell ref="CZ42:DA43"/>
-    <mergeCell ref="DL42:DM43"/>
-    <mergeCell ref="DY42:DZ43"/>
-    <mergeCell ref="BA51:BO51"/>
-    <mergeCell ref="BP51:BQ51"/>
-    <mergeCell ref="BR51:BS51"/>
-    <mergeCell ref="BU51:BV51"/>
-    <mergeCell ref="BZ51:CN51"/>
-    <mergeCell ref="CO51:CP51"/>
-    <mergeCell ref="CQ51:CR51"/>
-    <mergeCell ref="CT51:CU51"/>
-    <mergeCell ref="CY51:DM51"/>
-    <mergeCell ref="DN51:DO51"/>
-    <mergeCell ref="DP51:DQ51"/>
-    <mergeCell ref="DS51:DT51"/>
-    <mergeCell ref="GU51:HI51"/>
-    <mergeCell ref="IT32:IU33"/>
-    <mergeCell ref="JF32:JG33"/>
-    <mergeCell ref="JS32:JT33"/>
-    <mergeCell ref="KE32:KF33"/>
-    <mergeCell ref="KR32:KS33"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="P42:Q43"/>
-    <mergeCell ref="AC42:AD43"/>
-    <mergeCell ref="AO42:AP43"/>
-    <mergeCell ref="BB42:BC43"/>
-    <mergeCell ref="FW32:FX33"/>
-    <mergeCell ref="GI32:GJ33"/>
-    <mergeCell ref="GV32:GW33"/>
-    <mergeCell ref="HH32:HI33"/>
-    <mergeCell ref="HU32:HV33"/>
-    <mergeCell ref="IG32:IH33"/>
-    <mergeCell ref="CZ32:DA33"/>
-    <mergeCell ref="DL32:DM33"/>
-    <mergeCell ref="DY32:DZ33"/>
-    <mergeCell ref="EK32:EL33"/>
-    <mergeCell ref="EX32:EY33"/>
-    <mergeCell ref="FJ32:FK33"/>
-    <mergeCell ref="FJ42:FK43"/>
-    <mergeCell ref="FW42:FX43"/>
-    <mergeCell ref="KR22:KS23"/>
-    <mergeCell ref="LD22:LE23"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="P32:Q33"/>
-    <mergeCell ref="AC32:AD33"/>
-    <mergeCell ref="AO32:AP33"/>
-    <mergeCell ref="BB32:BC33"/>
-    <mergeCell ref="BN32:BO33"/>
-    <mergeCell ref="CA32:CB33"/>
-    <mergeCell ref="CM32:CN33"/>
-    <mergeCell ref="HU22:HV23"/>
-    <mergeCell ref="IG22:IH23"/>
-    <mergeCell ref="IT22:IU23"/>
-    <mergeCell ref="JF22:JG23"/>
-    <mergeCell ref="JS22:JT23"/>
-    <mergeCell ref="KE22:KF23"/>
-    <mergeCell ref="EX22:EY23"/>
-    <mergeCell ref="FJ22:FK23"/>
-    <mergeCell ref="FW22:FX23"/>
-    <mergeCell ref="GI22:GJ23"/>
-    <mergeCell ref="GV22:GW23"/>
-    <mergeCell ref="HH22:HI23"/>
-    <mergeCell ref="CA22:CB23"/>
-    <mergeCell ref="CM22:CN23"/>
-    <mergeCell ref="HU12:HV13"/>
-    <mergeCell ref="IG12:IH13"/>
-    <mergeCell ref="CZ22:DA23"/>
-    <mergeCell ref="DL22:DM23"/>
-    <mergeCell ref="DY22:DZ23"/>
-    <mergeCell ref="EK22:EL23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="AC22:AD23"/>
-    <mergeCell ref="AO22:AP23"/>
-    <mergeCell ref="BB22:BC23"/>
-    <mergeCell ref="BN22:BO23"/>
-    <mergeCell ref="KR2:KS3"/>
-    <mergeCell ref="LD2:LE3"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="AC12:AD13"/>
-    <mergeCell ref="AO12:AP13"/>
-    <mergeCell ref="BB12:BC13"/>
-    <mergeCell ref="BN12:BO13"/>
-    <mergeCell ref="CA12:CB13"/>
-    <mergeCell ref="CM12:CN13"/>
-    <mergeCell ref="HU2:HV3"/>
-    <mergeCell ref="IG2:IH3"/>
-    <mergeCell ref="IT2:IU3"/>
-    <mergeCell ref="JF2:JG3"/>
-    <mergeCell ref="JS2:JT3"/>
-    <mergeCell ref="KE2:KF3"/>
-    <mergeCell ref="EX2:EY3"/>
-    <mergeCell ref="FJ2:FK3"/>
-    <mergeCell ref="IT12:IU13"/>
-    <mergeCell ref="JF12:JG13"/>
-    <mergeCell ref="JS12:JT13"/>
-    <mergeCell ref="KE12:KF13"/>
-    <mergeCell ref="KR12:KS13"/>
-    <mergeCell ref="LD12:LE13"/>
-    <mergeCell ref="HH2:HI3"/>
-    <mergeCell ref="CA2:CB3"/>
-    <mergeCell ref="CM2:CN3"/>
-    <mergeCell ref="CZ2:DA3"/>
-    <mergeCell ref="DL2:DM3"/>
-    <mergeCell ref="DY2:DZ3"/>
-    <mergeCell ref="EK2:EL3"/>
-    <mergeCell ref="CZ12:DA13"/>
-    <mergeCell ref="DL12:DM13"/>
-    <mergeCell ref="DY12:DZ13"/>
-    <mergeCell ref="EK12:EL13"/>
-    <mergeCell ref="EX12:EY13"/>
-    <mergeCell ref="FJ12:FK13"/>
-    <mergeCell ref="FW12:FX13"/>
-    <mergeCell ref="GI12:GJ13"/>
-    <mergeCell ref="GV12:GW13"/>
-    <mergeCell ref="HH12:HI13"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AO2:AP3"/>
-    <mergeCell ref="BB2:BC3"/>
-    <mergeCell ref="BN2:BO3"/>
-    <mergeCell ref="FW2:FX3"/>
-    <mergeCell ref="GI2:GJ3"/>
-    <mergeCell ref="GV2:GW3"/>
+    <mergeCell ref="OM51:PA51"/>
+    <mergeCell ref="PB51:PC51"/>
+    <mergeCell ref="PD51:PE51"/>
+    <mergeCell ref="PG51:PH51"/>
+    <mergeCell ref="PL51:PZ51"/>
+    <mergeCell ref="QA51:QB51"/>
+    <mergeCell ref="QC51:QD51"/>
+    <mergeCell ref="QF51:QG51"/>
+    <mergeCell ref="QK51:QY51"/>
+    <mergeCell ref="QZ51:RA51"/>
+    <mergeCell ref="RB51:RC51"/>
+    <mergeCell ref="RE51:RF51"/>
+    <mergeCell ref="RJ51:RX51"/>
+    <mergeCell ref="RY51:RZ51"/>
+    <mergeCell ref="SA51:SB51"/>
+    <mergeCell ref="SD51:SE51"/>
+    <mergeCell ref="SI51:SW51"/>
+    <mergeCell ref="SX51:SY51"/>
+    <mergeCell ref="SZ51:TA51"/>
+    <mergeCell ref="TC51:TD51"/>
+    <mergeCell ref="TH51:TV51"/>
+    <mergeCell ref="TW51:TX51"/>
+    <mergeCell ref="TY51:TZ51"/>
+    <mergeCell ref="UB51:UC51"/>
+    <mergeCell ref="UG51:UU51"/>
+    <mergeCell ref="UV51:UW51"/>
+    <mergeCell ref="UX51:UY51"/>
+    <mergeCell ref="XD51:XR51"/>
+    <mergeCell ref="XS51:XT51"/>
+    <mergeCell ref="XU51:XV51"/>
+    <mergeCell ref="XX51:XY51"/>
+    <mergeCell ref="VA51:VB51"/>
+    <mergeCell ref="VF51:VT51"/>
+    <mergeCell ref="VU51:VV51"/>
+    <mergeCell ref="VW51:VX51"/>
+    <mergeCell ref="VZ51:WA51"/>
+    <mergeCell ref="WE51:WS51"/>
+    <mergeCell ref="WT51:WU51"/>
+    <mergeCell ref="WV51:WW51"/>
+    <mergeCell ref="WY51:WZ51"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7B969B-1595-4B5D-B065-0D30FB5BFD17}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
@@ -35949,8 +35972,8 @@
     </row>
     <row r="2" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="40"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="G2" s="41"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -35960,8 +35983,8 @@
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
       <c r="O2" s="40"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
       <c r="R2" s="39"/>
       <c r="S2" s="41"/>
       <c r="T2" s="42"/>
@@ -35971,8 +35994,8 @@
       <c r="X2" s="43"/>
     </row>
     <row r="3" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
       <c r="G3" s="46"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -35981,8 +36004,8 @@
       <c r="L3" s="48"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
       <c r="R3" s="39"/>
       <c r="S3" s="46"/>
       <c r="T3" s="47"/>
@@ -36185,8 +36208,8 @@
     </row>
     <row r="12" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="40"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -36196,8 +36219,8 @@
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="80"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="84"/>
       <c r="R12" s="39"/>
       <c r="S12" s="41"/>
       <c r="T12" s="42"/>
@@ -36207,8 +36230,8 @@
       <c r="X12" s="43"/>
     </row>
     <row r="13" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
       <c r="G13" s="46"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -36217,8 +36240,8 @@
       <c r="L13" s="48"/>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="82"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
       <c r="R13" s="39"/>
       <c r="S13" s="46"/>
       <c r="T13" s="47"/>
@@ -36427,8 +36450,8 @@
     </row>
     <row r="22" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="40"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="39"/>
       <c r="G22" s="41"/>
       <c r="H22" s="42"/>
@@ -36439,8 +36462,8 @@
       <c r="M22" s="39"/>
       <c r="N22" s="39"/>
       <c r="O22" s="40"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="80"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="84"/>
       <c r="R22" s="39"/>
       <c r="S22" s="41"/>
       <c r="T22" s="42"/>
@@ -36450,8 +36473,8 @@
       <c r="X22" s="43"/>
     </row>
     <row r="23" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="39"/>
       <c r="G23" s="46"/>
       <c r="H23" s="47"/>
@@ -36461,8 +36484,8 @@
       <c r="L23" s="48"/>
       <c r="M23" s="39"/>
       <c r="N23" s="39"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="82"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="86"/>
       <c r="R23" s="39"/>
       <c r="S23" s="46"/>
       <c r="T23" s="47"/>
@@ -36675,8 +36698,8 @@
     </row>
     <row r="32" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="40"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="39"/>
       <c r="G32" s="41"/>
       <c r="H32" s="42"/>
@@ -36687,8 +36710,8 @@
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
       <c r="O32" s="40"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="80"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="84"/>
       <c r="R32" s="39"/>
       <c r="S32" s="41"/>
       <c r="T32" s="42"/>
@@ -36698,8 +36721,8 @@
       <c r="X32" s="43"/>
     </row>
     <row r="33" spans="3:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="39"/>
       <c r="G33" s="46"/>
       <c r="H33" s="47"/>
@@ -36709,8 +36732,8 @@
       <c r="L33" s="48"/>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="82"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="39"/>
       <c r="S33" s="46"/>
       <c r="T33" s="47"/>
@@ -36925,8 +36948,8 @@
     </row>
     <row r="42" spans="3:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="40"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84"/>
       <c r="F42" s="39"/>
       <c r="G42" s="41"/>
       <c r="H42" s="42"/>
@@ -36937,8 +36960,8 @@
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
       <c r="O42" s="40"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="80"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="84"/>
       <c r="R42" s="39"/>
       <c r="S42" s="41"/>
       <c r="T42" s="42"/>
@@ -36948,8 +36971,8 @@
       <c r="X42" s="43"/>
     </row>
     <row r="43" spans="3:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="39"/>
       <c r="G43" s="46"/>
       <c r="H43" s="47"/>
@@ -36959,8 +36982,8 @@
       <c r="L43" s="48"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="82"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="86"/>
       <c r="R43" s="39"/>
       <c r="S43" s="46"/>
       <c r="T43" s="47"/>
@@ -37134,47 +37157,41 @@
       <c r="X49" s="63"/>
     </row>
     <row r="51" spans="3:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="84" t="s">
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="S51" s="85"/>
-      <c r="T51" s="85" t="s">
+      <c r="S51" s="81"/>
+      <c r="T51" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="U51" s="85"/>
+      <c r="U51" s="81"/>
       <c r="V51" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="W51" s="85" t="s">
+      <c r="W51" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="X51" s="86"/>
+      <c r="X51" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="P42:Q43"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="D32:E33"/>
@@ -37183,13 +37200,19 @@
     <mergeCell ref="D22:E23"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="C51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="P42:Q43"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBBAE74-9C20-4812-9419-991CE7088044}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
@@ -37203,45 +37226,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="93"/>
     </row>
     <row r="2" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -37312,46 +37335,46 @@
     <row r="4" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="87"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="2"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="87"/>
+      <c r="T4" s="90"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="87" t="s">
+      <c r="AC4" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AD4" s="87"/>
+      <c r="AD4" s="90"/>
     </row>
     <row r="5" spans="1:37" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -37966,45 +37989,45 @@
       <c r="Y17"/>
     </row>
     <row r="18" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="91"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="91"/>
-      <c r="AJ18" s="91"/>
-      <c r="AK18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="93"/>
     </row>
     <row r="19" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
@@ -38075,43 +38098,43 @@
     <row r="21" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="87" t="s">
+      <c r="F21" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="87"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
-      <c r="K21" s="87" t="s">
+      <c r="K21" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="36"/>
-      <c r="S21" s="87" t="s">
+      <c r="S21" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="87"/>
+      <c r="T21" s="90"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="87" t="s">
+      <c r="V21" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="W21" s="87"/>
-      <c r="AA21" s="87" t="s">
+      <c r="W21" s="90"/>
+      <c r="AA21" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
     </row>
     <row r="22" spans="1:37" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -38603,6 +38626,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A18:AK18"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="V27:W27"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="V30:W30"/>
@@ -38619,68 +38704,6 @@
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="S28:T28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A18:AK18"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
